--- a/Logs/bookings_log.xlsx
+++ b/Logs/bookings_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="119">
   <si>
     <t>Summary.Origin Address</t>
   </si>
@@ -100,6 +100,15 @@
     <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
+    <t>Nhava Sheva, India (INNSA)</t>
+  </si>
+  <si>
+    <t>303905, Jaipur, Jaipur, Rajasthan, India</t>
+  </si>
+  <si>
+    <t>Nhava Sheva, India(INNSA)</t>
+  </si>
+  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
@@ -115,12 +124,24 @@
     <t>East Coast</t>
   </si>
   <si>
+    <t>Gulf Coast</t>
+  </si>
+  <si>
+    <t>West Coast</t>
+  </si>
+  <si>
     <t>Charleston</t>
   </si>
   <si>
     <t>New York</t>
   </si>
   <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
     <t>AGS2</t>
   </si>
   <si>
@@ -130,6 +151,30 @@
     <t>TEB9</t>
   </si>
   <si>
+    <t>IUST</t>
+  </si>
+  <si>
+    <t>AVP1</t>
+  </si>
+  <si>
+    <t>RDU4</t>
+  </si>
+  <si>
+    <t>FTW1</t>
+  </si>
+  <si>
+    <t>GYR2</t>
+  </si>
+  <si>
+    <t>GYR3</t>
+  </si>
+  <si>
+    <t>MQJ1</t>
+  </si>
+  <si>
+    <t>TMB8</t>
+  </si>
+  <si>
     <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
   </si>
   <si>
@@ -139,6 +184,30 @@
     <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
   </si>
   <si>
+    <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
+  </si>
+  <si>
+    <t>FTW1 75241, Dallas, Dallas, Texas, United States</t>
+  </si>
+  <si>
+    <t>GYR2 85395, Palm Valley, Goodyear, Arizona, United States</t>
+  </si>
+  <si>
+    <t>GYR3 85043, Estrella Village, Phoenix, Arizona, United States</t>
+  </si>
+  <si>
+    <t>MQJ1 46140, Greenfield, Greenfield, Indiana, United States</t>
+  </si>
+  <si>
+    <t>TMB8 33032, Princeton, Princeton, Florida, United States</t>
+  </si>
+  <si>
     <t>NON HOT</t>
   </si>
   <si>
@@ -160,12 +229,24 @@
     <t>AmznFrgt</t>
   </si>
   <si>
+    <t>Ex-Freight</t>
+  </si>
+  <si>
     <t>Estes Express Lines</t>
   </si>
   <si>
     <t>JBHZ</t>
   </si>
   <si>
+    <t>ABF Density</t>
+  </si>
+  <si>
+    <t>Frontline Freight</t>
+  </si>
+  <si>
+    <t>Estes Express Lines VL</t>
+  </si>
+  <si>
     <t>1St Mile</t>
   </si>
   <si>
@@ -196,6 +277,36 @@
     <t>Last Mile(TEB9)</t>
   </si>
   <si>
+    <t>Last Mile(IUST)</t>
+  </si>
+  <si>
+    <t>Last Mile(AVP1)</t>
+  </si>
+  <si>
+    <t>Last Mile(RDU4)</t>
+  </si>
+  <si>
+    <t>P2P(Los Angeles)</t>
+  </si>
+  <si>
+    <t>Last Mile(FTW1)</t>
+  </si>
+  <si>
+    <t>Last Mile(GYR2)</t>
+  </si>
+  <si>
+    <t>Last Mile(GYR3)</t>
+  </si>
+  <si>
+    <t>Last Mile(MQJ1)</t>
+  </si>
+  <si>
+    <t>P2P(Jacksonville)</t>
+  </si>
+  <si>
+    <t>Last Mile(TMB8)</t>
+  </si>
+  <si>
     <t>As per Vendor</t>
   </si>
   <si>
@@ -230,6 +341,36 @@
   </si>
   <si>
     <t>2025-08-12 13:47:58</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:21:32</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:23:32</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:29:43</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:45:28</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:43:45</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:46:36</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:46:37</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:50:03</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:01:38</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:06:41</t>
   </si>
 </sst>
 </file>
@@ -587,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA81"/>
+  <dimension ref="A1:AA183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,28 +822,28 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -711,22 +852,22 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="O2">
         <v>305.01</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S2">
         <v>38.44</v>
@@ -744,18 +885,18 @@
         <v>3382.53</v>
       </c>
       <c r="X2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="P3" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S3">
         <v>53</v>
@@ -773,18 +914,18 @@
         <v>4664</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z3" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="P4" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q4" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S4">
         <v>100</v>
@@ -802,18 +943,18 @@
         <v>8800</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z4" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="P5" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -834,18 +975,18 @@
         <v>10701.67</v>
       </c>
       <c r="X5" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z5" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="P6" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -866,18 +1007,18 @@
         <v>1760</v>
       </c>
       <c r="X6" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z6" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="P7" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -898,18 +1039,18 @@
         <v>26840.88</v>
       </c>
       <c r="X7" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z7" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="P8" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -927,10 +1068,10 @@
         <v>56149.08</v>
       </c>
       <c r="X8" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z8" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -938,28 +1079,28 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J9">
         <v>1.382</v>
@@ -968,22 +1109,22 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="O9">
         <v>681.3099999999999</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q9" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S9">
         <v>53.12</v>
@@ -1001,18 +1142,18 @@
         <v>4674.66</v>
       </c>
       <c r="X9" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z9" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="P10" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S10">
         <v>53</v>
@@ -1030,18 +1171,18 @@
         <v>4664</v>
       </c>
       <c r="X10" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z10" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="P11" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S11">
         <v>100</v>
@@ -1059,18 +1200,18 @@
         <v>8800</v>
       </c>
       <c r="X11" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z11" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="P12" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q12" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R12">
         <v>1.382</v>
@@ -1091,18 +1232,18 @@
         <v>7725.46</v>
       </c>
       <c r="X12" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z12" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="P13" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="Q13" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R13">
         <v>1.382</v>
@@ -1123,18 +1264,18 @@
         <v>1090.1</v>
       </c>
       <c r="X13" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z13" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="P14" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R14">
         <v>1.382</v>
@@ -1152,10 +1293,10 @@
         <v>28491.49</v>
       </c>
       <c r="X14" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z14" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1163,28 +1304,28 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1193,19 +1334,19 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O15">
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q15" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S15">
         <v>38.44</v>
@@ -1223,18 +1364,18 @@
         <v>3382.53</v>
       </c>
       <c r="X15" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z15" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="P16" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q16" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S16">
         <v>53</v>
@@ -1252,18 +1393,18 @@
         <v>4664</v>
       </c>
       <c r="X16" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z16" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="P17" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q17" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S17">
         <v>100</v>
@@ -1281,18 +1422,18 @@
         <v>8800</v>
       </c>
       <c r="X17" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z17" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:26">
       <c r="P18" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q18" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -1313,18 +1454,18 @@
         <v>10679.67</v>
       </c>
       <c r="X18" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z18" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="P19" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="Q19" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -1345,18 +1486,18 @@
         <v>1584</v>
       </c>
       <c r="X19" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z19" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="P20" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q20" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -1377,18 +1518,18 @@
         <v>8536</v>
       </c>
       <c r="X20" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z20" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="P21" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q21" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -1406,10 +1547,10 @@
         <v>39670.2</v>
       </c>
       <c r="X21" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z21" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -1417,28 +1558,28 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1447,22 +1588,22 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M22" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="O22">
         <v>305.01</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q22" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S22">
         <v>43.68</v>
@@ -1480,18 +1621,18 @@
         <v>3843.79</v>
       </c>
       <c r="X22" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z22" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:26">
       <c r="P23" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q23" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S23">
         <v>53</v>
@@ -1509,18 +1650,18 @@
         <v>4664</v>
       </c>
       <c r="X23" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z23" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="P24" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q24" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S24">
         <v>100</v>
@@ -1538,18 +1679,18 @@
         <v>8800</v>
       </c>
       <c r="X24" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z24" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:26">
       <c r="P25" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q25" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -1570,18 +1711,18 @@
         <v>10701.67</v>
       </c>
       <c r="X25" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z25" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:26">
       <c r="P26" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="Q26" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R26">
         <v>1</v>
@@ -1602,18 +1743,18 @@
         <v>1760</v>
       </c>
       <c r="X26" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z26" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:26">
       <c r="P27" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="Q27" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -1634,18 +1775,18 @@
         <v>26840.88</v>
       </c>
       <c r="X27" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z27" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:26">
       <c r="P28" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q28" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R28">
         <v>1</v>
@@ -1663,10 +1804,10 @@
         <v>56610.34</v>
       </c>
       <c r="X28" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z28" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -1674,28 +1815,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J29">
         <v>1.382</v>
@@ -1704,22 +1845,22 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="M29" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="N29" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="O29">
         <v>681.3099999999999</v>
       </c>
       <c r="P29" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q29" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S29">
         <v>60.36</v>
@@ -1737,18 +1878,18 @@
         <v>5312.12</v>
       </c>
       <c r="X29" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z29" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:26">
       <c r="P30" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q30" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S30">
         <v>53</v>
@@ -1766,18 +1907,18 @@
         <v>4664</v>
       </c>
       <c r="X30" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z30" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:26">
       <c r="P31" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q31" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S31">
         <v>100</v>
@@ -1795,18 +1936,18 @@
         <v>8800</v>
       </c>
       <c r="X31" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z31" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="P32" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q32" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R32">
         <v>1.382</v>
@@ -1827,18 +1968,18 @@
         <v>7725.46</v>
       </c>
       <c r="X32" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z32" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="P33" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="Q33" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R33">
         <v>1.382</v>
@@ -1859,18 +2000,18 @@
         <v>1090.1</v>
       </c>
       <c r="X33" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z33" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="P34" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q34" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R34">
         <v>1.382</v>
@@ -1888,10 +2029,10 @@
         <v>28952.75</v>
       </c>
       <c r="X34" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z34" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -1899,28 +2040,28 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -1929,19 +2070,19 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M35" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O35">
         <v>97</v>
       </c>
       <c r="P35" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q35" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S35">
         <v>43.68</v>
@@ -1959,18 +2100,18 @@
         <v>3843.79</v>
       </c>
       <c r="X35" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z35" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:27">
       <c r="P36" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q36" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S36">
         <v>53</v>
@@ -1988,18 +2129,18 @@
         <v>4664</v>
       </c>
       <c r="X36" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z36" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="P37" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q37" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S37">
         <v>100</v>
@@ -2017,18 +2158,18 @@
         <v>8800</v>
       </c>
       <c r="X37" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z37" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="P38" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q38" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -2049,18 +2190,18 @@
         <v>10679.67</v>
       </c>
       <c r="X38" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z38" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="P39" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="Q39" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -2081,18 +2222,18 @@
         <v>1584</v>
       </c>
       <c r="X39" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z39" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="P40" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q40" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -2113,18 +2254,18 @@
         <v>8536</v>
       </c>
       <c r="X40" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z40" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:27">
       <c r="P41" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q41" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -2142,10 +2283,10 @@
         <v>40131.46</v>
       </c>
       <c r="X41" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z41" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -2153,28 +2294,28 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2183,22 +2324,22 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M42" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N42" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="O42">
         <v>305.01</v>
       </c>
       <c r="P42" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q42" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S42">
         <v>43.68</v>
@@ -2213,10 +2354,10 @@
         <v>3843.79</v>
       </c>
       <c r="X42" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z42" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA42">
         <v>43.68</v>
@@ -2224,10 +2365,10 @@
     </row>
     <row r="43" spans="1:27">
       <c r="P43" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q43" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S43">
         <v>53</v>
@@ -2242,10 +2383,10 @@
         <v>4664</v>
       </c>
       <c r="X43" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z43" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA43">
         <v>53</v>
@@ -2253,10 +2394,10 @@
     </row>
     <row r="44" spans="1:27">
       <c r="P44" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q44" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S44">
         <v>100</v>
@@ -2271,10 +2412,10 @@
         <v>8800</v>
       </c>
       <c r="X44" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z44" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA44">
         <v>100</v>
@@ -2282,10 +2423,10 @@
     </row>
     <row r="45" spans="1:27">
       <c r="P45" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q45" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -2303,10 +2444,10 @@
         <v>10701.67</v>
       </c>
       <c r="X45" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z45" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA45">
         <v>121.61</v>
@@ -2314,10 +2455,10 @@
     </row>
     <row r="46" spans="1:27">
       <c r="P46" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="Q46" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -2335,10 +2476,10 @@
         <v>1760</v>
       </c>
       <c r="X46" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z46" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA46">
         <v>20</v>
@@ -2346,10 +2487,10 @@
     </row>
     <row r="47" spans="1:27">
       <c r="P47" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="Q47" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -2367,10 +2508,10 @@
         <v>26840.88</v>
       </c>
       <c r="X47" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z47" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA47">
         <v>305.01</v>
@@ -2378,10 +2519,10 @@
     </row>
     <row r="48" spans="1:27">
       <c r="P48" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q48" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -2399,10 +2540,10 @@
         <v>56610.34</v>
       </c>
       <c r="X48" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z48" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -2410,28 +2551,28 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J49">
         <v>1.382</v>
@@ -2440,22 +2581,22 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="M49" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="N49" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="O49">
         <v>681.3099999999999</v>
       </c>
       <c r="P49" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q49" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S49">
         <v>60.36</v>
@@ -2470,10 +2611,10 @@
         <v>5312.12</v>
       </c>
       <c r="X49" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z49" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA49">
         <v>60.36</v>
@@ -2481,10 +2622,10 @@
     </row>
     <row r="50" spans="1:27">
       <c r="P50" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q50" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S50">
         <v>53</v>
@@ -2499,10 +2640,10 @@
         <v>4664</v>
       </c>
       <c r="X50" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z50" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA50">
         <v>53</v>
@@ -2510,10 +2651,10 @@
     </row>
     <row r="51" spans="1:27">
       <c r="P51" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q51" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S51">
         <v>100</v>
@@ -2528,10 +2669,10 @@
         <v>8800</v>
       </c>
       <c r="X51" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z51" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA51">
         <v>100</v>
@@ -2539,10 +2680,10 @@
     </row>
     <row r="52" spans="1:27">
       <c r="P52" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q52" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R52">
         <v>1.382</v>
@@ -2560,10 +2701,10 @@
         <v>7725.46</v>
       </c>
       <c r="X52" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z52" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA52">
         <v>87.79000000000001</v>
@@ -2571,10 +2712,10 @@
     </row>
     <row r="53" spans="1:27">
       <c r="P53" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="Q53" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R53">
         <v>1.382</v>
@@ -2592,10 +2733,10 @@
         <v>1090.1</v>
       </c>
       <c r="X53" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z53" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA53">
         <v>12.39</v>
@@ -2603,10 +2744,10 @@
     </row>
     <row r="54" spans="1:27">
       <c r="P54" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q54" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R54">
         <v>1.382</v>
@@ -2624,10 +2765,10 @@
         <v>28952.75</v>
       </c>
       <c r="X54" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z54" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -2635,28 +2776,28 @@
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2665,19 +2806,19 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M55" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O55">
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q55" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S55">
         <v>43.68</v>
@@ -2692,10 +2833,10 @@
         <v>3843.79</v>
       </c>
       <c r="X55" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z55" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA55">
         <v>43.68</v>
@@ -2703,10 +2844,10 @@
     </row>
     <row r="56" spans="1:27">
       <c r="P56" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q56" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S56">
         <v>53</v>
@@ -2721,10 +2862,10 @@
         <v>4664</v>
       </c>
       <c r="X56" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z56" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA56">
         <v>53</v>
@@ -2732,10 +2873,10 @@
     </row>
     <row r="57" spans="1:27">
       <c r="P57" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q57" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S57">
         <v>100</v>
@@ -2750,10 +2891,10 @@
         <v>8800</v>
       </c>
       <c r="X57" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z57" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA57">
         <v>100</v>
@@ -2761,10 +2902,10 @@
     </row>
     <row r="58" spans="1:27">
       <c r="P58" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q58" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R58">
         <v>1</v>
@@ -2782,10 +2923,10 @@
         <v>10679.67</v>
       </c>
       <c r="X58" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z58" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA58">
         <v>121.36</v>
@@ -2793,10 +2934,10 @@
     </row>
     <row r="59" spans="1:27">
       <c r="P59" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="Q59" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R59">
         <v>1</v>
@@ -2814,10 +2955,10 @@
         <v>1584</v>
       </c>
       <c r="X59" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z59" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA59">
         <v>18</v>
@@ -2825,10 +2966,10 @@
     </row>
     <row r="60" spans="1:27">
       <c r="P60" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q60" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R60">
         <v>1</v>
@@ -2846,10 +2987,10 @@
         <v>8536</v>
       </c>
       <c r="X60" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z60" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AA60">
         <v>97</v>
@@ -2857,10 +2998,10 @@
     </row>
     <row r="61" spans="1:27">
       <c r="P61" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q61" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -2878,10 +3019,10 @@
         <v>40131.46</v>
       </c>
       <c r="X61" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z61" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -2889,28 +3030,28 @@
         <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H62" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2919,22 +3060,22 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M62" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N62" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="O62">
         <v>305.01</v>
       </c>
       <c r="P62" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q62" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S62">
         <v>43.68</v>
@@ -2949,10 +3090,10 @@
         <v>3843.79</v>
       </c>
       <c r="X62" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z62" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AA62">
         <v>43.68</v>
@@ -2960,10 +3101,10 @@
     </row>
     <row r="63" spans="1:27">
       <c r="P63" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q63" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S63">
         <v>53</v>
@@ -2978,10 +3119,10 @@
         <v>4664</v>
       </c>
       <c r="X63" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z63" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AA63">
         <v>53</v>
@@ -2989,10 +3130,10 @@
     </row>
     <row r="64" spans="1:27">
       <c r="P64" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q64" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S64">
         <v>100</v>
@@ -3007,10 +3148,10 @@
         <v>8800</v>
       </c>
       <c r="X64" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z64" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AA64">
         <v>100</v>
@@ -3018,10 +3159,10 @@
     </row>
     <row r="65" spans="1:27">
       <c r="P65" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q65" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R65">
         <v>1</v>
@@ -3039,10 +3180,10 @@
         <v>10701.67</v>
       </c>
       <c r="X65" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z65" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AA65">
         <v>121.61</v>
@@ -3050,10 +3191,10 @@
     </row>
     <row r="66" spans="1:27">
       <c r="P66" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="Q66" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R66">
         <v>1</v>
@@ -3071,10 +3212,10 @@
         <v>1760</v>
       </c>
       <c r="X66" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z66" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AA66">
         <v>20</v>
@@ -3082,10 +3223,10 @@
     </row>
     <row r="67" spans="1:27">
       <c r="P67" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="Q67" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R67">
         <v>1</v>
@@ -3103,10 +3244,10 @@
         <v>26840.88</v>
       </c>
       <c r="X67" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z67" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AA67">
         <v>305.01</v>
@@ -3114,10 +3255,10 @@
     </row>
     <row r="68" spans="1:27">
       <c r="P68" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q68" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R68">
         <v>1</v>
@@ -3132,10 +3273,10 @@
         <v>56610.34</v>
       </c>
       <c r="X68" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Z68" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AA68">
         <v>643.3</v>
@@ -3146,28 +3287,28 @@
         <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J69">
         <v>1.382</v>
@@ -3176,22 +3317,22 @@
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="M69" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="N69" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="O69">
         <v>681.3099999999999</v>
       </c>
       <c r="P69" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q69" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S69">
         <v>60.36</v>
@@ -3206,10 +3347,10 @@
         <v>5312.12</v>
       </c>
       <c r="X69" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z69" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA69">
         <v>60.36</v>
@@ -3217,10 +3358,10 @@
     </row>
     <row r="70" spans="1:27">
       <c r="P70" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q70" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S70">
         <v>53</v>
@@ -3235,10 +3376,10 @@
         <v>4664</v>
       </c>
       <c r="X70" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z70" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA70">
         <v>53</v>
@@ -3246,10 +3387,10 @@
     </row>
     <row r="71" spans="1:27">
       <c r="P71" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q71" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S71">
         <v>100</v>
@@ -3264,10 +3405,10 @@
         <v>8800</v>
       </c>
       <c r="X71" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z71" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA71">
         <v>100</v>
@@ -3275,10 +3416,10 @@
     </row>
     <row r="72" spans="1:27">
       <c r="P72" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q72" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R72">
         <v>1.382</v>
@@ -3296,10 +3437,10 @@
         <v>7725.46</v>
       </c>
       <c r="X72" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z72" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA72">
         <v>87.79000000000001</v>
@@ -3307,10 +3448,10 @@
     </row>
     <row r="73" spans="1:27">
       <c r="P73" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="Q73" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R73">
         <v>1.382</v>
@@ -3328,10 +3469,10 @@
         <v>1090.1</v>
       </c>
       <c r="X73" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z73" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA73">
         <v>12.39</v>
@@ -3339,10 +3480,10 @@
     </row>
     <row r="74" spans="1:27">
       <c r="P74" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q74" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R74">
         <v>1.382</v>
@@ -3357,10 +3498,10 @@
         <v>28952.75</v>
       </c>
       <c r="X74" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Z74" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA74">
         <v>329.01</v>
@@ -3371,28 +3512,28 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H75" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3401,19 +3542,19 @@
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M75" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O75">
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q75" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="S75">
         <v>43.68</v>
@@ -3428,10 +3569,10 @@
         <v>3843.79</v>
       </c>
       <c r="X75" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z75" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA75">
         <v>43.68</v>
@@ -3439,10 +3580,10 @@
     </row>
     <row r="76" spans="1:27">
       <c r="P76" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q76" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S76">
         <v>53</v>
@@ -3457,10 +3598,10 @@
         <v>4664</v>
       </c>
       <c r="X76" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z76" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA76">
         <v>53</v>
@@ -3468,10 +3609,10 @@
     </row>
     <row r="77" spans="1:27">
       <c r="P77" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Q77" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="S77">
         <v>100</v>
@@ -3486,10 +3627,10 @@
         <v>8800</v>
       </c>
       <c r="X77" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z77" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA77">
         <v>100</v>
@@ -3497,10 +3638,10 @@
     </row>
     <row r="78" spans="1:27">
       <c r="P78" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q78" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R78">
         <v>1</v>
@@ -3518,10 +3659,10 @@
         <v>10679.67</v>
       </c>
       <c r="X78" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z78" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA78">
         <v>121.36</v>
@@ -3529,10 +3670,10 @@
     </row>
     <row r="79" spans="1:27">
       <c r="P79" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="Q79" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R79">
         <v>1</v>
@@ -3550,10 +3691,10 @@
         <v>1584</v>
       </c>
       <c r="X79" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z79" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA79">
         <v>18</v>
@@ -3561,10 +3702,10 @@
     </row>
     <row r="80" spans="1:27">
       <c r="P80" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q80" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -3582,21 +3723,21 @@
         <v>8536</v>
       </c>
       <c r="X80" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z80" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA80">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="16:27">
+    <row r="81" spans="1:27">
       <c r="P81" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q81" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="R81">
         <v>1</v>
@@ -3611,13 +3752,3895 @@
         <v>40131.46</v>
       </c>
       <c r="X81" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="Z81" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AA81">
         <v>456.04</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>56</v>
+      </c>
+      <c r="I82" t="s">
+        <v>65</v>
+      </c>
+      <c r="J82">
+        <v>1.002</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>67</v>
+      </c>
+      <c r="M82" t="s">
+        <v>69</v>
+      </c>
+      <c r="N82" t="s">
+        <v>73</v>
+      </c>
+      <c r="O82">
+        <v>800.36</v>
+      </c>
+      <c r="P82" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>97</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>88</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="P83" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>98</v>
+      </c>
+      <c r="S83">
+        <v>53</v>
+      </c>
+      <c r="T83">
+        <v>88</v>
+      </c>
+      <c r="V83">
+        <v>4664</v>
+      </c>
+      <c r="W83">
+        <v>4664</v>
+      </c>
+      <c r="X83" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA83">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="P84" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>98</v>
+      </c>
+      <c r="S84">
+        <v>100</v>
+      </c>
+      <c r="T84">
+        <v>88</v>
+      </c>
+      <c r="V84">
+        <v>8800</v>
+      </c>
+      <c r="W84">
+        <v>8800</v>
+      </c>
+      <c r="X84" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="P85" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>99</v>
+      </c>
+      <c r="R85">
+        <v>1.002</v>
+      </c>
+      <c r="S85">
+        <v>101.71</v>
+      </c>
+      <c r="T85">
+        <v>88</v>
+      </c>
+      <c r="V85">
+        <v>8950.75</v>
+      </c>
+      <c r="W85">
+        <v>8932.879999999999</v>
+      </c>
+      <c r="X85" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA85">
+        <v>101.51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="P86" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>99</v>
+      </c>
+      <c r="R86">
+        <v>1.002</v>
+      </c>
+      <c r="S86">
+        <v>120</v>
+      </c>
+      <c r="T86">
+        <v>88</v>
+      </c>
+      <c r="V86">
+        <v>10560</v>
+      </c>
+      <c r="W86">
+        <v>10538.92</v>
+      </c>
+      <c r="X86" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA86">
+        <v>119.76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="P87" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>99</v>
+      </c>
+      <c r="R87">
+        <v>1.002</v>
+      </c>
+      <c r="S87">
+        <v>374.71</v>
+      </c>
+      <c r="V87">
+        <v>32974.75</v>
+      </c>
+      <c r="W87">
+        <v>32908.93</v>
+      </c>
+      <c r="X87" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA87">
+        <v>373.97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>56</v>
+      </c>
+      <c r="I88" t="s">
+        <v>65</v>
+      </c>
+      <c r="J88">
+        <v>4.009</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88" t="s">
+        <v>67</v>
+      </c>
+      <c r="M88" t="s">
+        <v>69</v>
+      </c>
+      <c r="N88" t="s">
+        <v>73</v>
+      </c>
+      <c r="O88">
+        <v>800.36</v>
+      </c>
+      <c r="P88" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>97</v>
+      </c>
+      <c r="S88">
+        <v>64.94</v>
+      </c>
+      <c r="T88">
+        <v>88</v>
+      </c>
+      <c r="V88">
+        <v>5714.34</v>
+      </c>
+      <c r="W88">
+        <v>5714.34</v>
+      </c>
+      <c r="X88" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA88">
+        <v>64.94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="P89" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>98</v>
+      </c>
+      <c r="S89">
+        <v>53</v>
+      </c>
+      <c r="T89">
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <v>4664</v>
+      </c>
+      <c r="W89">
+        <v>4664</v>
+      </c>
+      <c r="X89" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA89">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="P90" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>98</v>
+      </c>
+      <c r="S90">
+        <v>100</v>
+      </c>
+      <c r="T90">
+        <v>88</v>
+      </c>
+      <c r="V90">
+        <v>8800</v>
+      </c>
+      <c r="W90">
+        <v>8800</v>
+      </c>
+      <c r="X90" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="P91" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>99</v>
+      </c>
+      <c r="R91">
+        <v>4.009</v>
+      </c>
+      <c r="S91">
+        <v>256.9</v>
+      </c>
+      <c r="T91">
+        <v>88</v>
+      </c>
+      <c r="V91">
+        <v>22607.54</v>
+      </c>
+      <c r="W91">
+        <v>5639.2</v>
+      </c>
+      <c r="X91" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA91">
+        <v>64.08</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="P92" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>99</v>
+      </c>
+      <c r="R92">
+        <v>4.009</v>
+      </c>
+      <c r="S92">
+        <v>120</v>
+      </c>
+      <c r="T92">
+        <v>88</v>
+      </c>
+      <c r="V92">
+        <v>10560</v>
+      </c>
+      <c r="W92">
+        <v>2634.07</v>
+      </c>
+      <c r="X92" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA92">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="P93" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>99</v>
+      </c>
+      <c r="R93">
+        <v>4.009</v>
+      </c>
+      <c r="S93">
+        <v>594.84</v>
+      </c>
+      <c r="V93">
+        <v>52345.88</v>
+      </c>
+      <c r="W93">
+        <v>13057.09</v>
+      </c>
+      <c r="X93" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA93">
+        <v>148.38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>57</v>
+      </c>
+      <c r="I94" t="s">
+        <v>64</v>
+      </c>
+      <c r="J94">
+        <v>3.007</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94" t="s">
+        <v>66</v>
+      </c>
+      <c r="M94" t="s">
+        <v>70</v>
+      </c>
+      <c r="O94">
+        <v>180</v>
+      </c>
+      <c r="P94" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>97</v>
+      </c>
+      <c r="S94">
+        <v>48.71</v>
+      </c>
+      <c r="T94">
+        <v>88</v>
+      </c>
+      <c r="V94">
+        <v>4286.11</v>
+      </c>
+      <c r="W94">
+        <v>4286.11</v>
+      </c>
+      <c r="X94" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA94">
+        <v>48.71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="P95" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>98</v>
+      </c>
+      <c r="S95">
+        <v>53</v>
+      </c>
+      <c r="T95">
+        <v>88</v>
+      </c>
+      <c r="V95">
+        <v>4664</v>
+      </c>
+      <c r="W95">
+        <v>4664</v>
+      </c>
+      <c r="X95" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA95">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="P96" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>98</v>
+      </c>
+      <c r="S96">
+        <v>100</v>
+      </c>
+      <c r="T96">
+        <v>88</v>
+      </c>
+      <c r="V96">
+        <v>8800</v>
+      </c>
+      <c r="W96">
+        <v>8800</v>
+      </c>
+      <c r="X96" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="P97" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>99</v>
+      </c>
+      <c r="R97">
+        <v>3.007</v>
+      </c>
+      <c r="S97">
+        <v>264.58</v>
+      </c>
+      <c r="T97">
+        <v>88</v>
+      </c>
+      <c r="V97">
+        <v>23282.96</v>
+      </c>
+      <c r="W97">
+        <v>7742.92</v>
+      </c>
+      <c r="X97" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA97">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="P98" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>100</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>36</v>
+      </c>
+      <c r="T98">
+        <v>88</v>
+      </c>
+      <c r="V98">
+        <v>3168</v>
+      </c>
+      <c r="W98">
+        <v>451.56</v>
+      </c>
+      <c r="X98" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA98">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="P99" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>99</v>
+      </c>
+      <c r="R99">
+        <v>3.007</v>
+      </c>
+      <c r="S99">
+        <v>180</v>
+      </c>
+      <c r="T99">
+        <v>88</v>
+      </c>
+      <c r="V99">
+        <v>15840</v>
+      </c>
+      <c r="W99">
+        <v>15840</v>
+      </c>
+      <c r="X99" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA99">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="P100" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>99</v>
+      </c>
+      <c r="R100">
+        <v>3.007</v>
+      </c>
+      <c r="S100">
+        <v>682.28</v>
+      </c>
+      <c r="V100">
+        <v>60041.07</v>
+      </c>
+      <c r="W100">
+        <v>19967.1</v>
+      </c>
+      <c r="X100" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA100">
+        <v>226.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>56</v>
+      </c>
+      <c r="I101" t="s">
+        <v>65</v>
+      </c>
+      <c r="J101">
+        <v>4.009</v>
+      </c>
+      <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101" t="s">
+        <v>67</v>
+      </c>
+      <c r="M101" t="s">
+        <v>69</v>
+      </c>
+      <c r="N101" t="s">
+        <v>73</v>
+      </c>
+      <c r="O101">
+        <v>800.36</v>
+      </c>
+      <c r="P101" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>97</v>
+      </c>
+      <c r="S101">
+        <v>64.94</v>
+      </c>
+      <c r="T101">
+        <v>88</v>
+      </c>
+      <c r="V101">
+        <v>5714.34</v>
+      </c>
+      <c r="W101">
+        <v>5714.34</v>
+      </c>
+      <c r="X101" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA101">
+        <v>64.94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="P102" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>98</v>
+      </c>
+      <c r="S102">
+        <v>53</v>
+      </c>
+      <c r="T102">
+        <v>88</v>
+      </c>
+      <c r="V102">
+        <v>4664</v>
+      </c>
+      <c r="W102">
+        <v>4664</v>
+      </c>
+      <c r="X102" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA102">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
+      <c r="P103" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>98</v>
+      </c>
+      <c r="S103">
+        <v>100</v>
+      </c>
+      <c r="T103">
+        <v>88</v>
+      </c>
+      <c r="V103">
+        <v>8800</v>
+      </c>
+      <c r="W103">
+        <v>8800</v>
+      </c>
+      <c r="X103" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="P104" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>99</v>
+      </c>
+      <c r="R104">
+        <v>4.009</v>
+      </c>
+      <c r="S104">
+        <v>256.9</v>
+      </c>
+      <c r="T104">
+        <v>88</v>
+      </c>
+      <c r="V104">
+        <v>22607.54</v>
+      </c>
+      <c r="W104">
+        <v>5639.2</v>
+      </c>
+      <c r="X104" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA104">
+        <v>64.08</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="P105" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>99</v>
+      </c>
+      <c r="R105">
+        <v>4.009</v>
+      </c>
+      <c r="S105">
+        <v>120</v>
+      </c>
+      <c r="T105">
+        <v>88</v>
+      </c>
+      <c r="V105">
+        <v>10560</v>
+      </c>
+      <c r="W105">
+        <v>2634.07</v>
+      </c>
+      <c r="X105" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA105">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
+      <c r="P106" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>99</v>
+      </c>
+      <c r="R106">
+        <v>4.009</v>
+      </c>
+      <c r="S106">
+        <v>594.84</v>
+      </c>
+      <c r="V106">
+        <v>52345.88</v>
+      </c>
+      <c r="W106">
+        <v>13057.09</v>
+      </c>
+      <c r="X106" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA106">
+        <v>148.38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
+      <c r="A107" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>57</v>
+      </c>
+      <c r="I107" t="s">
+        <v>64</v>
+      </c>
+      <c r="J107">
+        <v>3.007</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107" t="s">
+        <v>66</v>
+      </c>
+      <c r="M107" t="s">
+        <v>70</v>
+      </c>
+      <c r="O107">
+        <v>180</v>
+      </c>
+      <c r="P107" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>97</v>
+      </c>
+      <c r="S107">
+        <v>48.71</v>
+      </c>
+      <c r="T107">
+        <v>88</v>
+      </c>
+      <c r="V107">
+        <v>4286.11</v>
+      </c>
+      <c r="W107">
+        <v>4286.11</v>
+      </c>
+      <c r="X107" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA107">
+        <v>48.71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
+      <c r="P108" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>98</v>
+      </c>
+      <c r="S108">
+        <v>53</v>
+      </c>
+      <c r="T108">
+        <v>88</v>
+      </c>
+      <c r="V108">
+        <v>4664</v>
+      </c>
+      <c r="W108">
+        <v>4664</v>
+      </c>
+      <c r="X108" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA108">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
+      <c r="P109" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>98</v>
+      </c>
+      <c r="S109">
+        <v>100</v>
+      </c>
+      <c r="T109">
+        <v>88</v>
+      </c>
+      <c r="V109">
+        <v>8800</v>
+      </c>
+      <c r="W109">
+        <v>8800</v>
+      </c>
+      <c r="X109" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
+      <c r="P110" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>99</v>
+      </c>
+      <c r="R110">
+        <v>3.007</v>
+      </c>
+      <c r="S110">
+        <v>264.58</v>
+      </c>
+      <c r="T110">
+        <v>88</v>
+      </c>
+      <c r="V110">
+        <v>23282.96</v>
+      </c>
+      <c r="W110">
+        <v>7742.92</v>
+      </c>
+      <c r="X110" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA110">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
+      <c r="P111" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>100</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>36</v>
+      </c>
+      <c r="T111">
+        <v>88</v>
+      </c>
+      <c r="V111">
+        <v>3168</v>
+      </c>
+      <c r="W111">
+        <v>1053.54</v>
+      </c>
+      <c r="X111" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA111">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
+      <c r="P112" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>99</v>
+      </c>
+      <c r="R112">
+        <v>3.007</v>
+      </c>
+      <c r="S112">
+        <v>180</v>
+      </c>
+      <c r="T112">
+        <v>88</v>
+      </c>
+      <c r="V112">
+        <v>15840</v>
+      </c>
+      <c r="W112">
+        <v>5267.71</v>
+      </c>
+      <c r="X112" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA112">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="P113" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>99</v>
+      </c>
+      <c r="R113">
+        <v>3.007</v>
+      </c>
+      <c r="S113">
+        <v>682.28</v>
+      </c>
+      <c r="V113">
+        <v>60041.07</v>
+      </c>
+      <c r="W113">
+        <v>19967.1</v>
+      </c>
+      <c r="X113" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA113">
+        <v>226.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="A114" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" t="s">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s">
+        <v>56</v>
+      </c>
+      <c r="I114" t="s">
+        <v>65</v>
+      </c>
+      <c r="J114">
+        <v>4.009</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114" t="s">
+        <v>67</v>
+      </c>
+      <c r="M114" t="s">
+        <v>69</v>
+      </c>
+      <c r="N114" t="s">
+        <v>73</v>
+      </c>
+      <c r="O114">
+        <v>800.36</v>
+      </c>
+      <c r="P114" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>97</v>
+      </c>
+      <c r="S114">
+        <v>64.94</v>
+      </c>
+      <c r="T114">
+        <v>88</v>
+      </c>
+      <c r="V114">
+        <v>5714.34</v>
+      </c>
+      <c r="W114">
+        <v>1425.38</v>
+      </c>
+      <c r="X114" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA114">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="P115" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>98</v>
+      </c>
+      <c r="S115">
+        <v>53</v>
+      </c>
+      <c r="T115">
+        <v>88</v>
+      </c>
+      <c r="V115">
+        <v>4664</v>
+      </c>
+      <c r="W115">
+        <v>1163.38</v>
+      </c>
+      <c r="X115" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA115">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="P116" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>98</v>
+      </c>
+      <c r="S116">
+        <v>100</v>
+      </c>
+      <c r="T116">
+        <v>88</v>
+      </c>
+      <c r="V116">
+        <v>8800</v>
+      </c>
+      <c r="W116">
+        <v>2195.06</v>
+      </c>
+      <c r="X116" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA116">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
+      <c r="P117" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>99</v>
+      </c>
+      <c r="R117">
+        <v>4.009</v>
+      </c>
+      <c r="S117">
+        <v>256.9</v>
+      </c>
+      <c r="T117">
+        <v>88</v>
+      </c>
+      <c r="V117">
+        <v>22607.54</v>
+      </c>
+      <c r="W117">
+        <v>5639.2</v>
+      </c>
+      <c r="X117" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA117">
+        <v>64.08</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27">
+      <c r="P118" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>99</v>
+      </c>
+      <c r="R118">
+        <v>4.009</v>
+      </c>
+      <c r="S118">
+        <v>120</v>
+      </c>
+      <c r="T118">
+        <v>88</v>
+      </c>
+      <c r="V118">
+        <v>10560</v>
+      </c>
+      <c r="W118">
+        <v>2634.07</v>
+      </c>
+      <c r="X118" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA118">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
+      <c r="P119" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>99</v>
+      </c>
+      <c r="R119">
+        <v>4.009</v>
+      </c>
+      <c r="S119">
+        <v>594.84</v>
+      </c>
+      <c r="V119">
+        <v>52345.88</v>
+      </c>
+      <c r="W119">
+        <v>13057.09</v>
+      </c>
+      <c r="X119" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA119">
+        <v>148.38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
+      <c r="A120" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>57</v>
+      </c>
+      <c r="I120" t="s">
+        <v>64</v>
+      </c>
+      <c r="J120">
+        <v>3.007</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120" t="s">
+        <v>66</v>
+      </c>
+      <c r="M120" t="s">
+        <v>70</v>
+      </c>
+      <c r="O120">
+        <v>180</v>
+      </c>
+      <c r="P120" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>97</v>
+      </c>
+      <c r="S120">
+        <v>48.71</v>
+      </c>
+      <c r="T120">
+        <v>88</v>
+      </c>
+      <c r="V120">
+        <v>4286.11</v>
+      </c>
+      <c r="W120">
+        <v>1425.38</v>
+      </c>
+      <c r="X120" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA120">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
+      <c r="P121" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>98</v>
+      </c>
+      <c r="S121">
+        <v>53</v>
+      </c>
+      <c r="T121">
+        <v>88</v>
+      </c>
+      <c r="V121">
+        <v>4664</v>
+      </c>
+      <c r="W121">
+        <v>1551.05</v>
+      </c>
+      <c r="X121" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA121">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
+      <c r="P122" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>98</v>
+      </c>
+      <c r="S122">
+        <v>100</v>
+      </c>
+      <c r="T122">
+        <v>88</v>
+      </c>
+      <c r="V122">
+        <v>8800</v>
+      </c>
+      <c r="W122">
+        <v>2926.5</v>
+      </c>
+      <c r="X122" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA122">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
+      <c r="P123" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>99</v>
+      </c>
+      <c r="R123">
+        <v>3.007</v>
+      </c>
+      <c r="S123">
+        <v>264.58</v>
+      </c>
+      <c r="T123">
+        <v>88</v>
+      </c>
+      <c r="V123">
+        <v>23282.96</v>
+      </c>
+      <c r="W123">
+        <v>7742.92</v>
+      </c>
+      <c r="X123" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA123">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
+      <c r="P124" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>100</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>36</v>
+      </c>
+      <c r="T124">
+        <v>88</v>
+      </c>
+      <c r="V124">
+        <v>3168</v>
+      </c>
+      <c r="W124">
+        <v>1053.54</v>
+      </c>
+      <c r="X124" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA124">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
+      <c r="P125" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>99</v>
+      </c>
+      <c r="R125">
+        <v>3.007</v>
+      </c>
+      <c r="S125">
+        <v>180</v>
+      </c>
+      <c r="T125">
+        <v>88</v>
+      </c>
+      <c r="V125">
+        <v>15840</v>
+      </c>
+      <c r="W125">
+        <v>5267.71</v>
+      </c>
+      <c r="X125" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA125">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
+      <c r="P126" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>99</v>
+      </c>
+      <c r="R126">
+        <v>3.007</v>
+      </c>
+      <c r="S126">
+        <v>682.28</v>
+      </c>
+      <c r="V126">
+        <v>60041.07</v>
+      </c>
+      <c r="W126">
+        <v>19967.1</v>
+      </c>
+      <c r="X126" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA126">
+        <v>226.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127" t="s">
+        <v>56</v>
+      </c>
+      <c r="I127" t="s">
+        <v>65</v>
+      </c>
+      <c r="J127">
+        <v>1.002</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>67</v>
+      </c>
+      <c r="M127" t="s">
+        <v>69</v>
+      </c>
+      <c r="N127" t="s">
+        <v>73</v>
+      </c>
+      <c r="O127">
+        <v>793.17</v>
+      </c>
+      <c r="P127" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>97</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>88</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
+      <c r="P128" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>98</v>
+      </c>
+      <c r="S128">
+        <v>53</v>
+      </c>
+      <c r="T128">
+        <v>88</v>
+      </c>
+      <c r="V128">
+        <v>4664</v>
+      </c>
+      <c r="W128">
+        <v>4654.69</v>
+      </c>
+      <c r="X128" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA128">
+        <v>52.89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="P129" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>98</v>
+      </c>
+      <c r="S129">
+        <v>100</v>
+      </c>
+      <c r="T129">
+        <v>88</v>
+      </c>
+      <c r="V129">
+        <v>8800</v>
+      </c>
+      <c r="W129">
+        <v>8782.440000000001</v>
+      </c>
+      <c r="X129" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA129">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="P130" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>99</v>
+      </c>
+      <c r="R130">
+        <v>1.002</v>
+      </c>
+      <c r="S130">
+        <v>101.71</v>
+      </c>
+      <c r="T130">
+        <v>88</v>
+      </c>
+      <c r="V130">
+        <v>8950.75</v>
+      </c>
+      <c r="W130">
+        <v>8932.879999999999</v>
+      </c>
+      <c r="X130" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA130">
+        <v>101.51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="P131" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>99</v>
+      </c>
+      <c r="R131">
+        <v>1.002</v>
+      </c>
+      <c r="S131">
+        <v>120</v>
+      </c>
+      <c r="T131">
+        <v>88</v>
+      </c>
+      <c r="V131">
+        <v>10560</v>
+      </c>
+      <c r="W131">
+        <v>10538.92</v>
+      </c>
+      <c r="X131" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA131">
+        <v>119.76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
+      <c r="P132" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>99</v>
+      </c>
+      <c r="R132">
+        <v>1.002</v>
+      </c>
+      <c r="S132">
+        <v>374.71</v>
+      </c>
+      <c r="V132">
+        <v>32974.75</v>
+      </c>
+      <c r="W132">
+        <v>32908.93</v>
+      </c>
+      <c r="X132" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA132">
+        <v>373.97</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
+      <c r="A133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" t="s">
+        <v>33</v>
+      </c>
+      <c r="E133" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" t="s">
+        <v>42</v>
+      </c>
+      <c r="H133" t="s">
+        <v>53</v>
+      </c>
+      <c r="I133" t="s">
+        <v>64</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>66</v>
+      </c>
+      <c r="M133" t="s">
+        <v>68</v>
+      </c>
+      <c r="N133" t="s">
+        <v>72</v>
+      </c>
+      <c r="O133">
+        <v>305.01</v>
+      </c>
+      <c r="P133" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>97</v>
+      </c>
+      <c r="S133">
+        <v>43.68</v>
+      </c>
+      <c r="T133">
+        <v>88</v>
+      </c>
+      <c r="V133">
+        <v>3843.79</v>
+      </c>
+      <c r="W133">
+        <v>3843.79</v>
+      </c>
+      <c r="X133" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA133">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
+      <c r="P134" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>98</v>
+      </c>
+      <c r="S134">
+        <v>53</v>
+      </c>
+      <c r="T134">
+        <v>88</v>
+      </c>
+      <c r="V134">
+        <v>4664</v>
+      </c>
+      <c r="W134">
+        <v>4664</v>
+      </c>
+      <c r="X134" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA134">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
+      <c r="P135" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>98</v>
+      </c>
+      <c r="S135">
+        <v>100</v>
+      </c>
+      <c r="T135">
+        <v>88</v>
+      </c>
+      <c r="V135">
+        <v>8800</v>
+      </c>
+      <c r="W135">
+        <v>8800</v>
+      </c>
+      <c r="X135" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
+      <c r="P136" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>99</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136">
+        <v>121.61</v>
+      </c>
+      <c r="T136">
+        <v>88</v>
+      </c>
+      <c r="V136">
+        <v>10701.67</v>
+      </c>
+      <c r="W136">
+        <v>10701.67</v>
+      </c>
+      <c r="X136" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA136">
+        <v>121.61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
+      <c r="P137" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>100</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137">
+        <v>20</v>
+      </c>
+      <c r="T137">
+        <v>88</v>
+      </c>
+      <c r="V137">
+        <v>1760</v>
+      </c>
+      <c r="W137">
+        <v>1760</v>
+      </c>
+      <c r="X137" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA137">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
+      <c r="P138" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>99</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
+        <v>305.01</v>
+      </c>
+      <c r="T138">
+        <v>88</v>
+      </c>
+      <c r="V138">
+        <v>26840.88</v>
+      </c>
+      <c r="W138">
+        <v>26840.88</v>
+      </c>
+      <c r="X138" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA138">
+        <v>305.01</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
+      <c r="P139" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>99</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139">
+        <v>643.3</v>
+      </c>
+      <c r="V139">
+        <v>56610.34</v>
+      </c>
+      <c r="W139">
+        <v>56610.34</v>
+      </c>
+      <c r="X139" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA139">
+        <v>643.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
+      <c r="A140" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" t="s">
+        <v>32</v>
+      </c>
+      <c r="D140" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140" t="s">
+        <v>44</v>
+      </c>
+      <c r="H140" t="s">
+        <v>55</v>
+      </c>
+      <c r="I140" t="s">
+        <v>64</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>66</v>
+      </c>
+      <c r="M140" t="s">
+        <v>70</v>
+      </c>
+      <c r="O140">
+        <v>97</v>
+      </c>
+      <c r="P140" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>97</v>
+      </c>
+      <c r="S140">
+        <v>43.68</v>
+      </c>
+      <c r="T140">
+        <v>88</v>
+      </c>
+      <c r="V140">
+        <v>3843.79</v>
+      </c>
+      <c r="W140">
+        <v>3843.79</v>
+      </c>
+      <c r="X140" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA140">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
+      <c r="P141" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>98</v>
+      </c>
+      <c r="S141">
+        <v>53</v>
+      </c>
+      <c r="T141">
+        <v>88</v>
+      </c>
+      <c r="V141">
+        <v>4664</v>
+      </c>
+      <c r="W141">
+        <v>4664</v>
+      </c>
+      <c r="X141" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA141">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
+      <c r="P142" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>98</v>
+      </c>
+      <c r="S142">
+        <v>100</v>
+      </c>
+      <c r="T142">
+        <v>88</v>
+      </c>
+      <c r="V142">
+        <v>8800</v>
+      </c>
+      <c r="W142">
+        <v>8800</v>
+      </c>
+      <c r="X142" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
+      <c r="P143" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>99</v>
+      </c>
+      <c r="R143">
+        <v>1</v>
+      </c>
+      <c r="S143">
+        <v>121.36</v>
+      </c>
+      <c r="T143">
+        <v>88</v>
+      </c>
+      <c r="V143">
+        <v>10679.67</v>
+      </c>
+      <c r="W143">
+        <v>10679.67</v>
+      </c>
+      <c r="X143" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA143">
+        <v>121.36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
+      <c r="P144" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>100</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>18</v>
+      </c>
+      <c r="T144">
+        <v>88</v>
+      </c>
+      <c r="V144">
+        <v>1584</v>
+      </c>
+      <c r="W144">
+        <v>1584</v>
+      </c>
+      <c r="X144" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA144">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="P145" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>99</v>
+      </c>
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145">
+        <v>120</v>
+      </c>
+      <c r="T145">
+        <v>88</v>
+      </c>
+      <c r="V145">
+        <v>10560</v>
+      </c>
+      <c r="W145">
+        <v>10560</v>
+      </c>
+      <c r="X145" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA145">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="P146" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>99</v>
+      </c>
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146">
+        <v>456.04</v>
+      </c>
+      <c r="V146">
+        <v>40131.46</v>
+      </c>
+      <c r="W146">
+        <v>40131.46</v>
+      </c>
+      <c r="X146" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA146">
+        <v>456.04</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
+      <c r="A147" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" t="s">
+        <v>32</v>
+      </c>
+      <c r="D147" t="s">
+        <v>33</v>
+      </c>
+      <c r="E147" t="s">
+        <v>34</v>
+      </c>
+      <c r="F147" t="s">
+        <v>38</v>
+      </c>
+      <c r="G147" t="s">
+        <v>42</v>
+      </c>
+      <c r="H147" t="s">
+        <v>53</v>
+      </c>
+      <c r="I147" t="s">
+        <v>64</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" t="s">
+        <v>66</v>
+      </c>
+      <c r="M147" t="s">
+        <v>68</v>
+      </c>
+      <c r="N147" t="s">
+        <v>72</v>
+      </c>
+      <c r="O147">
+        <v>305.01</v>
+      </c>
+      <c r="P147" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>97</v>
+      </c>
+      <c r="S147">
+        <v>87.36</v>
+      </c>
+      <c r="T147">
+        <v>88</v>
+      </c>
+      <c r="V147">
+        <v>7687.58</v>
+      </c>
+      <c r="W147">
+        <v>3843.79</v>
+      </c>
+      <c r="X147" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA147">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
+      <c r="A148" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" t="s">
+        <v>32</v>
+      </c>
+      <c r="D148" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" t="s">
+        <v>44</v>
+      </c>
+      <c r="H148" t="s">
+        <v>55</v>
+      </c>
+      <c r="I148" t="s">
+        <v>64</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148" t="s">
+        <v>66</v>
+      </c>
+      <c r="M148" t="s">
+        <v>71</v>
+      </c>
+      <c r="N148" t="s">
+        <v>72</v>
+      </c>
+      <c r="O148">
+        <v>322.38</v>
+      </c>
+      <c r="P148" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>98</v>
+      </c>
+      <c r="S148">
+        <v>53</v>
+      </c>
+      <c r="T148">
+        <v>88</v>
+      </c>
+      <c r="V148">
+        <v>4664</v>
+      </c>
+      <c r="W148">
+        <v>2332</v>
+      </c>
+      <c r="X148" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA148">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
+      <c r="P149" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>98</v>
+      </c>
+      <c r="S149">
+        <v>100</v>
+      </c>
+      <c r="T149">
+        <v>88</v>
+      </c>
+      <c r="V149">
+        <v>8800</v>
+      </c>
+      <c r="W149">
+        <v>4400</v>
+      </c>
+      <c r="X149" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA149">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
+      <c r="P150" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>99</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>193.22</v>
+      </c>
+      <c r="T150">
+        <v>88</v>
+      </c>
+      <c r="V150">
+        <v>17003.33</v>
+      </c>
+      <c r="W150">
+        <v>8501.67</v>
+      </c>
+      <c r="X150" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA150">
+        <v>96.61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
+      <c r="P151" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>100</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>40</v>
+      </c>
+      <c r="T151">
+        <v>88</v>
+      </c>
+      <c r="V151">
+        <v>3520</v>
+      </c>
+      <c r="W151">
+        <v>1760</v>
+      </c>
+      <c r="X151" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA151">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
+      <c r="P152" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>99</v>
+      </c>
+      <c r="R152">
+        <v>1</v>
+      </c>
+      <c r="S152">
+        <v>305.01</v>
+      </c>
+      <c r="T152">
+        <v>88</v>
+      </c>
+      <c r="V152">
+        <v>26840.88</v>
+      </c>
+      <c r="W152">
+        <v>26840.88</v>
+      </c>
+      <c r="X152" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA152">
+        <v>305.01</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
+      <c r="P153" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>99</v>
+      </c>
+      <c r="R153">
+        <v>1</v>
+      </c>
+      <c r="S153">
+        <v>322.38</v>
+      </c>
+      <c r="T153">
+        <v>88</v>
+      </c>
+      <c r="V153">
+        <v>28369.44</v>
+      </c>
+      <c r="W153">
+        <v>28369.44</v>
+      </c>
+      <c r="X153" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA153">
+        <v>322.38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27">
+      <c r="P154" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>99</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>1100.97</v>
+      </c>
+      <c r="V154">
+        <v>96885.23</v>
+      </c>
+      <c r="W154">
+        <v>48442.62</v>
+      </c>
+      <c r="X154" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA154">
+        <v>550.48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27">
+      <c r="A155" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" t="s">
+        <v>33</v>
+      </c>
+      <c r="E155" t="s">
+        <v>34</v>
+      </c>
+      <c r="F155" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" t="s">
+        <v>47</v>
+      </c>
+      <c r="H155" t="s">
+        <v>58</v>
+      </c>
+      <c r="I155" t="s">
+        <v>64</v>
+      </c>
+      <c r="J155">
+        <v>3.132</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155" t="s">
+        <v>66</v>
+      </c>
+      <c r="M155" t="s">
+        <v>68</v>
+      </c>
+      <c r="N155" t="s">
+        <v>74</v>
+      </c>
+      <c r="O155">
+        <v>337.33</v>
+      </c>
+      <c r="P155" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>97</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>88</v>
+      </c>
+      <c r="V155">
+        <v>0</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27">
+      <c r="P156" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>98</v>
+      </c>
+      <c r="S156">
+        <v>53</v>
+      </c>
+      <c r="T156">
+        <v>88</v>
+      </c>
+      <c r="V156">
+        <v>4664</v>
+      </c>
+      <c r="W156">
+        <v>1489.14</v>
+      </c>
+      <c r="X156" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA156">
+        <v>16.92</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27">
+      <c r="P157" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>98</v>
+      </c>
+      <c r="S157">
+        <v>100</v>
+      </c>
+      <c r="T157">
+        <v>88</v>
+      </c>
+      <c r="V157">
+        <v>8800</v>
+      </c>
+      <c r="W157">
+        <v>2809.71</v>
+      </c>
+      <c r="X157" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA157">
+        <v>31.93</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27">
+      <c r="P158" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>99</v>
+      </c>
+      <c r="R158">
+        <v>3.132</v>
+      </c>
+      <c r="S158">
+        <v>294.67</v>
+      </c>
+      <c r="T158">
+        <v>88</v>
+      </c>
+      <c r="V158">
+        <v>25931.08</v>
+      </c>
+      <c r="W158">
+        <v>8279.4</v>
+      </c>
+      <c r="X158" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA158">
+        <v>94.08</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27">
+      <c r="P159" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>100</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
+        <v>40</v>
+      </c>
+      <c r="T159">
+        <v>88</v>
+      </c>
+      <c r="V159">
+        <v>3520</v>
+      </c>
+      <c r="W159">
+        <v>1123.88</v>
+      </c>
+      <c r="X159" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA159">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27">
+      <c r="P160" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>99</v>
+      </c>
+      <c r="R160">
+        <v>3.132</v>
+      </c>
+      <c r="S160">
+        <v>337.33</v>
+      </c>
+      <c r="T160">
+        <v>88</v>
+      </c>
+      <c r="V160">
+        <v>29685.04</v>
+      </c>
+      <c r="W160">
+        <v>9477.98</v>
+      </c>
+      <c r="X160" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA160">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
+      <c r="P161" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>99</v>
+      </c>
+      <c r="R161">
+        <v>3.132</v>
+      </c>
+      <c r="S161">
+        <v>825</v>
+      </c>
+      <c r="V161">
+        <v>72600.12</v>
+      </c>
+      <c r="W161">
+        <v>23180.11</v>
+      </c>
+      <c r="X161" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA161">
+        <v>263.41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
+      <c r="A162" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" t="s">
+        <v>34</v>
+      </c>
+      <c r="E162" t="s">
+        <v>36</v>
+      </c>
+      <c r="F162" t="s">
+        <v>40</v>
+      </c>
+      <c r="G162" t="s">
+        <v>48</v>
+      </c>
+      <c r="H162" t="s">
+        <v>59</v>
+      </c>
+      <c r="I162" t="s">
+        <v>64</v>
+      </c>
+      <c r="J162">
+        <v>5.951</v>
+      </c>
+      <c r="K162">
+        <v>4</v>
+      </c>
+      <c r="L162" t="s">
+        <v>66</v>
+      </c>
+      <c r="M162" t="s">
+        <v>71</v>
+      </c>
+      <c r="N162" t="s">
+        <v>75</v>
+      </c>
+      <c r="O162">
+        <v>574.67</v>
+      </c>
+      <c r="P162" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>97</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <v>88</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
+      <c r="A163" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163" t="s">
+        <v>33</v>
+      </c>
+      <c r="E163" t="s">
+        <v>37</v>
+      </c>
+      <c r="F163" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163" t="s">
+        <v>49</v>
+      </c>
+      <c r="H163" t="s">
+        <v>60</v>
+      </c>
+      <c r="I163" t="s">
+        <v>64</v>
+      </c>
+      <c r="J163">
+        <v>5.951</v>
+      </c>
+      <c r="K163">
+        <v>4</v>
+      </c>
+      <c r="L163" t="s">
+        <v>66</v>
+      </c>
+      <c r="M163" t="s">
+        <v>71</v>
+      </c>
+      <c r="N163" t="s">
+        <v>72</v>
+      </c>
+      <c r="O163">
+        <v>384.33</v>
+      </c>
+      <c r="P163" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>98</v>
+      </c>
+      <c r="S163">
+        <v>53</v>
+      </c>
+      <c r="T163">
+        <v>88</v>
+      </c>
+      <c r="V163">
+        <v>4664</v>
+      </c>
+      <c r="W163">
+        <v>240.18</v>
+      </c>
+      <c r="X163" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA163">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
+      <c r="A164" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" t="s">
+        <v>33</v>
+      </c>
+      <c r="E164" t="s">
+        <v>37</v>
+      </c>
+      <c r="F164" t="s">
+        <v>40</v>
+      </c>
+      <c r="G164" t="s">
+        <v>50</v>
+      </c>
+      <c r="H164" t="s">
+        <v>61</v>
+      </c>
+      <c r="I164" t="s">
+        <v>64</v>
+      </c>
+      <c r="J164">
+        <v>7.517</v>
+      </c>
+      <c r="K164">
+        <v>5</v>
+      </c>
+      <c r="L164" t="s">
+        <v>66</v>
+      </c>
+      <c r="M164" t="s">
+        <v>71</v>
+      </c>
+      <c r="N164" t="s">
+        <v>72</v>
+      </c>
+      <c r="O164">
+        <v>473.09</v>
+      </c>
+      <c r="P164" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>98</v>
+      </c>
+      <c r="S164">
+        <v>100</v>
+      </c>
+      <c r="T164">
+        <v>88</v>
+      </c>
+      <c r="V164">
+        <v>8800</v>
+      </c>
+      <c r="W164">
+        <v>453.16</v>
+      </c>
+      <c r="X164" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA164">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
+      <c r="P165" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>99</v>
+      </c>
+      <c r="R165">
+        <v>19.419</v>
+      </c>
+      <c r="S165">
+        <v>1623.5</v>
+      </c>
+      <c r="T165">
+        <v>88</v>
+      </c>
+      <c r="V165">
+        <v>142868.06</v>
+      </c>
+      <c r="W165">
+        <v>7357.13</v>
+      </c>
+      <c r="X165" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA165">
+        <v>83.59999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
+      <c r="P166" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>100</v>
+      </c>
+      <c r="R166">
+        <v>13</v>
+      </c>
+      <c r="S166">
+        <v>260</v>
+      </c>
+      <c r="T166">
+        <v>88</v>
+      </c>
+      <c r="V166">
+        <v>22880</v>
+      </c>
+      <c r="W166">
+        <v>1178.23</v>
+      </c>
+      <c r="X166" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA166">
+        <v>13.39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
+      <c r="P167" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>99</v>
+      </c>
+      <c r="R167">
+        <v>5.951</v>
+      </c>
+      <c r="S167">
+        <v>574.67</v>
+      </c>
+      <c r="T167">
+        <v>88</v>
+      </c>
+      <c r="V167">
+        <v>50570.96</v>
+      </c>
+      <c r="W167">
+        <v>8497.889999999999</v>
+      </c>
+      <c r="X167" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA167">
+        <v>96.56999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
+      <c r="P168" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>99</v>
+      </c>
+      <c r="R168">
+        <v>5.951</v>
+      </c>
+      <c r="S168">
+        <v>384.33</v>
+      </c>
+      <c r="T168">
+        <v>88</v>
+      </c>
+      <c r="V168">
+        <v>33821.04</v>
+      </c>
+      <c r="W168">
+        <v>5683.25</v>
+      </c>
+      <c r="X168" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA168">
+        <v>64.58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
+      <c r="P169" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>99</v>
+      </c>
+      <c r="R169">
+        <v>7.517</v>
+      </c>
+      <c r="S169">
+        <v>473.09</v>
+      </c>
+      <c r="T169">
+        <v>88</v>
+      </c>
+      <c r="V169">
+        <v>41631.92</v>
+      </c>
+      <c r="W169">
+        <v>5538.37</v>
+      </c>
+      <c r="X169" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA169">
+        <v>62.94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
+      <c r="P170" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>99</v>
+      </c>
+      <c r="R170">
+        <v>19.419</v>
+      </c>
+      <c r="S170">
+        <v>3468.59</v>
+      </c>
+      <c r="V170">
+        <v>305235.98</v>
+      </c>
+      <c r="W170">
+        <v>15718.42</v>
+      </c>
+      <c r="X170" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA170">
+        <v>178.62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
+      <c r="A171" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" t="s">
+        <v>33</v>
+      </c>
+      <c r="E171" t="s">
+        <v>34</v>
+      </c>
+      <c r="F171" t="s">
+        <v>39</v>
+      </c>
+      <c r="G171" t="s">
+        <v>51</v>
+      </c>
+      <c r="H171" t="s">
+        <v>62</v>
+      </c>
+      <c r="I171" t="s">
+        <v>64</v>
+      </c>
+      <c r="J171">
+        <v>5.951</v>
+      </c>
+      <c r="K171">
+        <v>4</v>
+      </c>
+      <c r="L171" t="s">
+        <v>66</v>
+      </c>
+      <c r="M171" t="s">
+        <v>68</v>
+      </c>
+      <c r="N171" t="s">
+        <v>76</v>
+      </c>
+      <c r="O171">
+        <v>781.24</v>
+      </c>
+      <c r="P171" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>97</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>88</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
+      <c r="P172" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>98</v>
+      </c>
+      <c r="S172">
+        <v>53</v>
+      </c>
+      <c r="T172">
+        <v>88</v>
+      </c>
+      <c r="V172">
+        <v>4664</v>
+      </c>
+      <c r="W172">
+        <v>783.73</v>
+      </c>
+      <c r="X172" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA172">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
+      <c r="P173" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>98</v>
+      </c>
+      <c r="S173">
+        <v>100</v>
+      </c>
+      <c r="T173">
+        <v>88</v>
+      </c>
+      <c r="V173">
+        <v>8800</v>
+      </c>
+      <c r="W173">
+        <v>1478.74</v>
+      </c>
+      <c r="X173" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA173">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27">
+      <c r="P174" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>99</v>
+      </c>
+      <c r="R174">
+        <v>5.951</v>
+      </c>
+      <c r="S174">
+        <v>474.66</v>
+      </c>
+      <c r="T174">
+        <v>88</v>
+      </c>
+      <c r="V174">
+        <v>41770.3</v>
+      </c>
+      <c r="W174">
+        <v>7019.04</v>
+      </c>
+      <c r="X174" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA174">
+        <v>79.76000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27">
+      <c r="P175" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>100</v>
+      </c>
+      <c r="R175">
+        <v>4</v>
+      </c>
+      <c r="S175">
+        <v>72</v>
+      </c>
+      <c r="T175">
+        <v>88</v>
+      </c>
+      <c r="V175">
+        <v>6336</v>
+      </c>
+      <c r="W175">
+        <v>1064.7</v>
+      </c>
+      <c r="X175" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA175">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27">
+      <c r="P176" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>99</v>
+      </c>
+      <c r="R176">
+        <v>5.951</v>
+      </c>
+      <c r="S176">
+        <v>781.24</v>
+      </c>
+      <c r="T176">
+        <v>88</v>
+      </c>
+      <c r="V176">
+        <v>68749.12</v>
+      </c>
+      <c r="W176">
+        <v>11552.53</v>
+      </c>
+      <c r="X176" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA176">
+        <v>131.28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="P177" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>99</v>
+      </c>
+      <c r="R177">
+        <v>5.951</v>
+      </c>
+      <c r="S177">
+        <v>1480.9</v>
+      </c>
+      <c r="V177">
+        <v>130319.42</v>
+      </c>
+      <c r="W177">
+        <v>21898.74</v>
+      </c>
+      <c r="X177" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA177">
+        <v>248.85</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
+      <c r="A178" t="s">
+        <v>28</v>
+      </c>
+      <c r="B178" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" t="s">
+        <v>33</v>
+      </c>
+      <c r="E178" t="s">
+        <v>35</v>
+      </c>
+      <c r="F178" t="s">
+        <v>41</v>
+      </c>
+      <c r="G178" t="s">
+        <v>52</v>
+      </c>
+      <c r="H178" t="s">
+        <v>63</v>
+      </c>
+      <c r="I178" t="s">
+        <v>65</v>
+      </c>
+      <c r="J178">
+        <v>15.002</v>
+      </c>
+      <c r="K178">
+        <v>9</v>
+      </c>
+      <c r="L178" t="s">
+        <v>67</v>
+      </c>
+      <c r="M178" t="s">
+        <v>69</v>
+      </c>
+      <c r="N178" t="s">
+        <v>73</v>
+      </c>
+      <c r="O178">
+        <v>1677.24</v>
+      </c>
+      <c r="P178" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>97</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>88</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
+      <c r="P179" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>98</v>
+      </c>
+      <c r="S179">
+        <v>53</v>
+      </c>
+      <c r="T179">
+        <v>88</v>
+      </c>
+      <c r="V179">
+        <v>4664</v>
+      </c>
+      <c r="W179">
+        <v>310.89</v>
+      </c>
+      <c r="X179" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA179">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
+      <c r="P180" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>98</v>
+      </c>
+      <c r="S180">
+        <v>100</v>
+      </c>
+      <c r="T180">
+        <v>88</v>
+      </c>
+      <c r="V180">
+        <v>8800</v>
+      </c>
+      <c r="W180">
+        <v>586.59</v>
+      </c>
+      <c r="X180" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA180">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27">
+      <c r="P181" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>99</v>
+      </c>
+      <c r="R181">
+        <v>15.002</v>
+      </c>
+      <c r="S181">
+        <v>1031.02</v>
+      </c>
+      <c r="T181">
+        <v>88</v>
+      </c>
+      <c r="V181">
+        <v>90729.69</v>
+      </c>
+      <c r="W181">
+        <v>6047.84</v>
+      </c>
+      <c r="X181" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA181">
+        <v>68.73</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27">
+      <c r="P182" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>99</v>
+      </c>
+      <c r="R182">
+        <v>15.002</v>
+      </c>
+      <c r="S182">
+        <v>457.49</v>
+      </c>
+      <c r="T182">
+        <v>88</v>
+      </c>
+      <c r="V182">
+        <v>40259.13</v>
+      </c>
+      <c r="W182">
+        <v>2683.58</v>
+      </c>
+      <c r="X182" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA182">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27">
+      <c r="P183" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>99</v>
+      </c>
+      <c r="R183">
+        <v>15.002</v>
+      </c>
+      <c r="S183">
+        <v>1641.51</v>
+      </c>
+      <c r="V183">
+        <v>144452.82</v>
+      </c>
+      <c r="W183">
+        <v>9628.9</v>
+      </c>
+      <c r="X183" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA183">
+        <v>109.42</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/bookings_log.xlsx
+++ b/Logs/bookings_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="121">
   <si>
     <t>Summary.Origin Address</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>2025-08-13 08:06:41</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:15:01</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:17:32</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA183"/>
+  <dimension ref="A1:AA197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7643,6 +7649,514 @@
         <v>109.42</v>
       </c>
     </row>
+    <row r="184" spans="1:27">
+      <c r="A184" t="s">
+        <v>29</v>
+      </c>
+      <c r="B184" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184" t="s">
+        <v>33</v>
+      </c>
+      <c r="E184" t="s">
+        <v>35</v>
+      </c>
+      <c r="F184" t="s">
+        <v>39</v>
+      </c>
+      <c r="G184" t="s">
+        <v>46</v>
+      </c>
+      <c r="H184" t="s">
+        <v>57</v>
+      </c>
+      <c r="I184" t="s">
+        <v>64</v>
+      </c>
+      <c r="J184">
+        <v>3.007</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184" t="s">
+        <v>66</v>
+      </c>
+      <c r="M184" t="s">
+        <v>70</v>
+      </c>
+      <c r="O184">
+        <v>180</v>
+      </c>
+      <c r="P184" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>97</v>
+      </c>
+      <c r="S184">
+        <v>48.71</v>
+      </c>
+      <c r="T184">
+        <v>88</v>
+      </c>
+      <c r="V184">
+        <v>4286.11</v>
+      </c>
+      <c r="W184">
+        <v>1425.38</v>
+      </c>
+      <c r="X184" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA184">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27">
+      <c r="P185" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>98</v>
+      </c>
+      <c r="S185">
+        <v>53</v>
+      </c>
+      <c r="T185">
+        <v>88</v>
+      </c>
+      <c r="V185">
+        <v>4664</v>
+      </c>
+      <c r="W185">
+        <v>1551.05</v>
+      </c>
+      <c r="X185" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA185">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27">
+      <c r="P186" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>98</v>
+      </c>
+      <c r="S186">
+        <v>100</v>
+      </c>
+      <c r="T186">
+        <v>88</v>
+      </c>
+      <c r="V186">
+        <v>8800</v>
+      </c>
+      <c r="W186">
+        <v>2926.5</v>
+      </c>
+      <c r="X186" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA186">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27">
+      <c r="P187" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>99</v>
+      </c>
+      <c r="R187">
+        <v>3.007</v>
+      </c>
+      <c r="S187">
+        <v>264.58</v>
+      </c>
+      <c r="T187">
+        <v>88</v>
+      </c>
+      <c r="V187">
+        <v>23282.96</v>
+      </c>
+      <c r="W187">
+        <v>7742.92</v>
+      </c>
+      <c r="X187" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA187">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27">
+      <c r="P188" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>100</v>
+      </c>
+      <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
+        <v>36</v>
+      </c>
+      <c r="T188">
+        <v>88</v>
+      </c>
+      <c r="V188">
+        <v>3168</v>
+      </c>
+      <c r="W188">
+        <v>1053.54</v>
+      </c>
+      <c r="X188" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA188">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27">
+      <c r="P189" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>99</v>
+      </c>
+      <c r="R189">
+        <v>3.007</v>
+      </c>
+      <c r="S189">
+        <v>180</v>
+      </c>
+      <c r="T189">
+        <v>88</v>
+      </c>
+      <c r="V189">
+        <v>15840</v>
+      </c>
+      <c r="W189">
+        <v>5267.71</v>
+      </c>
+      <c r="X189" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA189">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27">
+      <c r="P190" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>99</v>
+      </c>
+      <c r="R190">
+        <v>3.007</v>
+      </c>
+      <c r="S190">
+        <v>682.28</v>
+      </c>
+      <c r="V190">
+        <v>60041.07</v>
+      </c>
+      <c r="W190">
+        <v>19967.1</v>
+      </c>
+      <c r="X190" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA190">
+        <v>226.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27">
+      <c r="A191" t="s">
+        <v>29</v>
+      </c>
+      <c r="B191" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" t="s">
+        <v>32</v>
+      </c>
+      <c r="D191" t="s">
+        <v>33</v>
+      </c>
+      <c r="E191" t="s">
+        <v>35</v>
+      </c>
+      <c r="F191" t="s">
+        <v>39</v>
+      </c>
+      <c r="G191" t="s">
+        <v>46</v>
+      </c>
+      <c r="H191" t="s">
+        <v>57</v>
+      </c>
+      <c r="I191" t="s">
+        <v>64</v>
+      </c>
+      <c r="J191">
+        <v>3.007</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191" t="s">
+        <v>66</v>
+      </c>
+      <c r="M191" t="s">
+        <v>70</v>
+      </c>
+      <c r="O191">
+        <v>180</v>
+      </c>
+      <c r="P191" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>97</v>
+      </c>
+      <c r="S191">
+        <v>0.05</v>
+      </c>
+      <c r="T191">
+        <v>88</v>
+      </c>
+      <c r="V191">
+        <v>4.29</v>
+      </c>
+      <c r="W191">
+        <v>1.43</v>
+      </c>
+      <c r="X191" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA191">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27">
+      <c r="P192" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>98</v>
+      </c>
+      <c r="S192">
+        <v>53</v>
+      </c>
+      <c r="T192">
+        <v>88</v>
+      </c>
+      <c r="V192">
+        <v>4664</v>
+      </c>
+      <c r="W192">
+        <v>1551.05</v>
+      </c>
+      <c r="X192" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA192">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="193" spans="16:27">
+      <c r="P193" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>98</v>
+      </c>
+      <c r="S193">
+        <v>100</v>
+      </c>
+      <c r="T193">
+        <v>88</v>
+      </c>
+      <c r="V193">
+        <v>8800</v>
+      </c>
+      <c r="W193">
+        <v>2926.5</v>
+      </c>
+      <c r="X193" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA193">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="194" spans="16:27">
+      <c r="P194" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>99</v>
+      </c>
+      <c r="R194">
+        <v>3.007</v>
+      </c>
+      <c r="S194">
+        <v>264.58</v>
+      </c>
+      <c r="T194">
+        <v>88</v>
+      </c>
+      <c r="V194">
+        <v>23282.96</v>
+      </c>
+      <c r="W194">
+        <v>7742.92</v>
+      </c>
+      <c r="X194" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA194">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="16:27">
+      <c r="P195" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>100</v>
+      </c>
+      <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
+        <v>36</v>
+      </c>
+      <c r="T195">
+        <v>88</v>
+      </c>
+      <c r="V195">
+        <v>3168</v>
+      </c>
+      <c r="W195">
+        <v>1053.54</v>
+      </c>
+      <c r="X195" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA195">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="196" spans="16:27">
+      <c r="P196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>99</v>
+      </c>
+      <c r="R196">
+        <v>3.007</v>
+      </c>
+      <c r="S196">
+        <v>180</v>
+      </c>
+      <c r="T196">
+        <v>88</v>
+      </c>
+      <c r="V196">
+        <v>15840</v>
+      </c>
+      <c r="W196">
+        <v>5267.71</v>
+      </c>
+      <c r="X196" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA196">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="197" spans="16:27">
+      <c r="P197" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>99</v>
+      </c>
+      <c r="R197">
+        <v>3.007</v>
+      </c>
+      <c r="S197">
+        <v>633.63</v>
+      </c>
+      <c r="V197">
+        <v>55759.24</v>
+      </c>
+      <c r="W197">
+        <v>18543.15</v>
+      </c>
+      <c r="X197" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA197">
+        <v>210.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Logs/bookings_log.xlsx
+++ b/Logs/bookings_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="128">
   <si>
     <t>Summary.Origin Address</t>
   </si>
@@ -220,6 +220,9 @@
     <t>Drayage</t>
   </si>
   <si>
+    <t>FTL</t>
+  </si>
+  <si>
     <t>HeyPrimo</t>
   </si>
   <si>
@@ -377,6 +380,24 @@
   </si>
   <si>
     <t>2025-08-13 03:17:32</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:25:40</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:28:45</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:29:27</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:32:38</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:37:13</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:39:31</t>
   </si>
 </sst>
 </file>
@@ -734,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA197"/>
+  <dimension ref="A1:AA255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -861,19 +882,19 @@
         <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O2">
         <v>305.01</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S2">
         <v>38.44</v>
@@ -891,18 +912,18 @@
         <v>3382.53</v>
       </c>
       <c r="X2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="P3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S3">
         <v>53</v>
@@ -920,18 +941,18 @@
         <v>4664</v>
       </c>
       <c r="X3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="P4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S4">
         <v>100</v>
@@ -949,18 +970,18 @@
         <v>8800</v>
       </c>
       <c r="X4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="P5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -981,18 +1002,18 @@
         <v>10701.67</v>
       </c>
       <c r="X5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="P6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1013,18 +1034,18 @@
         <v>1760</v>
       </c>
       <c r="X6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="P7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1045,18 +1066,18 @@
         <v>26840.88</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="P8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1074,10 +1095,10 @@
         <v>56149.08</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1118,19 +1139,19 @@
         <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O9">
         <v>681.3099999999999</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S9">
         <v>53.12</v>
@@ -1148,18 +1169,18 @@
         <v>4674.66</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="P10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S10">
         <v>53</v>
@@ -1177,18 +1198,18 @@
         <v>4664</v>
       </c>
       <c r="X10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="P11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S11">
         <v>100</v>
@@ -1206,18 +1227,18 @@
         <v>8800</v>
       </c>
       <c r="X11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="P12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R12">
         <v>1.382</v>
@@ -1238,18 +1259,18 @@
         <v>7725.46</v>
       </c>
       <c r="X12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="P13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R13">
         <v>1.382</v>
@@ -1270,18 +1291,18 @@
         <v>1090.1</v>
       </c>
       <c r="X13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="P14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R14">
         <v>1.382</v>
@@ -1299,10 +1320,10 @@
         <v>28491.49</v>
       </c>
       <c r="X14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1343,16 +1364,16 @@
         <v>66</v>
       </c>
       <c r="M15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O15">
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S15">
         <v>38.44</v>
@@ -1370,18 +1391,18 @@
         <v>3382.53</v>
       </c>
       <c r="X15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="P16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S16">
         <v>53</v>
@@ -1399,18 +1420,18 @@
         <v>4664</v>
       </c>
       <c r="X16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="P17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S17">
         <v>100</v>
@@ -1428,18 +1449,18 @@
         <v>8800</v>
       </c>
       <c r="X17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:26">
       <c r="P18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -1460,18 +1481,18 @@
         <v>10679.67</v>
       </c>
       <c r="X18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="P19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -1492,18 +1513,18 @@
         <v>1584</v>
       </c>
       <c r="X19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="P20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -1524,18 +1545,18 @@
         <v>8536</v>
       </c>
       <c r="X20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="P21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -1553,10 +1574,10 @@
         <v>39670.2</v>
       </c>
       <c r="X21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -1597,19 +1618,19 @@
         <v>66</v>
       </c>
       <c r="M22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22">
         <v>305.01</v>
       </c>
       <c r="P22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S22">
         <v>43.68</v>
@@ -1627,18 +1648,18 @@
         <v>3843.79</v>
       </c>
       <c r="X22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:26">
       <c r="P23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S23">
         <v>53</v>
@@ -1656,18 +1677,18 @@
         <v>4664</v>
       </c>
       <c r="X23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="P24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S24">
         <v>100</v>
@@ -1685,18 +1706,18 @@
         <v>8800</v>
       </c>
       <c r="X24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:26">
       <c r="P25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -1717,18 +1738,18 @@
         <v>10701.67</v>
       </c>
       <c r="X25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:26">
       <c r="P26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R26">
         <v>1</v>
@@ -1749,18 +1770,18 @@
         <v>1760</v>
       </c>
       <c r="X26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:26">
       <c r="P27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -1781,18 +1802,18 @@
         <v>26840.88</v>
       </c>
       <c r="X27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:26">
       <c r="P28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R28">
         <v>1</v>
@@ -1810,10 +1831,10 @@
         <v>56610.34</v>
       </c>
       <c r="X28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -1854,19 +1875,19 @@
         <v>67</v>
       </c>
       <c r="M29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O29">
         <v>681.3099999999999</v>
       </c>
       <c r="P29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S29">
         <v>60.36</v>
@@ -1884,18 +1905,18 @@
         <v>5312.12</v>
       </c>
       <c r="X29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:26">
       <c r="P30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S30">
         <v>53</v>
@@ -1913,18 +1934,18 @@
         <v>4664</v>
       </c>
       <c r="X30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:26">
       <c r="P31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S31">
         <v>100</v>
@@ -1942,18 +1963,18 @@
         <v>8800</v>
       </c>
       <c r="X31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="P32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R32">
         <v>1.382</v>
@@ -1974,18 +1995,18 @@
         <v>7725.46</v>
       </c>
       <c r="X32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="P33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R33">
         <v>1.382</v>
@@ -2006,18 +2027,18 @@
         <v>1090.1</v>
       </c>
       <c r="X33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="P34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R34">
         <v>1.382</v>
@@ -2035,10 +2056,10 @@
         <v>28952.75</v>
       </c>
       <c r="X34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -2079,16 +2100,16 @@
         <v>66</v>
       </c>
       <c r="M35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O35">
         <v>97</v>
       </c>
       <c r="P35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S35">
         <v>43.68</v>
@@ -2106,18 +2127,18 @@
         <v>3843.79</v>
       </c>
       <c r="X35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:27">
       <c r="P36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S36">
         <v>53</v>
@@ -2135,18 +2156,18 @@
         <v>4664</v>
       </c>
       <c r="X36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="P37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S37">
         <v>100</v>
@@ -2164,18 +2185,18 @@
         <v>8800</v>
       </c>
       <c r="X37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="P38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -2196,18 +2217,18 @@
         <v>10679.67</v>
       </c>
       <c r="X38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="P39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -2228,18 +2249,18 @@
         <v>1584</v>
       </c>
       <c r="X39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="P40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -2260,18 +2281,18 @@
         <v>8536</v>
       </c>
       <c r="X40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:27">
       <c r="P41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -2289,10 +2310,10 @@
         <v>40131.46</v>
       </c>
       <c r="X41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -2333,19 +2354,19 @@
         <v>66</v>
       </c>
       <c r="M42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O42">
         <v>305.01</v>
       </c>
       <c r="P42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S42">
         <v>43.68</v>
@@ -2360,10 +2381,10 @@
         <v>3843.79</v>
       </c>
       <c r="X42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA42">
         <v>43.68</v>
@@ -2371,10 +2392,10 @@
     </row>
     <row r="43" spans="1:27">
       <c r="P43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S43">
         <v>53</v>
@@ -2389,10 +2410,10 @@
         <v>4664</v>
       </c>
       <c r="X43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA43">
         <v>53</v>
@@ -2400,10 +2421,10 @@
     </row>
     <row r="44" spans="1:27">
       <c r="P44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S44">
         <v>100</v>
@@ -2418,10 +2439,10 @@
         <v>8800</v>
       </c>
       <c r="X44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA44">
         <v>100</v>
@@ -2429,10 +2450,10 @@
     </row>
     <row r="45" spans="1:27">
       <c r="P45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -2450,10 +2471,10 @@
         <v>10701.67</v>
       </c>
       <c r="X45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA45">
         <v>121.61</v>
@@ -2461,10 +2482,10 @@
     </row>
     <row r="46" spans="1:27">
       <c r="P46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -2482,10 +2503,10 @@
         <v>1760</v>
       </c>
       <c r="X46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA46">
         <v>20</v>
@@ -2493,10 +2514,10 @@
     </row>
     <row r="47" spans="1:27">
       <c r="P47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -2514,10 +2535,10 @@
         <v>26840.88</v>
       </c>
       <c r="X47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA47">
         <v>305.01</v>
@@ -2525,10 +2546,10 @@
     </row>
     <row r="48" spans="1:27">
       <c r="P48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -2546,10 +2567,10 @@
         <v>56610.34</v>
       </c>
       <c r="X48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -2590,19 +2611,19 @@
         <v>67</v>
       </c>
       <c r="M49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O49">
         <v>681.3099999999999</v>
       </c>
       <c r="P49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S49">
         <v>60.36</v>
@@ -2617,10 +2638,10 @@
         <v>5312.12</v>
       </c>
       <c r="X49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA49">
         <v>60.36</v>
@@ -2628,10 +2649,10 @@
     </row>
     <row r="50" spans="1:27">
       <c r="P50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S50">
         <v>53</v>
@@ -2646,10 +2667,10 @@
         <v>4664</v>
       </c>
       <c r="X50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA50">
         <v>53</v>
@@ -2657,10 +2678,10 @@
     </row>
     <row r="51" spans="1:27">
       <c r="P51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S51">
         <v>100</v>
@@ -2675,10 +2696,10 @@
         <v>8800</v>
       </c>
       <c r="X51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA51">
         <v>100</v>
@@ -2686,10 +2707,10 @@
     </row>
     <row r="52" spans="1:27">
       <c r="P52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R52">
         <v>1.382</v>
@@ -2707,10 +2728,10 @@
         <v>7725.46</v>
       </c>
       <c r="X52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA52">
         <v>87.79000000000001</v>
@@ -2718,10 +2739,10 @@
     </row>
     <row r="53" spans="1:27">
       <c r="P53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R53">
         <v>1.382</v>
@@ -2739,10 +2760,10 @@
         <v>1090.1</v>
       </c>
       <c r="X53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA53">
         <v>12.39</v>
@@ -2750,10 +2771,10 @@
     </row>
     <row r="54" spans="1:27">
       <c r="P54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R54">
         <v>1.382</v>
@@ -2771,10 +2792,10 @@
         <v>28952.75</v>
       </c>
       <c r="X54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -2815,16 +2836,16 @@
         <v>66</v>
       </c>
       <c r="M55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O55">
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S55">
         <v>43.68</v>
@@ -2839,10 +2860,10 @@
         <v>3843.79</v>
       </c>
       <c r="X55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA55">
         <v>43.68</v>
@@ -2850,10 +2871,10 @@
     </row>
     <row r="56" spans="1:27">
       <c r="P56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S56">
         <v>53</v>
@@ -2868,10 +2889,10 @@
         <v>4664</v>
       </c>
       <c r="X56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA56">
         <v>53</v>
@@ -2879,10 +2900,10 @@
     </row>
     <row r="57" spans="1:27">
       <c r="P57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S57">
         <v>100</v>
@@ -2897,10 +2918,10 @@
         <v>8800</v>
       </c>
       <c r="X57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA57">
         <v>100</v>
@@ -2908,10 +2929,10 @@
     </row>
     <row r="58" spans="1:27">
       <c r="P58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R58">
         <v>1</v>
@@ -2929,10 +2950,10 @@
         <v>10679.67</v>
       </c>
       <c r="X58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA58">
         <v>121.36</v>
@@ -2940,10 +2961,10 @@
     </row>
     <row r="59" spans="1:27">
       <c r="P59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R59">
         <v>1</v>
@@ -2961,10 +2982,10 @@
         <v>1584</v>
       </c>
       <c r="X59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA59">
         <v>18</v>
@@ -2972,10 +2993,10 @@
     </row>
     <row r="60" spans="1:27">
       <c r="P60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R60">
         <v>1</v>
@@ -2993,10 +3014,10 @@
         <v>8536</v>
       </c>
       <c r="X60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA60">
         <v>97</v>
@@ -3004,10 +3025,10 @@
     </row>
     <row r="61" spans="1:27">
       <c r="P61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -3025,10 +3046,10 @@
         <v>40131.46</v>
       </c>
       <c r="X61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -3069,19 +3090,19 @@
         <v>66</v>
       </c>
       <c r="M62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O62">
         <v>305.01</v>
       </c>
       <c r="P62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S62">
         <v>43.68</v>
@@ -3096,10 +3117,10 @@
         <v>3843.79</v>
       </c>
       <c r="X62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA62">
         <v>43.68</v>
@@ -3107,10 +3128,10 @@
     </row>
     <row r="63" spans="1:27">
       <c r="P63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S63">
         <v>53</v>
@@ -3125,10 +3146,10 @@
         <v>4664</v>
       </c>
       <c r="X63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA63">
         <v>53</v>
@@ -3136,10 +3157,10 @@
     </row>
     <row r="64" spans="1:27">
       <c r="P64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S64">
         <v>100</v>
@@ -3154,10 +3175,10 @@
         <v>8800</v>
       </c>
       <c r="X64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA64">
         <v>100</v>
@@ -3165,10 +3186,10 @@
     </row>
     <row r="65" spans="1:27">
       <c r="P65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R65">
         <v>1</v>
@@ -3186,10 +3207,10 @@
         <v>10701.67</v>
       </c>
       <c r="X65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA65">
         <v>121.61</v>
@@ -3197,10 +3218,10 @@
     </row>
     <row r="66" spans="1:27">
       <c r="P66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R66">
         <v>1</v>
@@ -3218,10 +3239,10 @@
         <v>1760</v>
       </c>
       <c r="X66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA66">
         <v>20</v>
@@ -3229,10 +3250,10 @@
     </row>
     <row r="67" spans="1:27">
       <c r="P67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R67">
         <v>1</v>
@@ -3250,10 +3271,10 @@
         <v>26840.88</v>
       </c>
       <c r="X67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA67">
         <v>305.01</v>
@@ -3261,10 +3282,10 @@
     </row>
     <row r="68" spans="1:27">
       <c r="P68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R68">
         <v>1</v>
@@ -3279,10 +3300,10 @@
         <v>56610.34</v>
       </c>
       <c r="X68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA68">
         <v>643.3</v>
@@ -3326,19 +3347,19 @@
         <v>67</v>
       </c>
       <c r="M69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O69">
         <v>681.3099999999999</v>
       </c>
       <c r="P69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S69">
         <v>60.36</v>
@@ -3353,10 +3374,10 @@
         <v>5312.12</v>
       </c>
       <c r="X69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA69">
         <v>60.36</v>
@@ -3364,10 +3385,10 @@
     </row>
     <row r="70" spans="1:27">
       <c r="P70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S70">
         <v>53</v>
@@ -3382,10 +3403,10 @@
         <v>4664</v>
       </c>
       <c r="X70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z70" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA70">
         <v>53</v>
@@ -3393,10 +3414,10 @@
     </row>
     <row r="71" spans="1:27">
       <c r="P71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S71">
         <v>100</v>
@@ -3411,10 +3432,10 @@
         <v>8800</v>
       </c>
       <c r="X71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA71">
         <v>100</v>
@@ -3422,10 +3443,10 @@
     </row>
     <row r="72" spans="1:27">
       <c r="P72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R72">
         <v>1.382</v>
@@ -3443,10 +3464,10 @@
         <v>7725.46</v>
       </c>
       <c r="X72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA72">
         <v>87.79000000000001</v>
@@ -3454,10 +3475,10 @@
     </row>
     <row r="73" spans="1:27">
       <c r="P73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R73">
         <v>1.382</v>
@@ -3475,10 +3496,10 @@
         <v>1090.1</v>
       </c>
       <c r="X73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA73">
         <v>12.39</v>
@@ -3486,10 +3507,10 @@
     </row>
     <row r="74" spans="1:27">
       <c r="P74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R74">
         <v>1.382</v>
@@ -3504,10 +3525,10 @@
         <v>28952.75</v>
       </c>
       <c r="X74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA74">
         <v>329.01</v>
@@ -3551,16 +3572,16 @@
         <v>66</v>
       </c>
       <c r="M75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O75">
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S75">
         <v>43.68</v>
@@ -3575,10 +3596,10 @@
         <v>3843.79</v>
       </c>
       <c r="X75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA75">
         <v>43.68</v>
@@ -3586,10 +3607,10 @@
     </row>
     <row r="76" spans="1:27">
       <c r="P76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S76">
         <v>53</v>
@@ -3604,10 +3625,10 @@
         <v>4664</v>
       </c>
       <c r="X76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA76">
         <v>53</v>
@@ -3615,10 +3636,10 @@
     </row>
     <row r="77" spans="1:27">
       <c r="P77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S77">
         <v>100</v>
@@ -3633,10 +3654,10 @@
         <v>8800</v>
       </c>
       <c r="X77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA77">
         <v>100</v>
@@ -3644,10 +3665,10 @@
     </row>
     <row r="78" spans="1:27">
       <c r="P78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R78">
         <v>1</v>
@@ -3665,10 +3686,10 @@
         <v>10679.67</v>
       </c>
       <c r="X78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA78">
         <v>121.36</v>
@@ -3676,10 +3697,10 @@
     </row>
     <row r="79" spans="1:27">
       <c r="P79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R79">
         <v>1</v>
@@ -3697,10 +3718,10 @@
         <v>1584</v>
       </c>
       <c r="X79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA79">
         <v>18</v>
@@ -3708,10 +3729,10 @@
     </row>
     <row r="80" spans="1:27">
       <c r="P80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -3729,10 +3750,10 @@
         <v>8536</v>
       </c>
       <c r="X80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA80">
         <v>97</v>
@@ -3740,10 +3761,10 @@
     </row>
     <row r="81" spans="1:27">
       <c r="P81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R81">
         <v>1</v>
@@ -3758,10 +3779,10 @@
         <v>40131.46</v>
       </c>
       <c r="X81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA81">
         <v>456.04</v>
@@ -3805,19 +3826,19 @@
         <v>67</v>
       </c>
       <c r="M82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O82">
         <v>800.36</v>
       </c>
       <c r="P82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -3832,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA82">
         <v>0</v>
@@ -3843,10 +3864,10 @@
     </row>
     <row r="83" spans="1:27">
       <c r="P83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S83">
         <v>53</v>
@@ -3861,10 +3882,10 @@
         <v>4664</v>
       </c>
       <c r="X83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA83">
         <v>53</v>
@@ -3872,10 +3893,10 @@
     </row>
     <row r="84" spans="1:27">
       <c r="P84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S84">
         <v>100</v>
@@ -3890,10 +3911,10 @@
         <v>8800</v>
       </c>
       <c r="X84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA84">
         <v>100</v>
@@ -3901,10 +3922,10 @@
     </row>
     <row r="85" spans="1:27">
       <c r="P85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R85">
         <v>1.002</v>
@@ -3922,10 +3943,10 @@
         <v>8932.879999999999</v>
       </c>
       <c r="X85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z85" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA85">
         <v>101.51</v>
@@ -3933,10 +3954,10 @@
     </row>
     <row r="86" spans="1:27">
       <c r="P86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R86">
         <v>1.002</v>
@@ -3954,10 +3975,10 @@
         <v>10538.92</v>
       </c>
       <c r="X86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA86">
         <v>119.76</v>
@@ -3965,10 +3986,10 @@
     </row>
     <row r="87" spans="1:27">
       <c r="P87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R87">
         <v>1.002</v>
@@ -3983,10 +4004,10 @@
         <v>32908.93</v>
       </c>
       <c r="X87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA87">
         <v>373.97</v>
@@ -4030,19 +4051,19 @@
         <v>67</v>
       </c>
       <c r="M88" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N88" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O88">
         <v>800.36</v>
       </c>
       <c r="P88" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S88">
         <v>64.94</v>
@@ -4057,10 +4078,10 @@
         <v>5714.34</v>
       </c>
       <c r="X88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA88">
         <v>64.94</v>
@@ -4068,10 +4089,10 @@
     </row>
     <row r="89" spans="1:27">
       <c r="P89" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S89">
         <v>53</v>
@@ -4086,10 +4107,10 @@
         <v>4664</v>
       </c>
       <c r="X89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA89">
         <v>53</v>
@@ -4097,10 +4118,10 @@
     </row>
     <row r="90" spans="1:27">
       <c r="P90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S90">
         <v>100</v>
@@ -4115,10 +4136,10 @@
         <v>8800</v>
       </c>
       <c r="X90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA90">
         <v>100</v>
@@ -4126,10 +4147,10 @@
     </row>
     <row r="91" spans="1:27">
       <c r="P91" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q91" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R91">
         <v>4.009</v>
@@ -4147,10 +4168,10 @@
         <v>5639.2</v>
       </c>
       <c r="X91" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA91">
         <v>64.08</v>
@@ -4158,10 +4179,10 @@
     </row>
     <row r="92" spans="1:27">
       <c r="P92" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R92">
         <v>4.009</v>
@@ -4179,10 +4200,10 @@
         <v>2634.07</v>
       </c>
       <c r="X92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA92">
         <v>29.93</v>
@@ -4190,10 +4211,10 @@
     </row>
     <row r="93" spans="1:27">
       <c r="P93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R93">
         <v>4.009</v>
@@ -4208,10 +4229,10 @@
         <v>13057.09</v>
       </c>
       <c r="X93" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z93" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA93">
         <v>148.38</v>
@@ -4255,16 +4276,16 @@
         <v>66</v>
       </c>
       <c r="M94" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O94">
         <v>180</v>
       </c>
       <c r="P94" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S94">
         <v>48.71</v>
@@ -4279,10 +4300,10 @@
         <v>4286.11</v>
       </c>
       <c r="X94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA94">
         <v>48.71</v>
@@ -4290,10 +4311,10 @@
     </row>
     <row r="95" spans="1:27">
       <c r="P95" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S95">
         <v>53</v>
@@ -4308,10 +4329,10 @@
         <v>4664</v>
       </c>
       <c r="X95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA95">
         <v>53</v>
@@ -4319,10 +4340,10 @@
     </row>
     <row r="96" spans="1:27">
       <c r="P96" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S96">
         <v>100</v>
@@ -4337,10 +4358,10 @@
         <v>8800</v>
       </c>
       <c r="X96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA96">
         <v>100</v>
@@ -4348,10 +4369,10 @@
     </row>
     <row r="97" spans="1:27">
       <c r="P97" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R97">
         <v>3.007</v>
@@ -4369,10 +4390,10 @@
         <v>7742.92</v>
       </c>
       <c r="X97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA97">
         <v>87.98999999999999</v>
@@ -4380,10 +4401,10 @@
     </row>
     <row r="98" spans="1:27">
       <c r="P98" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -4401,10 +4422,10 @@
         <v>451.56</v>
       </c>
       <c r="X98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA98">
         <v>5.13</v>
@@ -4412,10 +4433,10 @@
     </row>
     <row r="99" spans="1:27">
       <c r="P99" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R99">
         <v>3.007</v>
@@ -4433,10 +4454,10 @@
         <v>15840</v>
       </c>
       <c r="X99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA99">
         <v>180</v>
@@ -4444,10 +4465,10 @@
     </row>
     <row r="100" spans="1:27">
       <c r="P100" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R100">
         <v>3.007</v>
@@ -4462,10 +4483,10 @@
         <v>19967.1</v>
       </c>
       <c r="X100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA100">
         <v>226.9</v>
@@ -4509,19 +4530,19 @@
         <v>67</v>
       </c>
       <c r="M101" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N101" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O101">
         <v>800.36</v>
       </c>
       <c r="P101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S101">
         <v>64.94</v>
@@ -4536,10 +4557,10 @@
         <v>5714.34</v>
       </c>
       <c r="X101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA101">
         <v>64.94</v>
@@ -4547,10 +4568,10 @@
     </row>
     <row r="102" spans="1:27">
       <c r="P102" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q102" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S102">
         <v>53</v>
@@ -4565,10 +4586,10 @@
         <v>4664</v>
       </c>
       <c r="X102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA102">
         <v>53</v>
@@ -4576,10 +4597,10 @@
     </row>
     <row r="103" spans="1:27">
       <c r="P103" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q103" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S103">
         <v>100</v>
@@ -4594,10 +4615,10 @@
         <v>8800</v>
       </c>
       <c r="X103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA103">
         <v>100</v>
@@ -4605,10 +4626,10 @@
     </row>
     <row r="104" spans="1:27">
       <c r="P104" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q104" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R104">
         <v>4.009</v>
@@ -4626,10 +4647,10 @@
         <v>5639.2</v>
       </c>
       <c r="X104" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z104" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA104">
         <v>64.08</v>
@@ -4637,10 +4658,10 @@
     </row>
     <row r="105" spans="1:27">
       <c r="P105" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q105" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R105">
         <v>4.009</v>
@@ -4658,10 +4679,10 @@
         <v>2634.07</v>
       </c>
       <c r="X105" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z105" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA105">
         <v>29.93</v>
@@ -4669,10 +4690,10 @@
     </row>
     <row r="106" spans="1:27">
       <c r="P106" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R106">
         <v>4.009</v>
@@ -4687,10 +4708,10 @@
         <v>13057.09</v>
       </c>
       <c r="X106" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z106" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA106">
         <v>148.38</v>
@@ -4734,16 +4755,16 @@
         <v>66</v>
       </c>
       <c r="M107" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O107">
         <v>180</v>
       </c>
       <c r="P107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q107" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S107">
         <v>48.71</v>
@@ -4758,10 +4779,10 @@
         <v>4286.11</v>
       </c>
       <c r="X107" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA107">
         <v>48.71</v>
@@ -4769,10 +4790,10 @@
     </row>
     <row r="108" spans="1:27">
       <c r="P108" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q108" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S108">
         <v>53</v>
@@ -4787,10 +4808,10 @@
         <v>4664</v>
       </c>
       <c r="X108" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA108">
         <v>53</v>
@@ -4798,10 +4819,10 @@
     </row>
     <row r="109" spans="1:27">
       <c r="P109" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q109" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S109">
         <v>100</v>
@@ -4816,10 +4837,10 @@
         <v>8800</v>
       </c>
       <c r="X109" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA109">
         <v>100</v>
@@ -4827,10 +4848,10 @@
     </row>
     <row r="110" spans="1:27">
       <c r="P110" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q110" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R110">
         <v>3.007</v>
@@ -4848,10 +4869,10 @@
         <v>7742.92</v>
       </c>
       <c r="X110" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA110">
         <v>87.98999999999999</v>
@@ -4859,10 +4880,10 @@
     </row>
     <row r="111" spans="1:27">
       <c r="P111" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q111" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R111">
         <v>2</v>
@@ -4880,10 +4901,10 @@
         <v>1053.54</v>
       </c>
       <c r="X111" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA111">
         <v>11.97</v>
@@ -4891,10 +4912,10 @@
     </row>
     <row r="112" spans="1:27">
       <c r="P112" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q112" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R112">
         <v>3.007</v>
@@ -4912,10 +4933,10 @@
         <v>5267.71</v>
       </c>
       <c r="X112" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA112">
         <v>59.86</v>
@@ -4923,10 +4944,10 @@
     </row>
     <row r="113" spans="1:27">
       <c r="P113" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q113" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R113">
         <v>3.007</v>
@@ -4941,10 +4962,10 @@
         <v>19967.1</v>
       </c>
       <c r="X113" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA113">
         <v>226.9</v>
@@ -4988,19 +5009,19 @@
         <v>67</v>
       </c>
       <c r="M114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N114" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O114">
         <v>800.36</v>
       </c>
       <c r="P114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q114" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S114">
         <v>64.94</v>
@@ -5015,10 +5036,10 @@
         <v>1425.38</v>
       </c>
       <c r="X114" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA114">
         <v>16.2</v>
@@ -5026,10 +5047,10 @@
     </row>
     <row r="115" spans="1:27">
       <c r="P115" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q115" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S115">
         <v>53</v>
@@ -5044,10 +5065,10 @@
         <v>1163.38</v>
       </c>
       <c r="X115" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z115" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA115">
         <v>13.22</v>
@@ -5055,10 +5076,10 @@
     </row>
     <row r="116" spans="1:27">
       <c r="P116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q116" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S116">
         <v>100</v>
@@ -5073,10 +5094,10 @@
         <v>2195.06</v>
       </c>
       <c r="X116" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z116" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA116">
         <v>24.94</v>
@@ -5084,10 +5105,10 @@
     </row>
     <row r="117" spans="1:27">
       <c r="P117" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q117" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R117">
         <v>4.009</v>
@@ -5105,10 +5126,10 @@
         <v>5639.2</v>
       </c>
       <c r="X117" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z117" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA117">
         <v>64.08</v>
@@ -5116,10 +5137,10 @@
     </row>
     <row r="118" spans="1:27">
       <c r="P118" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q118" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R118">
         <v>4.009</v>
@@ -5137,10 +5158,10 @@
         <v>2634.07</v>
       </c>
       <c r="X118" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z118" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA118">
         <v>29.93</v>
@@ -5148,10 +5169,10 @@
     </row>
     <row r="119" spans="1:27">
       <c r="P119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q119" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R119">
         <v>4.009</v>
@@ -5166,10 +5187,10 @@
         <v>13057.09</v>
       </c>
       <c r="X119" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z119" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA119">
         <v>148.38</v>
@@ -5213,16 +5234,16 @@
         <v>66</v>
       </c>
       <c r="M120" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O120">
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q120" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S120">
         <v>48.71</v>
@@ -5237,10 +5258,10 @@
         <v>1425.38</v>
       </c>
       <c r="X120" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z120" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA120">
         <v>16.2</v>
@@ -5248,10 +5269,10 @@
     </row>
     <row r="121" spans="1:27">
       <c r="P121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q121" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S121">
         <v>53</v>
@@ -5266,10 +5287,10 @@
         <v>1551.05</v>
       </c>
       <c r="X121" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z121" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA121">
         <v>17.63</v>
@@ -5277,10 +5298,10 @@
     </row>
     <row r="122" spans="1:27">
       <c r="P122" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q122" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S122">
         <v>100</v>
@@ -5295,10 +5316,10 @@
         <v>2926.5</v>
       </c>
       <c r="X122" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z122" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA122">
         <v>33.26</v>
@@ -5306,10 +5327,10 @@
     </row>
     <row r="123" spans="1:27">
       <c r="P123" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q123" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R123">
         <v>3.007</v>
@@ -5327,10 +5348,10 @@
         <v>7742.92</v>
       </c>
       <c r="X123" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z123" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA123">
         <v>87.98999999999999</v>
@@ -5338,10 +5359,10 @@
     </row>
     <row r="124" spans="1:27">
       <c r="P124" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q124" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -5359,10 +5380,10 @@
         <v>1053.54</v>
       </c>
       <c r="X124" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z124" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA124">
         <v>11.97</v>
@@ -5370,10 +5391,10 @@
     </row>
     <row r="125" spans="1:27">
       <c r="P125" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q125" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R125">
         <v>3.007</v>
@@ -5391,10 +5412,10 @@
         <v>5267.71</v>
       </c>
       <c r="X125" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z125" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA125">
         <v>59.86</v>
@@ -5402,10 +5423,10 @@
     </row>
     <row r="126" spans="1:27">
       <c r="P126" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q126" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R126">
         <v>3.007</v>
@@ -5420,10 +5441,10 @@
         <v>19967.1</v>
       </c>
       <c r="X126" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z126" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA126">
         <v>226.9</v>
@@ -5467,19 +5488,19 @@
         <v>67</v>
       </c>
       <c r="M127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N127" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O127">
         <v>793.17</v>
       </c>
       <c r="P127" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q127" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -5494,10 +5515,10 @@
         <v>0</v>
       </c>
       <c r="X127" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z127" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA127">
         <v>0</v>
@@ -5505,10 +5526,10 @@
     </row>
     <row r="128" spans="1:27">
       <c r="P128" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q128" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S128">
         <v>53</v>
@@ -5523,10 +5544,10 @@
         <v>4654.69</v>
       </c>
       <c r="X128" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z128" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA128">
         <v>52.89</v>
@@ -5534,10 +5555,10 @@
     </row>
     <row r="129" spans="1:27">
       <c r="P129" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q129" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S129">
         <v>100</v>
@@ -5552,10 +5573,10 @@
         <v>8782.440000000001</v>
       </c>
       <c r="X129" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z129" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA129">
         <v>99.8</v>
@@ -5563,10 +5584,10 @@
     </row>
     <row r="130" spans="1:27">
       <c r="P130" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q130" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R130">
         <v>1.002</v>
@@ -5584,10 +5605,10 @@
         <v>8932.879999999999</v>
       </c>
       <c r="X130" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z130" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA130">
         <v>101.51</v>
@@ -5595,10 +5616,10 @@
     </row>
     <row r="131" spans="1:27">
       <c r="P131" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q131" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R131">
         <v>1.002</v>
@@ -5616,10 +5637,10 @@
         <v>10538.92</v>
       </c>
       <c r="X131" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z131" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA131">
         <v>119.76</v>
@@ -5627,10 +5648,10 @@
     </row>
     <row r="132" spans="1:27">
       <c r="P132" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q132" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R132">
         <v>1.002</v>
@@ -5645,10 +5666,10 @@
         <v>32908.93</v>
       </c>
       <c r="X132" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z132" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA132">
         <v>373.97</v>
@@ -5692,19 +5713,19 @@
         <v>66</v>
       </c>
       <c r="M133" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N133" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O133">
         <v>305.01</v>
       </c>
       <c r="P133" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q133" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S133">
         <v>43.68</v>
@@ -5719,10 +5740,10 @@
         <v>3843.79</v>
       </c>
       <c r="X133" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z133" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA133">
         <v>43.68</v>
@@ -5730,10 +5751,10 @@
     </row>
     <row r="134" spans="1:27">
       <c r="P134" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q134" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S134">
         <v>53</v>
@@ -5748,10 +5769,10 @@
         <v>4664</v>
       </c>
       <c r="X134" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z134" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA134">
         <v>53</v>
@@ -5759,10 +5780,10 @@
     </row>
     <row r="135" spans="1:27">
       <c r="P135" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q135" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S135">
         <v>100</v>
@@ -5777,10 +5798,10 @@
         <v>8800</v>
       </c>
       <c r="X135" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z135" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA135">
         <v>100</v>
@@ -5788,10 +5809,10 @@
     </row>
     <row r="136" spans="1:27">
       <c r="P136" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q136" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R136">
         <v>1</v>
@@ -5809,10 +5830,10 @@
         <v>10701.67</v>
       </c>
       <c r="X136" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z136" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA136">
         <v>121.61</v>
@@ -5820,10 +5841,10 @@
     </row>
     <row r="137" spans="1:27">
       <c r="P137" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q137" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R137">
         <v>1</v>
@@ -5841,10 +5862,10 @@
         <v>1760</v>
       </c>
       <c r="X137" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z137" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA137">
         <v>20</v>
@@ -5852,10 +5873,10 @@
     </row>
     <row r="138" spans="1:27">
       <c r="P138" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q138" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R138">
         <v>1</v>
@@ -5873,10 +5894,10 @@
         <v>26840.88</v>
       </c>
       <c r="X138" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z138" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA138">
         <v>305.01</v>
@@ -5884,10 +5905,10 @@
     </row>
     <row r="139" spans="1:27">
       <c r="P139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q139" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R139">
         <v>1</v>
@@ -5902,10 +5923,10 @@
         <v>56610.34</v>
       </c>
       <c r="X139" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z139" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA139">
         <v>643.3</v>
@@ -5949,16 +5970,16 @@
         <v>66</v>
       </c>
       <c r="M140" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O140">
         <v>97</v>
       </c>
       <c r="P140" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S140">
         <v>43.68</v>
@@ -5973,10 +5994,10 @@
         <v>3843.79</v>
       </c>
       <c r="X140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z140" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA140">
         <v>43.68</v>
@@ -5984,10 +6005,10 @@
     </row>
     <row r="141" spans="1:27">
       <c r="P141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q141" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S141">
         <v>53</v>
@@ -6002,10 +6023,10 @@
         <v>4664</v>
       </c>
       <c r="X141" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z141" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA141">
         <v>53</v>
@@ -6013,10 +6034,10 @@
     </row>
     <row r="142" spans="1:27">
       <c r="P142" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q142" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S142">
         <v>100</v>
@@ -6031,10 +6052,10 @@
         <v>8800</v>
       </c>
       <c r="X142" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z142" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA142">
         <v>100</v>
@@ -6042,10 +6063,10 @@
     </row>
     <row r="143" spans="1:27">
       <c r="P143" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q143" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R143">
         <v>1</v>
@@ -6063,10 +6084,10 @@
         <v>10679.67</v>
       </c>
       <c r="X143" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z143" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA143">
         <v>121.36</v>
@@ -6074,10 +6095,10 @@
     </row>
     <row r="144" spans="1:27">
       <c r="P144" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q144" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R144">
         <v>1</v>
@@ -6095,10 +6116,10 @@
         <v>1584</v>
       </c>
       <c r="X144" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z144" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA144">
         <v>18</v>
@@ -6106,10 +6127,10 @@
     </row>
     <row r="145" spans="1:27">
       <c r="P145" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q145" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R145">
         <v>1</v>
@@ -6127,10 +6148,10 @@
         <v>10560</v>
       </c>
       <c r="X145" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z145" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA145">
         <v>120</v>
@@ -6138,10 +6159,10 @@
     </row>
     <row r="146" spans="1:27">
       <c r="P146" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q146" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R146">
         <v>1</v>
@@ -6156,10 +6177,10 @@
         <v>40131.46</v>
       </c>
       <c r="X146" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z146" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA146">
         <v>456.04</v>
@@ -6203,19 +6224,19 @@
         <v>66</v>
       </c>
       <c r="M147" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N147" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O147">
         <v>305.01</v>
       </c>
       <c r="P147" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q147" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S147">
         <v>87.36</v>
@@ -6230,10 +6251,10 @@
         <v>3843.79</v>
       </c>
       <c r="X147" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z147" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA147">
         <v>43.68</v>
@@ -6277,19 +6298,19 @@
         <v>66</v>
       </c>
       <c r="M148" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N148" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O148">
         <v>322.38</v>
       </c>
       <c r="P148" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q148" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S148">
         <v>53</v>
@@ -6304,10 +6325,10 @@
         <v>2332</v>
       </c>
       <c r="X148" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z148" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA148">
         <v>26.5</v>
@@ -6315,10 +6336,10 @@
     </row>
     <row r="149" spans="1:27">
       <c r="P149" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q149" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S149">
         <v>100</v>
@@ -6333,10 +6354,10 @@
         <v>4400</v>
       </c>
       <c r="X149" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z149" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA149">
         <v>50</v>
@@ -6344,10 +6365,10 @@
     </row>
     <row r="150" spans="1:27">
       <c r="P150" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q150" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R150">
         <v>2</v>
@@ -6365,10 +6386,10 @@
         <v>8501.67</v>
       </c>
       <c r="X150" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z150" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA150">
         <v>96.61</v>
@@ -6376,10 +6397,10 @@
     </row>
     <row r="151" spans="1:27">
       <c r="P151" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q151" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R151">
         <v>2</v>
@@ -6397,10 +6418,10 @@
         <v>1760</v>
       </c>
       <c r="X151" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z151" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA151">
         <v>20</v>
@@ -6408,10 +6429,10 @@
     </row>
     <row r="152" spans="1:27">
       <c r="P152" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q152" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R152">
         <v>1</v>
@@ -6429,10 +6450,10 @@
         <v>26840.88</v>
       </c>
       <c r="X152" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z152" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA152">
         <v>305.01</v>
@@ -6440,10 +6461,10 @@
     </row>
     <row r="153" spans="1:27">
       <c r="P153" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q153" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R153">
         <v>1</v>
@@ -6461,10 +6482,10 @@
         <v>28369.44</v>
       </c>
       <c r="X153" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z153" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA153">
         <v>322.38</v>
@@ -6472,10 +6493,10 @@
     </row>
     <row r="154" spans="1:27">
       <c r="P154" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q154" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R154">
         <v>2</v>
@@ -6490,10 +6511,10 @@
         <v>48442.62</v>
       </c>
       <c r="X154" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z154" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA154">
         <v>550.48</v>
@@ -6537,19 +6558,19 @@
         <v>66</v>
       </c>
       <c r="M155" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N155" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O155">
         <v>337.33</v>
       </c>
       <c r="P155" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q155" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S155">
         <v>0</v>
@@ -6564,10 +6585,10 @@
         <v>0</v>
       </c>
       <c r="X155" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z155" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA155">
         <v>0</v>
@@ -6575,10 +6596,10 @@
     </row>
     <row r="156" spans="1:27">
       <c r="P156" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q156" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S156">
         <v>53</v>
@@ -6593,10 +6614,10 @@
         <v>1489.14</v>
       </c>
       <c r="X156" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z156" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA156">
         <v>16.92</v>
@@ -6604,10 +6625,10 @@
     </row>
     <row r="157" spans="1:27">
       <c r="P157" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q157" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S157">
         <v>100</v>
@@ -6622,10 +6643,10 @@
         <v>2809.71</v>
       </c>
       <c r="X157" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z157" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA157">
         <v>31.93</v>
@@ -6633,10 +6654,10 @@
     </row>
     <row r="158" spans="1:27">
       <c r="P158" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q158" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R158">
         <v>3.132</v>
@@ -6654,10 +6675,10 @@
         <v>8279.4</v>
       </c>
       <c r="X158" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z158" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA158">
         <v>94.08</v>
@@ -6665,10 +6686,10 @@
     </row>
     <row r="159" spans="1:27">
       <c r="P159" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q159" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R159">
         <v>2</v>
@@ -6686,10 +6707,10 @@
         <v>1123.88</v>
       </c>
       <c r="X159" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z159" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA159">
         <v>12.77</v>
@@ -6697,10 +6718,10 @@
     </row>
     <row r="160" spans="1:27">
       <c r="P160" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q160" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R160">
         <v>3.132</v>
@@ -6718,10 +6739,10 @@
         <v>9477.98</v>
       </c>
       <c r="X160" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z160" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA160">
         <v>107.7</v>
@@ -6729,10 +6750,10 @@
     </row>
     <row r="161" spans="1:27">
       <c r="P161" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q161" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R161">
         <v>3.132</v>
@@ -6747,10 +6768,10 @@
         <v>23180.11</v>
       </c>
       <c r="X161" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z161" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA161">
         <v>263.41</v>
@@ -6794,19 +6815,19 @@
         <v>66</v>
       </c>
       <c r="M162" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N162" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O162">
         <v>574.67</v>
       </c>
       <c r="P162" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q162" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S162">
         <v>0</v>
@@ -6821,10 +6842,10 @@
         <v>0</v>
       </c>
       <c r="X162" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z162" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA162">
         <v>0</v>
@@ -6868,19 +6889,19 @@
         <v>66</v>
       </c>
       <c r="M163" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N163" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O163">
         <v>384.33</v>
       </c>
       <c r="P163" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q163" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S163">
         <v>53</v>
@@ -6895,10 +6916,10 @@
         <v>240.18</v>
       </c>
       <c r="X163" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z163" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA163">
         <v>2.73</v>
@@ -6942,19 +6963,19 @@
         <v>66</v>
       </c>
       <c r="M164" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N164" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O164">
         <v>473.09</v>
       </c>
       <c r="P164" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q164" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S164">
         <v>100</v>
@@ -6969,10 +6990,10 @@
         <v>453.16</v>
       </c>
       <c r="X164" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z164" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA164">
         <v>5.15</v>
@@ -6980,10 +7001,10 @@
     </row>
     <row r="165" spans="1:27">
       <c r="P165" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q165" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R165">
         <v>19.419</v>
@@ -7001,10 +7022,10 @@
         <v>7357.13</v>
       </c>
       <c r="X165" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z165" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA165">
         <v>83.59999999999999</v>
@@ -7012,10 +7033,10 @@
     </row>
     <row r="166" spans="1:27">
       <c r="P166" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q166" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R166">
         <v>13</v>
@@ -7033,10 +7054,10 @@
         <v>1178.23</v>
       </c>
       <c r="X166" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z166" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA166">
         <v>13.39</v>
@@ -7044,10 +7065,10 @@
     </row>
     <row r="167" spans="1:27">
       <c r="P167" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q167" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R167">
         <v>5.951</v>
@@ -7065,10 +7086,10 @@
         <v>8497.889999999999</v>
       </c>
       <c r="X167" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z167" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA167">
         <v>96.56999999999999</v>
@@ -7076,10 +7097,10 @@
     </row>
     <row r="168" spans="1:27">
       <c r="P168" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q168" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R168">
         <v>5.951</v>
@@ -7097,10 +7118,10 @@
         <v>5683.25</v>
       </c>
       <c r="X168" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z168" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA168">
         <v>64.58</v>
@@ -7108,10 +7129,10 @@
     </row>
     <row r="169" spans="1:27">
       <c r="P169" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q169" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R169">
         <v>7.517</v>
@@ -7129,10 +7150,10 @@
         <v>5538.37</v>
       </c>
       <c r="X169" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z169" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA169">
         <v>62.94</v>
@@ -7140,10 +7161,10 @@
     </row>
     <row r="170" spans="1:27">
       <c r="P170" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q170" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R170">
         <v>19.419</v>
@@ -7158,10 +7179,10 @@
         <v>15718.42</v>
       </c>
       <c r="X170" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z170" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA170">
         <v>178.62</v>
@@ -7205,19 +7226,19 @@
         <v>66</v>
       </c>
       <c r="M171" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N171" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O171">
         <v>781.24</v>
       </c>
       <c r="P171" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q171" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S171">
         <v>0</v>
@@ -7232,10 +7253,10 @@
         <v>0</v>
       </c>
       <c r="X171" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z171" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA171">
         <v>0</v>
@@ -7243,10 +7264,10 @@
     </row>
     <row r="172" spans="1:27">
       <c r="P172" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q172" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S172">
         <v>53</v>
@@ -7261,10 +7282,10 @@
         <v>783.73</v>
       </c>
       <c r="X172" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z172" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA172">
         <v>8.91</v>
@@ -7272,10 +7293,10 @@
     </row>
     <row r="173" spans="1:27">
       <c r="P173" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q173" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S173">
         <v>100</v>
@@ -7290,10 +7311,10 @@
         <v>1478.74</v>
       </c>
       <c r="X173" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z173" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA173">
         <v>16.8</v>
@@ -7301,10 +7322,10 @@
     </row>
     <row r="174" spans="1:27">
       <c r="P174" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q174" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R174">
         <v>5.951</v>
@@ -7322,10 +7343,10 @@
         <v>7019.04</v>
       </c>
       <c r="X174" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z174" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA174">
         <v>79.76000000000001</v>
@@ -7333,10 +7354,10 @@
     </row>
     <row r="175" spans="1:27">
       <c r="P175" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q175" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R175">
         <v>4</v>
@@ -7354,10 +7375,10 @@
         <v>1064.7</v>
       </c>
       <c r="X175" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z175" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA175">
         <v>12.1</v>
@@ -7365,10 +7386,10 @@
     </row>
     <row r="176" spans="1:27">
       <c r="P176" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q176" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R176">
         <v>5.951</v>
@@ -7386,10 +7407,10 @@
         <v>11552.53</v>
       </c>
       <c r="X176" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z176" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA176">
         <v>131.28</v>
@@ -7397,10 +7418,10 @@
     </row>
     <row r="177" spans="1:27">
       <c r="P177" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q177" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R177">
         <v>5.951</v>
@@ -7415,10 +7436,10 @@
         <v>21898.74</v>
       </c>
       <c r="X177" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z177" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA177">
         <v>248.85</v>
@@ -7462,19 +7483,19 @@
         <v>67</v>
       </c>
       <c r="M178" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N178" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O178">
         <v>1677.24</v>
       </c>
       <c r="P178" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q178" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S178">
         <v>0</v>
@@ -7489,10 +7510,10 @@
         <v>0</v>
       </c>
       <c r="X178" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z178" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA178">
         <v>0</v>
@@ -7500,10 +7521,10 @@
     </row>
     <row r="179" spans="1:27">
       <c r="P179" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q179" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S179">
         <v>53</v>
@@ -7518,10 +7539,10 @@
         <v>310.89</v>
       </c>
       <c r="X179" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z179" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA179">
         <v>3.53</v>
@@ -7529,10 +7550,10 @@
     </row>
     <row r="180" spans="1:27">
       <c r="P180" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q180" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S180">
         <v>100</v>
@@ -7547,10 +7568,10 @@
         <v>586.59</v>
       </c>
       <c r="X180" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z180" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA180">
         <v>6.67</v>
@@ -7558,10 +7579,10 @@
     </row>
     <row r="181" spans="1:27">
       <c r="P181" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q181" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R181">
         <v>15.002</v>
@@ -7579,10 +7600,10 @@
         <v>6047.84</v>
       </c>
       <c r="X181" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z181" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA181">
         <v>68.73</v>
@@ -7590,10 +7611,10 @@
     </row>
     <row r="182" spans="1:27">
       <c r="P182" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q182" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R182">
         <v>15.002</v>
@@ -7611,10 +7632,10 @@
         <v>2683.58</v>
       </c>
       <c r="X182" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z182" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA182">
         <v>30.5</v>
@@ -7622,10 +7643,10 @@
     </row>
     <row r="183" spans="1:27">
       <c r="P183" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q183" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R183">
         <v>15.002</v>
@@ -7640,10 +7661,10 @@
         <v>9628.9</v>
       </c>
       <c r="X183" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z183" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA183">
         <v>109.42</v>
@@ -7687,16 +7708,16 @@
         <v>66</v>
       </c>
       <c r="M184" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O184">
         <v>180</v>
       </c>
       <c r="P184" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q184" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S184">
         <v>48.71</v>
@@ -7711,10 +7732,10 @@
         <v>1425.38</v>
       </c>
       <c r="X184" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z184" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA184">
         <v>16.2</v>
@@ -7722,10 +7743,10 @@
     </row>
     <row r="185" spans="1:27">
       <c r="P185" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q185" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S185">
         <v>53</v>
@@ -7740,10 +7761,10 @@
         <v>1551.05</v>
       </c>
       <c r="X185" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z185" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA185">
         <v>17.63</v>
@@ -7751,10 +7772,10 @@
     </row>
     <row r="186" spans="1:27">
       <c r="P186" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q186" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S186">
         <v>100</v>
@@ -7769,10 +7790,10 @@
         <v>2926.5</v>
       </c>
       <c r="X186" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z186" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA186">
         <v>33.26</v>
@@ -7780,10 +7801,10 @@
     </row>
     <row r="187" spans="1:27">
       <c r="P187" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q187" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R187">
         <v>3.007</v>
@@ -7801,10 +7822,10 @@
         <v>7742.92</v>
       </c>
       <c r="X187" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z187" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA187">
         <v>87.98999999999999</v>
@@ -7812,10 +7833,10 @@
     </row>
     <row r="188" spans="1:27">
       <c r="P188" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q188" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -7833,10 +7854,10 @@
         <v>1053.54</v>
       </c>
       <c r="X188" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z188" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA188">
         <v>11.97</v>
@@ -7844,10 +7865,10 @@
     </row>
     <row r="189" spans="1:27">
       <c r="P189" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q189" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R189">
         <v>3.007</v>
@@ -7865,10 +7886,10 @@
         <v>5267.71</v>
       </c>
       <c r="X189" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z189" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA189">
         <v>59.86</v>
@@ -7876,10 +7897,10 @@
     </row>
     <row r="190" spans="1:27">
       <c r="P190" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q190" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R190">
         <v>3.007</v>
@@ -7894,10 +7915,10 @@
         <v>19967.1</v>
       </c>
       <c r="X190" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z190" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA190">
         <v>226.9</v>
@@ -7941,16 +7962,16 @@
         <v>66</v>
       </c>
       <c r="M191" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O191">
         <v>180</v>
       </c>
       <c r="P191" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q191" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S191">
         <v>0.05</v>
@@ -7965,10 +7986,10 @@
         <v>1.43</v>
       </c>
       <c r="X191" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z191" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA191">
         <v>0.02</v>
@@ -7976,10 +7997,10 @@
     </row>
     <row r="192" spans="1:27">
       <c r="P192" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q192" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S192">
         <v>53</v>
@@ -7994,21 +8015,21 @@
         <v>1551.05</v>
       </c>
       <c r="X192" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z192" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA192">
         <v>17.63</v>
       </c>
     </row>
-    <row r="193" spans="16:27">
+    <row r="193" spans="1:27">
       <c r="P193" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q193" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S193">
         <v>100</v>
@@ -8023,21 +8044,21 @@
         <v>2926.5</v>
       </c>
       <c r="X193" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z193" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA193">
         <v>33.26</v>
       </c>
     </row>
-    <row r="194" spans="16:27">
+    <row r="194" spans="1:27">
       <c r="P194" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q194" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R194">
         <v>3.007</v>
@@ -8055,21 +8076,21 @@
         <v>7742.92</v>
       </c>
       <c r="X194" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z194" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA194">
         <v>87.98999999999999</v>
       </c>
     </row>
-    <row r="195" spans="16:27">
+    <row r="195" spans="1:27">
       <c r="P195" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q195" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R195">
         <v>2</v>
@@ -8087,21 +8108,21 @@
         <v>1053.54</v>
       </c>
       <c r="X195" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z195" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA195">
         <v>11.97</v>
       </c>
     </row>
-    <row r="196" spans="16:27">
+    <row r="196" spans="1:27">
       <c r="P196" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q196" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R196">
         <v>3.007</v>
@@ -8119,21 +8140,21 @@
         <v>5267.71</v>
       </c>
       <c r="X196" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z196" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA196">
         <v>59.86</v>
       </c>
     </row>
-    <row r="197" spans="16:27">
+    <row r="197" spans="1:27">
       <c r="P197" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q197" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R197">
         <v>3.007</v>
@@ -8148,13 +8169,2208 @@
         <v>18543.15</v>
       </c>
       <c r="X197" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z197" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA197">
         <v>210.72</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27">
+      <c r="A198" t="s">
+        <v>29</v>
+      </c>
+      <c r="B198" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" t="s">
+        <v>32</v>
+      </c>
+      <c r="D198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E198" t="s">
+        <v>35</v>
+      </c>
+      <c r="F198" t="s">
+        <v>39</v>
+      </c>
+      <c r="G198" t="s">
+        <v>46</v>
+      </c>
+      <c r="H198" t="s">
+        <v>57</v>
+      </c>
+      <c r="I198" t="s">
+        <v>64</v>
+      </c>
+      <c r="J198">
+        <v>3.007</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198" t="s">
+        <v>66</v>
+      </c>
+      <c r="M198" t="s">
+        <v>71</v>
+      </c>
+      <c r="O198">
+        <v>180</v>
+      </c>
+      <c r="P198" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>98</v>
+      </c>
+      <c r="S198">
+        <v>48.71</v>
+      </c>
+      <c r="T198">
+        <v>88</v>
+      </c>
+      <c r="V198">
+        <v>4286.11</v>
+      </c>
+      <c r="W198">
+        <v>1425.38</v>
+      </c>
+      <c r="X198" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA198">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27">
+      <c r="P199" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>99</v>
+      </c>
+      <c r="S199">
+        <v>53</v>
+      </c>
+      <c r="T199">
+        <v>88</v>
+      </c>
+      <c r="V199">
+        <v>4664</v>
+      </c>
+      <c r="W199">
+        <v>1551.05</v>
+      </c>
+      <c r="X199" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA199">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27">
+      <c r="P200" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>99</v>
+      </c>
+      <c r="S200">
+        <v>100</v>
+      </c>
+      <c r="T200">
+        <v>88</v>
+      </c>
+      <c r="V200">
+        <v>8800</v>
+      </c>
+      <c r="W200">
+        <v>2926.5</v>
+      </c>
+      <c r="X200" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA200">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27">
+      <c r="P201" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>100</v>
+      </c>
+      <c r="R201">
+        <v>3.007</v>
+      </c>
+      <c r="S201">
+        <v>264.58</v>
+      </c>
+      <c r="T201">
+        <v>88</v>
+      </c>
+      <c r="V201">
+        <v>23282.96</v>
+      </c>
+      <c r="W201">
+        <v>7742.92</v>
+      </c>
+      <c r="X201" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA201">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27">
+      <c r="P202" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>101</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>36</v>
+      </c>
+      <c r="T202">
+        <v>88</v>
+      </c>
+      <c r="V202">
+        <v>3168</v>
+      </c>
+      <c r="W202">
+        <v>1053.54</v>
+      </c>
+      <c r="X202" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA202">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27">
+      <c r="P203" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>100</v>
+      </c>
+      <c r="R203">
+        <v>3.007</v>
+      </c>
+      <c r="S203">
+        <v>180</v>
+      </c>
+      <c r="T203">
+        <v>88</v>
+      </c>
+      <c r="V203">
+        <v>15840</v>
+      </c>
+      <c r="W203">
+        <v>5267.71</v>
+      </c>
+      <c r="X203" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA203">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27">
+      <c r="P204" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>100</v>
+      </c>
+      <c r="R204">
+        <v>3.007</v>
+      </c>
+      <c r="S204">
+        <v>682.28</v>
+      </c>
+      <c r="V204">
+        <v>60041.07</v>
+      </c>
+      <c r="W204">
+        <v>19967.1</v>
+      </c>
+      <c r="X204" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA204">
+        <v>226.9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27">
+      <c r="A205" t="s">
+        <v>29</v>
+      </c>
+      <c r="B205" t="s">
+        <v>31</v>
+      </c>
+      <c r="C205" t="s">
+        <v>32</v>
+      </c>
+      <c r="D205" t="s">
+        <v>33</v>
+      </c>
+      <c r="E205" t="s">
+        <v>35</v>
+      </c>
+      <c r="F205" t="s">
+        <v>39</v>
+      </c>
+      <c r="G205" t="s">
+        <v>46</v>
+      </c>
+      <c r="H205" t="s">
+        <v>57</v>
+      </c>
+      <c r="I205" t="s">
+        <v>64</v>
+      </c>
+      <c r="J205">
+        <v>3.007</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+      <c r="L205" t="s">
+        <v>66</v>
+      </c>
+      <c r="M205" t="s">
+        <v>71</v>
+      </c>
+      <c r="O205">
+        <v>180</v>
+      </c>
+      <c r="P205" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>98</v>
+      </c>
+      <c r="S205">
+        <v>48.71</v>
+      </c>
+      <c r="T205">
+        <v>88</v>
+      </c>
+      <c r="V205">
+        <v>4286.11</v>
+      </c>
+      <c r="W205">
+        <v>1425.38</v>
+      </c>
+      <c r="X205" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA205">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27">
+      <c r="P206" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>99</v>
+      </c>
+      <c r="S206">
+        <v>53</v>
+      </c>
+      <c r="T206">
+        <v>88</v>
+      </c>
+      <c r="V206">
+        <v>4664</v>
+      </c>
+      <c r="W206">
+        <v>1551.05</v>
+      </c>
+      <c r="X206" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA206">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27">
+      <c r="P207" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>99</v>
+      </c>
+      <c r="S207">
+        <v>100</v>
+      </c>
+      <c r="T207">
+        <v>88</v>
+      </c>
+      <c r="V207">
+        <v>8800</v>
+      </c>
+      <c r="W207">
+        <v>2926.5</v>
+      </c>
+      <c r="X207" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA207">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27">
+      <c r="P208" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>100</v>
+      </c>
+      <c r="R208">
+        <v>3.007</v>
+      </c>
+      <c r="S208">
+        <v>264.58</v>
+      </c>
+      <c r="T208">
+        <v>88</v>
+      </c>
+      <c r="V208">
+        <v>23282.96</v>
+      </c>
+      <c r="W208">
+        <v>7742.92</v>
+      </c>
+      <c r="X208" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA208">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="P209" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>101</v>
+      </c>
+      <c r="R209">
+        <v>2</v>
+      </c>
+      <c r="S209">
+        <v>36</v>
+      </c>
+      <c r="T209">
+        <v>88</v>
+      </c>
+      <c r="V209">
+        <v>3168</v>
+      </c>
+      <c r="W209">
+        <v>1053.54</v>
+      </c>
+      <c r="X209" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA209">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="P210" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>100</v>
+      </c>
+      <c r="R210">
+        <v>3.007</v>
+      </c>
+      <c r="S210">
+        <v>180</v>
+      </c>
+      <c r="T210">
+        <v>88</v>
+      </c>
+      <c r="V210">
+        <v>15840</v>
+      </c>
+      <c r="W210">
+        <v>5267.71</v>
+      </c>
+      <c r="X210" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA210">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="P211" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>100</v>
+      </c>
+      <c r="R211">
+        <v>3.007</v>
+      </c>
+      <c r="S211">
+        <v>682.28</v>
+      </c>
+      <c r="V211">
+        <v>60041.07</v>
+      </c>
+      <c r="W211">
+        <v>19967.1</v>
+      </c>
+      <c r="X211" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA211">
+        <v>226.9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
+      <c r="A212" t="s">
+        <v>29</v>
+      </c>
+      <c r="B212" t="s">
+        <v>31</v>
+      </c>
+      <c r="C212" t="s">
+        <v>32</v>
+      </c>
+      <c r="D212" t="s">
+        <v>33</v>
+      </c>
+      <c r="E212" t="s">
+        <v>35</v>
+      </c>
+      <c r="F212" t="s">
+        <v>39</v>
+      </c>
+      <c r="G212" t="s">
+        <v>46</v>
+      </c>
+      <c r="H212" t="s">
+        <v>57</v>
+      </c>
+      <c r="I212" t="s">
+        <v>64</v>
+      </c>
+      <c r="J212">
+        <v>3.007</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212" t="s">
+        <v>66</v>
+      </c>
+      <c r="M212" t="s">
+        <v>71</v>
+      </c>
+      <c r="O212">
+        <v>180</v>
+      </c>
+      <c r="P212" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>98</v>
+      </c>
+      <c r="S212">
+        <v>48.71</v>
+      </c>
+      <c r="T212">
+        <v>88</v>
+      </c>
+      <c r="V212">
+        <v>4286.11</v>
+      </c>
+      <c r="W212">
+        <v>1425.38</v>
+      </c>
+      <c r="X212" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA212">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
+      <c r="P213" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>99</v>
+      </c>
+      <c r="S213">
+        <v>53</v>
+      </c>
+      <c r="T213">
+        <v>88</v>
+      </c>
+      <c r="V213">
+        <v>4664</v>
+      </c>
+      <c r="W213">
+        <v>1551.05</v>
+      </c>
+      <c r="X213" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA213">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27">
+      <c r="P214" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>99</v>
+      </c>
+      <c r="S214">
+        <v>100</v>
+      </c>
+      <c r="T214">
+        <v>88</v>
+      </c>
+      <c r="V214">
+        <v>8800</v>
+      </c>
+      <c r="W214">
+        <v>2926.5</v>
+      </c>
+      <c r="X214" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA214">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27">
+      <c r="P215" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>100</v>
+      </c>
+      <c r="R215">
+        <v>3.007</v>
+      </c>
+      <c r="S215">
+        <v>264.58</v>
+      </c>
+      <c r="T215">
+        <v>88</v>
+      </c>
+      <c r="V215">
+        <v>23282.96</v>
+      </c>
+      <c r="W215">
+        <v>7742.92</v>
+      </c>
+      <c r="X215" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA215">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27">
+      <c r="P216" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>101</v>
+      </c>
+      <c r="R216">
+        <v>2</v>
+      </c>
+      <c r="S216">
+        <v>36</v>
+      </c>
+      <c r="T216">
+        <v>88</v>
+      </c>
+      <c r="V216">
+        <v>3168</v>
+      </c>
+      <c r="W216">
+        <v>1053.54</v>
+      </c>
+      <c r="X216" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA216">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27">
+      <c r="P217" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>100</v>
+      </c>
+      <c r="R217">
+        <v>3.007</v>
+      </c>
+      <c r="S217">
+        <v>180</v>
+      </c>
+      <c r="T217">
+        <v>88</v>
+      </c>
+      <c r="V217">
+        <v>15840</v>
+      </c>
+      <c r="W217">
+        <v>5267.71</v>
+      </c>
+      <c r="X217" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA217">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27">
+      <c r="P218" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>100</v>
+      </c>
+      <c r="R218">
+        <v>3.007</v>
+      </c>
+      <c r="S218">
+        <v>682.28</v>
+      </c>
+      <c r="V218">
+        <v>60041.07</v>
+      </c>
+      <c r="W218">
+        <v>19967.1</v>
+      </c>
+      <c r="X218" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA218">
+        <v>226.9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27">
+      <c r="A219" t="s">
+        <v>29</v>
+      </c>
+      <c r="B219" t="s">
+        <v>31</v>
+      </c>
+      <c r="C219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D219" t="s">
+        <v>33</v>
+      </c>
+      <c r="E219" t="s">
+        <v>35</v>
+      </c>
+      <c r="F219" t="s">
+        <v>39</v>
+      </c>
+      <c r="G219" t="s">
+        <v>46</v>
+      </c>
+      <c r="H219" t="s">
+        <v>57</v>
+      </c>
+      <c r="I219" t="s">
+        <v>64</v>
+      </c>
+      <c r="J219">
+        <v>3.007</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219" t="s">
+        <v>66</v>
+      </c>
+      <c r="M219" t="s">
+        <v>71</v>
+      </c>
+      <c r="O219">
+        <v>180</v>
+      </c>
+      <c r="P219" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>98</v>
+      </c>
+      <c r="S219">
+        <v>48.71</v>
+      </c>
+      <c r="T219">
+        <v>88</v>
+      </c>
+      <c r="V219">
+        <v>4286.11</v>
+      </c>
+      <c r="W219">
+        <v>1425.38</v>
+      </c>
+      <c r="X219" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA219">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27">
+      <c r="P220" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>99</v>
+      </c>
+      <c r="S220">
+        <v>53</v>
+      </c>
+      <c r="T220">
+        <v>88</v>
+      </c>
+      <c r="V220">
+        <v>4664</v>
+      </c>
+      <c r="W220">
+        <v>1551.05</v>
+      </c>
+      <c r="X220" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA220">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27">
+      <c r="P221" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>99</v>
+      </c>
+      <c r="S221">
+        <v>100</v>
+      </c>
+      <c r="T221">
+        <v>88</v>
+      </c>
+      <c r="V221">
+        <v>8800</v>
+      </c>
+      <c r="W221">
+        <v>2926.5</v>
+      </c>
+      <c r="X221" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA221">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27">
+      <c r="P222" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>100</v>
+      </c>
+      <c r="R222">
+        <v>3.007</v>
+      </c>
+      <c r="S222">
+        <v>264.58</v>
+      </c>
+      <c r="T222">
+        <v>88</v>
+      </c>
+      <c r="V222">
+        <v>23282.96</v>
+      </c>
+      <c r="W222">
+        <v>7742.92</v>
+      </c>
+      <c r="X222" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA222">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
+      <c r="P223" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>101</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>36</v>
+      </c>
+      <c r="T223">
+        <v>88</v>
+      </c>
+      <c r="V223">
+        <v>3168</v>
+      </c>
+      <c r="W223">
+        <v>1053.54</v>
+      </c>
+      <c r="X223" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA223">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27">
+      <c r="P224" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>100</v>
+      </c>
+      <c r="R224">
+        <v>3.007</v>
+      </c>
+      <c r="S224">
+        <v>180</v>
+      </c>
+      <c r="T224">
+        <v>88</v>
+      </c>
+      <c r="V224">
+        <v>15840</v>
+      </c>
+      <c r="W224">
+        <v>5267.71</v>
+      </c>
+      <c r="X224" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA224">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="P225" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>100</v>
+      </c>
+      <c r="R225">
+        <v>3.007</v>
+      </c>
+      <c r="S225">
+        <v>682.28</v>
+      </c>
+      <c r="V225">
+        <v>60041.07</v>
+      </c>
+      <c r="W225">
+        <v>19967.1</v>
+      </c>
+      <c r="X225" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA225">
+        <v>226.9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" t="s">
+        <v>30</v>
+      </c>
+      <c r="B226" t="s">
+        <v>31</v>
+      </c>
+      <c r="C226" t="s">
+        <v>32</v>
+      </c>
+      <c r="D226" t="s">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>34</v>
+      </c>
+      <c r="F226" t="s">
+        <v>38</v>
+      </c>
+      <c r="G226" t="s">
+        <v>47</v>
+      </c>
+      <c r="H226" t="s">
+        <v>58</v>
+      </c>
+      <c r="I226" t="s">
+        <v>64</v>
+      </c>
+      <c r="J226">
+        <v>9.02</v>
+      </c>
+      <c r="K226">
+        <v>6</v>
+      </c>
+      <c r="L226" t="s">
+        <v>66</v>
+      </c>
+      <c r="M226" t="s">
+        <v>72</v>
+      </c>
+      <c r="N226" t="s">
+        <v>73</v>
+      </c>
+      <c r="O226">
+        <v>546.16</v>
+      </c>
+      <c r="P226" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>98</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>88</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="P227" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>99</v>
+      </c>
+      <c r="S227">
+        <v>53</v>
+      </c>
+      <c r="T227">
+        <v>88</v>
+      </c>
+      <c r="V227">
+        <v>4664</v>
+      </c>
+      <c r="W227">
+        <v>517.0700000000001</v>
+      </c>
+      <c r="X227" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA227">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="P228" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>99</v>
+      </c>
+      <c r="S228">
+        <v>100</v>
+      </c>
+      <c r="T228">
+        <v>88</v>
+      </c>
+      <c r="V228">
+        <v>8800</v>
+      </c>
+      <c r="W228">
+        <v>975.61</v>
+      </c>
+      <c r="X228" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA228">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="P229" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>100</v>
+      </c>
+      <c r="R229">
+        <v>9.02</v>
+      </c>
+      <c r="S229">
+        <v>754.64</v>
+      </c>
+      <c r="T229">
+        <v>88</v>
+      </c>
+      <c r="V229">
+        <v>66408.39999999999</v>
+      </c>
+      <c r="W229">
+        <v>7362.35</v>
+      </c>
+      <c r="X229" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z229" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA229">
+        <v>83.66</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
+      <c r="P230" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>101</v>
+      </c>
+      <c r="R230">
+        <v>6</v>
+      </c>
+      <c r="S230">
+        <v>120</v>
+      </c>
+      <c r="T230">
+        <v>88</v>
+      </c>
+      <c r="V230">
+        <v>10560</v>
+      </c>
+      <c r="W230">
+        <v>1170.73</v>
+      </c>
+      <c r="X230" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z230" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA230">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
+      <c r="P231" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>100</v>
+      </c>
+      <c r="R231">
+        <v>9.02</v>
+      </c>
+      <c r="S231">
+        <v>546.16</v>
+      </c>
+      <c r="T231">
+        <v>88</v>
+      </c>
+      <c r="V231">
+        <v>48062.08</v>
+      </c>
+      <c r="W231">
+        <v>5328.39</v>
+      </c>
+      <c r="X231" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z231" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA231">
+        <v>60.55</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
+      <c r="P232" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>100</v>
+      </c>
+      <c r="R232">
+        <v>9.02</v>
+      </c>
+      <c r="S232">
+        <v>1573.8</v>
+      </c>
+      <c r="V232">
+        <v>138494.48</v>
+      </c>
+      <c r="W232">
+        <v>15354.16</v>
+      </c>
+      <c r="X232" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z232" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA232">
+        <v>174.48</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
+      <c r="A233" t="s">
+        <v>30</v>
+      </c>
+      <c r="B233" t="s">
+        <v>31</v>
+      </c>
+      <c r="C233" t="s">
+        <v>32</v>
+      </c>
+      <c r="D233" t="s">
+        <v>34</v>
+      </c>
+      <c r="E233" t="s">
+        <v>36</v>
+      </c>
+      <c r="F233" t="s">
+        <v>40</v>
+      </c>
+      <c r="G233" t="s">
+        <v>48</v>
+      </c>
+      <c r="H233" t="s">
+        <v>59</v>
+      </c>
+      <c r="I233" t="s">
+        <v>64</v>
+      </c>
+      <c r="J233">
+        <v>14.439</v>
+      </c>
+      <c r="K233">
+        <v>9</v>
+      </c>
+      <c r="L233" t="s">
+        <v>66</v>
+      </c>
+      <c r="M233" t="s">
+        <v>72</v>
+      </c>
+      <c r="N233" t="s">
+        <v>73</v>
+      </c>
+      <c r="O233">
+        <v>1314.23</v>
+      </c>
+      <c r="P233" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>98</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>88</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z233" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27">
+      <c r="A234" t="s">
+        <v>30</v>
+      </c>
+      <c r="B234" t="s">
+        <v>31</v>
+      </c>
+      <c r="C234" t="s">
+        <v>32</v>
+      </c>
+      <c r="D234" t="s">
+        <v>33</v>
+      </c>
+      <c r="E234" t="s">
+        <v>37</v>
+      </c>
+      <c r="F234" t="s">
+        <v>40</v>
+      </c>
+      <c r="G234" t="s">
+        <v>49</v>
+      </c>
+      <c r="H234" t="s">
+        <v>60</v>
+      </c>
+      <c r="I234" t="s">
+        <v>64</v>
+      </c>
+      <c r="J234">
+        <v>14.439</v>
+      </c>
+      <c r="K234">
+        <v>9</v>
+      </c>
+      <c r="L234" t="s">
+        <v>66</v>
+      </c>
+      <c r="M234" t="s">
+        <v>72</v>
+      </c>
+      <c r="N234" t="s">
+        <v>73</v>
+      </c>
+      <c r="O234">
+        <v>638.28</v>
+      </c>
+      <c r="P234" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>99</v>
+      </c>
+      <c r="S234">
+        <v>53</v>
+      </c>
+      <c r="T234">
+        <v>88</v>
+      </c>
+      <c r="V234">
+        <v>4664</v>
+      </c>
+      <c r="W234">
+        <v>99.41</v>
+      </c>
+      <c r="X234" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z234" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA234">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27">
+      <c r="A235" t="s">
+        <v>30</v>
+      </c>
+      <c r="B235" t="s">
+        <v>31</v>
+      </c>
+      <c r="C235" t="s">
+        <v>32</v>
+      </c>
+      <c r="D235" t="s">
+        <v>33</v>
+      </c>
+      <c r="E235" t="s">
+        <v>37</v>
+      </c>
+      <c r="F235" t="s">
+        <v>40</v>
+      </c>
+      <c r="G235" t="s">
+        <v>50</v>
+      </c>
+      <c r="H235" t="s">
+        <v>61</v>
+      </c>
+      <c r="I235" t="s">
+        <v>64</v>
+      </c>
+      <c r="J235">
+        <v>18.04</v>
+      </c>
+      <c r="K235">
+        <v>11</v>
+      </c>
+      <c r="L235" t="s">
+        <v>66</v>
+      </c>
+      <c r="M235" t="s">
+        <v>69</v>
+      </c>
+      <c r="N235" t="s">
+        <v>77</v>
+      </c>
+      <c r="O235">
+        <v>1089.06</v>
+      </c>
+      <c r="P235" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>99</v>
+      </c>
+      <c r="S235">
+        <v>100</v>
+      </c>
+      <c r="T235">
+        <v>88</v>
+      </c>
+      <c r="V235">
+        <v>8800</v>
+      </c>
+      <c r="W235">
+        <v>187.56</v>
+      </c>
+      <c r="X235" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z235" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA235">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27">
+      <c r="P236" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>100</v>
+      </c>
+      <c r="R236">
+        <v>46.918</v>
+      </c>
+      <c r="S236">
+        <v>3851.72</v>
+      </c>
+      <c r="T236">
+        <v>88</v>
+      </c>
+      <c r="V236">
+        <v>338950.93</v>
+      </c>
+      <c r="W236">
+        <v>7224.33</v>
+      </c>
+      <c r="X236" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z236" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA236">
+        <v>82.09</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27">
+      <c r="P237" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>101</v>
+      </c>
+      <c r="R237">
+        <v>29</v>
+      </c>
+      <c r="S237">
+        <v>580</v>
+      </c>
+      <c r="T237">
+        <v>88</v>
+      </c>
+      <c r="V237">
+        <v>51040</v>
+      </c>
+      <c r="W237">
+        <v>1087.86</v>
+      </c>
+      <c r="X237" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA237">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27">
+      <c r="P238" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>100</v>
+      </c>
+      <c r="R238">
+        <v>14.439</v>
+      </c>
+      <c r="S238">
+        <v>1314.23</v>
+      </c>
+      <c r="T238">
+        <v>88</v>
+      </c>
+      <c r="V238">
+        <v>115652.24</v>
+      </c>
+      <c r="W238">
+        <v>8009.71</v>
+      </c>
+      <c r="X238" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z238" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA238">
+        <v>91.02</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27">
+      <c r="P239" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>100</v>
+      </c>
+      <c r="R239">
+        <v>14.439</v>
+      </c>
+      <c r="S239">
+        <v>638.28</v>
+      </c>
+      <c r="T239">
+        <v>88</v>
+      </c>
+      <c r="V239">
+        <v>56168.64</v>
+      </c>
+      <c r="W239">
+        <v>3890.06</v>
+      </c>
+      <c r="X239" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z239" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA239">
+        <v>44.21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27">
+      <c r="P240" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>100</v>
+      </c>
+      <c r="R240">
+        <v>18.04</v>
+      </c>
+      <c r="S240">
+        <v>1089.06</v>
+      </c>
+      <c r="T240">
+        <v>88</v>
+      </c>
+      <c r="V240">
+        <v>95837.28</v>
+      </c>
+      <c r="W240">
+        <v>5312.49</v>
+      </c>
+      <c r="X240" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z240" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA240">
+        <v>60.37</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="P241" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>100</v>
+      </c>
+      <c r="R241">
+        <v>46.918</v>
+      </c>
+      <c r="S241">
+        <v>7626.29</v>
+      </c>
+      <c r="V241">
+        <v>671113.09</v>
+      </c>
+      <c r="W241">
+        <v>14303.96</v>
+      </c>
+      <c r="X241" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z241" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA241">
+        <v>162.54</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" t="s">
+        <v>30</v>
+      </c>
+      <c r="B242" t="s">
+        <v>31</v>
+      </c>
+      <c r="C242" t="s">
+        <v>32</v>
+      </c>
+      <c r="D242" t="s">
+        <v>33</v>
+      </c>
+      <c r="E242" t="s">
+        <v>34</v>
+      </c>
+      <c r="F242" t="s">
+        <v>39</v>
+      </c>
+      <c r="G242" t="s">
+        <v>51</v>
+      </c>
+      <c r="H242" t="s">
+        <v>62</v>
+      </c>
+      <c r="I242" t="s">
+        <v>64</v>
+      </c>
+      <c r="J242">
+        <v>16.224</v>
+      </c>
+      <c r="K242">
+        <v>10</v>
+      </c>
+      <c r="L242" t="s">
+        <v>68</v>
+      </c>
+      <c r="M242" t="s">
+        <v>70</v>
+      </c>
+      <c r="N242" t="s">
+        <v>74</v>
+      </c>
+      <c r="O242">
+        <v>1497.57</v>
+      </c>
+      <c r="P242" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>98</v>
+      </c>
+      <c r="S242">
+        <v>0</v>
+      </c>
+      <c r="T242">
+        <v>88</v>
+      </c>
+      <c r="V242">
+        <v>0</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z242" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="P243" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>99</v>
+      </c>
+      <c r="S243">
+        <v>53</v>
+      </c>
+      <c r="T243">
+        <v>88</v>
+      </c>
+      <c r="V243">
+        <v>4664</v>
+      </c>
+      <c r="W243">
+        <v>287.48</v>
+      </c>
+      <c r="X243" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z243" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA243">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
+      <c r="P244" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>99</v>
+      </c>
+      <c r="S244">
+        <v>100</v>
+      </c>
+      <c r="T244">
+        <v>88</v>
+      </c>
+      <c r="V244">
+        <v>8800</v>
+      </c>
+      <c r="W244">
+        <v>542.41</v>
+      </c>
+      <c r="X244" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA244">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27">
+      <c r="P245" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>100</v>
+      </c>
+      <c r="R245">
+        <v>16.224</v>
+      </c>
+      <c r="S245">
+        <v>1207.74</v>
+      </c>
+      <c r="T245">
+        <v>88</v>
+      </c>
+      <c r="V245">
+        <v>106281.31</v>
+      </c>
+      <c r="W245">
+        <v>6550.87</v>
+      </c>
+      <c r="X245" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA245">
+        <v>74.44</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27">
+      <c r="P246" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>101</v>
+      </c>
+      <c r="R246">
+        <v>10</v>
+      </c>
+      <c r="S246">
+        <v>180</v>
+      </c>
+      <c r="T246">
+        <v>88</v>
+      </c>
+      <c r="V246">
+        <v>15840</v>
+      </c>
+      <c r="W246">
+        <v>976.33</v>
+      </c>
+      <c r="X246" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA246">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27">
+      <c r="P247" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>100</v>
+      </c>
+      <c r="R247">
+        <v>16.224</v>
+      </c>
+      <c r="S247">
+        <v>1497.57</v>
+      </c>
+      <c r="T247">
+        <v>88</v>
+      </c>
+      <c r="V247">
+        <v>131786.16</v>
+      </c>
+      <c r="W247">
+        <v>8122.91</v>
+      </c>
+      <c r="X247" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z247" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA247">
+        <v>92.31</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27">
+      <c r="P248" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>100</v>
+      </c>
+      <c r="R248">
+        <v>16.224</v>
+      </c>
+      <c r="S248">
+        <v>3038.31</v>
+      </c>
+      <c r="V248">
+        <v>267371.47</v>
+      </c>
+      <c r="W248">
+        <v>16480</v>
+      </c>
+      <c r="X248" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z248" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA248">
+        <v>187.27</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27">
+      <c r="A249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B249" t="s">
+        <v>31</v>
+      </c>
+      <c r="C249" t="s">
+        <v>32</v>
+      </c>
+      <c r="D249" t="s">
+        <v>33</v>
+      </c>
+      <c r="E249" t="s">
+        <v>35</v>
+      </c>
+      <c r="F249" t="s">
+        <v>39</v>
+      </c>
+      <c r="G249" t="s">
+        <v>46</v>
+      </c>
+      <c r="H249" t="s">
+        <v>57</v>
+      </c>
+      <c r="I249" t="s">
+        <v>64</v>
+      </c>
+      <c r="J249">
+        <v>3.007</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+      <c r="L249" t="s">
+        <v>66</v>
+      </c>
+      <c r="M249" t="s">
+        <v>71</v>
+      </c>
+      <c r="O249">
+        <v>180</v>
+      </c>
+      <c r="P249" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>98</v>
+      </c>
+      <c r="S249">
+        <v>48.71</v>
+      </c>
+      <c r="T249">
+        <v>88</v>
+      </c>
+      <c r="V249">
+        <v>4286.11</v>
+      </c>
+      <c r="W249">
+        <v>1425.38</v>
+      </c>
+      <c r="X249" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z249" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA249">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27">
+      <c r="P250" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>99</v>
+      </c>
+      <c r="S250">
+        <v>53</v>
+      </c>
+      <c r="T250">
+        <v>88</v>
+      </c>
+      <c r="V250">
+        <v>4664</v>
+      </c>
+      <c r="W250">
+        <v>1551.05</v>
+      </c>
+      <c r="X250" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z250" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA250">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27">
+      <c r="P251" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>99</v>
+      </c>
+      <c r="S251">
+        <v>100</v>
+      </c>
+      <c r="T251">
+        <v>88</v>
+      </c>
+      <c r="V251">
+        <v>8800</v>
+      </c>
+      <c r="W251">
+        <v>2926.5</v>
+      </c>
+      <c r="X251" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA251">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27">
+      <c r="P252" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>100</v>
+      </c>
+      <c r="R252">
+        <v>3.007</v>
+      </c>
+      <c r="S252">
+        <v>264.58</v>
+      </c>
+      <c r="T252">
+        <v>88</v>
+      </c>
+      <c r="V252">
+        <v>23282.96</v>
+      </c>
+      <c r="W252">
+        <v>7742.92</v>
+      </c>
+      <c r="X252" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA252">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27">
+      <c r="P253" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>101</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253">
+        <v>36</v>
+      </c>
+      <c r="T253">
+        <v>88</v>
+      </c>
+      <c r="V253">
+        <v>3168</v>
+      </c>
+      <c r="W253">
+        <v>1053.54</v>
+      </c>
+      <c r="X253" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z253" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA253">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27">
+      <c r="P254" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>100</v>
+      </c>
+      <c r="R254">
+        <v>3.007</v>
+      </c>
+      <c r="S254">
+        <v>180</v>
+      </c>
+      <c r="T254">
+        <v>88</v>
+      </c>
+      <c r="V254">
+        <v>15840</v>
+      </c>
+      <c r="W254">
+        <v>5267.71</v>
+      </c>
+      <c r="X254" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA254">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27">
+      <c r="P255" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>100</v>
+      </c>
+      <c r="R255">
+        <v>3.007</v>
+      </c>
+      <c r="S255">
+        <v>682.28</v>
+      </c>
+      <c r="V255">
+        <v>60041.07</v>
+      </c>
+      <c r="W255">
+        <v>19967.1</v>
+      </c>
+      <c r="X255" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA255">
+        <v>226.9</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/bookings_log.xlsx
+++ b/Logs/bookings_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Breakdown" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Breakdown" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>_NotAvailable</t>
+          <t>East Coast</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ABE1</t>
+          <t>AVP1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ABE1 18101, Allentown, Allentown, Pennsylvania, United States</t>
+          <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1171,28 +1171,24 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>13.824</v>
+        <v>2.255</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>FTL</t>
+          <t>LTL</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>J.B. Hunt</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>JBHZ</t>
-        </is>
-      </c>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>831.405</v>
+        <v>180</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1201,12 +1197,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>CMM0246LCL0052</t>
+          <t>CMM0246LCL0043</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:25:34</t>
         </is>
       </c>
     </row>
@@ -1243,12 +1239,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ABE5</t>
+          <t>ABE1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ABE5 17112, Linglestown, Linglestown, Pennsylvania, United States</t>
+          <t>ABE1 18101, Allentown, Allentown, Pennsylvania, United States</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1278,7 +1274,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>1171.5</v>
+        <v>831.405</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1292,7 +1288,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:28:20</t>
         </is>
       </c>
     </row>
@@ -1309,76 +1305,506 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ABE5</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ABE5 17112, Linglestown, Linglestown, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>13.824</v>
+      </c>
+      <c r="K11" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>J.B. Hunt</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>JBHZ</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>1171.5</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0052</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:28:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Coload</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>_NotAvailable</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Gulf Coast</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>ADS1</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>ADS1 75007, North Central, Carrollton, Texas, United States</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>NON HOT</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>6.912</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>50</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>FTL</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>J.B. Hunt</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>JBHZ</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>1168.44</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Booking 2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>CMM0246LCL0052</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>2025-08-14 15:40:08</t>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:28:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>IUSR</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>IUSR 29330, Cowpens, Cowpens, South Carolina, United States</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>29.515</v>
+      </c>
+      <c r="K13" t="n">
+        <v>17</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>J.B. Hunt</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>JBHZ</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>1132.68</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0053</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2025-08-15 06:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>PPO4</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>PPO4 46410, Merrillville, Merrillville, Indiana, United States</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>29.515</v>
+      </c>
+      <c r="K14" t="n">
+        <v>17</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>J.B. Hunt</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>JBHZ</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>1890</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0054</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:12:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>IUSR</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>IUSR 29330, Cowpens, Cowpens, South Carolina, United States</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>32.996</v>
+      </c>
+      <c r="K15" t="n">
+        <v>19</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>J.B. Hunt</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>JBHZ</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>1144.68</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0007</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PPO4</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>PPO4 46410, Merrillville, Merrillville, Indiana, United States</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>32.996</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>J.B. Hunt</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>JBHZ</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>1909.5</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0008</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:38:34</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3117,12 +3543,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>CMM0246LCL0052</t>
+          <t>CMM0246LCL0043</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:25:34</t>
         </is>
       </c>
     </row>
@@ -3139,19 +3565,19 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E40" t="n">
         <v>88</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4664</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2068.29</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -3160,12 +3586,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>CMM0246LCL0052</t>
+          <t>CMM0246LCL0043</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:25:34</t>
         </is>
       </c>
     </row>
@@ -3188,13 +3614,13 @@
         <v>88</v>
       </c>
       <c r="F41" t="n">
-        <v>3.62</v>
+        <v>44.35</v>
       </c>
       <c r="G41" t="n">
         <v>8800</v>
       </c>
       <c r="H41" t="n">
-        <v>318.29</v>
+        <v>3902.44</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -3203,12 +3629,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>CMM0246LCL0052</t>
+          <t>CMM0246LCL0043</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:25:34</t>
         </is>
       </c>
     </row>
@@ -3224,22 +3650,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>27.648</v>
+        <v>2.255</v>
       </c>
       <c r="D42" t="n">
-        <v>2022.96</v>
+        <v>210.92</v>
       </c>
       <c r="E42" t="n">
         <v>88</v>
       </c>
       <c r="F42" t="n">
-        <v>73.17</v>
+        <v>93.53</v>
       </c>
       <c r="G42" t="n">
-        <v>178020.22</v>
+        <v>18560.65</v>
       </c>
       <c r="H42" t="n">
-        <v>6438.81</v>
+        <v>8230.889999999999</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -3248,12 +3674,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>CMM0246LCL0052</t>
+          <t>CMM0246LCL0043</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:25:34</t>
         </is>
       </c>
     </row>
@@ -3269,22 +3695,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E43" t="n">
         <v>88</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>15.96</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3168</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1404.88</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -3293,19 +3719,19 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>CMM0246LCL0052</t>
+          <t>CMM0246LCL0043</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:25:34</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Last Mile(ABE1)</t>
+          <t>Last Mile(AVP1)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3314,22 +3740,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>13.824</v>
+        <v>2.255</v>
       </c>
       <c r="D44" t="n">
-        <v>831.4</v>
+        <v>180</v>
       </c>
       <c r="E44" t="n">
         <v>88</v>
       </c>
       <c r="F44" t="n">
-        <v>60.14</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>73163.64</v>
+        <v>15840</v>
       </c>
       <c r="H44" t="n">
-        <v>5292.51</v>
+        <v>7024.39</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -3338,19 +3764,19 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>CMM0246LCL0052</t>
+          <t>CMM0246LCL0043</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:25:34</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Last Mile(ABE5)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3359,22 +3785,20 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13.824</v>
+        <v>2.255</v>
       </c>
       <c r="D45" t="n">
-        <v>1171.5</v>
-      </c>
-      <c r="E45" t="n">
-        <v>88</v>
-      </c>
+        <v>579.92</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>84.73999999999999</v>
+        <v>257.17</v>
       </c>
       <c r="G45" t="n">
-        <v>103092</v>
+        <v>51032.65</v>
       </c>
       <c r="H45" t="n">
-        <v>7457.47</v>
+        <v>22630.89</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -3383,41 +3807,41 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>CMM0246LCL0052</t>
+          <t>CMM0246LCL0043</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:25:34</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>1St Mile</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Per CBM</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>27.648</v>
-      </c>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>4125.86</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>88</v>
+      </c>
       <c r="F46" t="n">
-        <v>149.23</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>363075.86</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>13132.08</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -3431,19 +3855,19 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:28:20</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1St Mile</t>
+          <t>OCC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>As per Vendor</t>
+          <t>Flat (Per Quote)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -3464,7 +3888,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Booking 2</t>
+          <t>Booking 1</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3474,14 +3898,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:28:20</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>OCC</t>
+          <t>DCC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3491,23 +3915,23 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" t="n">
         <v>88</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>318.29</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Booking 2</t>
+          <t>Booking 1</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3517,40 +3941,42 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:28:20</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DCC</t>
+          <t>P2P(New York)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Flat (Per Quote)</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>27.648</v>
+      </c>
       <c r="D49" t="n">
-        <v>100</v>
+        <v>2022.96</v>
       </c>
       <c r="E49" t="n">
         <v>88</v>
       </c>
       <c r="F49" t="n">
-        <v>14.47</v>
+        <v>73.17</v>
       </c>
       <c r="G49" t="n">
-        <v>8800</v>
+        <v>178020.22</v>
       </c>
       <c r="H49" t="n">
-        <v>1273.15</v>
+        <v>6438.81</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Booking 2</t>
+          <t>Booking 1</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3560,42 +3986,42 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:28:20</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>P2P(Houston)</t>
+          <t>Palletization</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Per CBM</t>
+          <t>Per Pallet</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6.912</v>
+        <v>200</v>
       </c>
       <c r="D50" t="n">
-        <v>672.08</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>88</v>
       </c>
       <c r="F50" t="n">
-        <v>97.23</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>59143.04</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>8556.57</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Booking 2</t>
+          <t>Booking 1</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3605,42 +4031,42 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:28:20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Palletization</t>
+          <t>Last Mile(ABE1)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Per Pallet</t>
+          <t>Per CBM</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>50</v>
+        <v>13.824</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>831.4</v>
       </c>
       <c r="E51" t="n">
         <v>88</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>60.14</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>73163.64</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>5292.51</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Booking 2</t>
+          <t>Booking 1</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3650,14 +4076,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:28:20</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Last Mile(ADS1)</t>
+          <t>Last Mile(ABE5)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3666,26 +4092,26 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6.912</v>
+        <v>13.824</v>
       </c>
       <c r="D52" t="n">
-        <v>1168.44</v>
+        <v>1171.5</v>
       </c>
       <c r="E52" t="n">
         <v>88</v>
       </c>
       <c r="F52" t="n">
-        <v>169.05</v>
+        <v>84.73999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>102822.72</v>
+        <v>103092</v>
       </c>
       <c r="H52" t="n">
-        <v>14875.97</v>
+        <v>7457.47</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Booking 2</t>
+          <t>Booking 1</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3695,7 +4121,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-08-14 15:40:08</t>
+          <t>2025-08-14 10:28:20</t>
         </is>
       </c>
     </row>
@@ -3711,34 +4137,1569 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6.912</v>
+        <v>27.648</v>
       </c>
       <c r="D53" t="n">
-        <v>1940.52</v>
+        <v>4125.86</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
+        <v>149.23</v>
+      </c>
+      <c r="G53" t="n">
+        <v>363075.86</v>
+      </c>
+      <c r="H53" t="n">
+        <v>13132.08</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0052</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:28:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>88</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0052</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:28:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>88</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0052</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:28:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>100</v>
+      </c>
+      <c r="E56" t="n">
+        <v>88</v>
+      </c>
+      <c r="F56" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1273.15</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0052</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:28:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>P2P(Houston)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>6.912</v>
+      </c>
+      <c r="D57" t="n">
+        <v>672.08</v>
+      </c>
+      <c r="E57" t="n">
+        <v>88</v>
+      </c>
+      <c r="F57" t="n">
+        <v>97.23</v>
+      </c>
+      <c r="G57" t="n">
+        <v>59143.04</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8556.57</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0052</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:28:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>50</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>88</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0052</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:28:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Last Mile(ADS1)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>6.912</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1168.44</v>
+      </c>
+      <c r="E59" t="n">
+        <v>88</v>
+      </c>
+      <c r="F59" t="n">
+        <v>169.05</v>
+      </c>
+      <c r="G59" t="n">
+        <v>102822.72</v>
+      </c>
+      <c r="H59" t="n">
+        <v>14875.97</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0052</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:28:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>6.912</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1940.52</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
         <v>280.75</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G60" t="n">
         <v>170765.76</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H60" t="n">
         <v>24705.69</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Booking 2</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>CMM0246LCL0052</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>2025-08-14 15:40:08</t>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:28:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>88</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0053</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2025-08-15 06:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>88</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0053</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2025-08-15 06:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>100</v>
+      </c>
+      <c r="E63" t="n">
+        <v>88</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G63" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H63" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0053</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2025-08-15 06:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>29.515</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2355.71</v>
+      </c>
+      <c r="E64" t="n">
+        <v>88</v>
+      </c>
+      <c r="F64" t="n">
+        <v>79.81</v>
+      </c>
+      <c r="G64" t="n">
+        <v>207302.21</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7023.62</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0053</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2025-08-15 06:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>17</v>
+      </c>
+      <c r="D65" t="n">
+        <v>340</v>
+      </c>
+      <c r="E65" t="n">
+        <v>88</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="G65" t="n">
+        <v>29920</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1013.72</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0053</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2025-08-15 06:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Last Mile(IUSR)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>29.515</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1132.68</v>
+      </c>
+      <c r="E66" t="n">
+        <v>88</v>
+      </c>
+      <c r="F66" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="G66" t="n">
+        <v>99675.84</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3377.12</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0053</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2025-08-15 06:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>29.515</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3928.39</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>345698.05</v>
+      </c>
+      <c r="H67" t="n">
+        <v>11712.62</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0053</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2025-08-15 06:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>88</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0054</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:12:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>88</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0054</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:12:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>100</v>
+      </c>
+      <c r="E70" t="n">
+        <v>88</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G70" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H70" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0054</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:12:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>29.515</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2156.19</v>
+      </c>
+      <c r="E71" t="n">
+        <v>88</v>
+      </c>
+      <c r="F71" t="n">
+        <v>73.05</v>
+      </c>
+      <c r="G71" t="n">
+        <v>189744.36</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6428.74</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0054</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:12:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>17</v>
+      </c>
+      <c r="D72" t="n">
+        <v>306</v>
+      </c>
+      <c r="E72" t="n">
+        <v>88</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="G72" t="n">
+        <v>26928</v>
+      </c>
+      <c r="H72" t="n">
+        <v>912.35</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0054</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:12:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Last Mile(PPO4)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>29.515</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E73" t="n">
+        <v>88</v>
+      </c>
+      <c r="F73" t="n">
+        <v>64.04000000000001</v>
+      </c>
+      <c r="G73" t="n">
+        <v>166320</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5635.1</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0054</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:12:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>29.515</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4452.19</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>150.84</v>
+      </c>
+      <c r="G74" t="n">
+        <v>391792.36</v>
+      </c>
+      <c r="H74" t="n">
+        <v>13274.35</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0054</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:12:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>88</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0007</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>53</v>
+      </c>
+      <c r="E76" t="n">
+        <v>88</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H76" t="n">
+        <v>141.35</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0007</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>100</v>
+      </c>
+      <c r="E77" t="n">
+        <v>88</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G77" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H77" t="n">
+        <v>266.7</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0007</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>32.996</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2627.64</v>
+      </c>
+      <c r="E78" t="n">
+        <v>88</v>
+      </c>
+      <c r="F78" t="n">
+        <v>79.64</v>
+      </c>
+      <c r="G78" t="n">
+        <v>231232.5</v>
+      </c>
+      <c r="H78" t="n">
+        <v>7007.89</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0007</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>19</v>
+      </c>
+      <c r="D79" t="n">
+        <v>380</v>
+      </c>
+      <c r="E79" t="n">
+        <v>88</v>
+      </c>
+      <c r="F79" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="G79" t="n">
+        <v>33440</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1013.46</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0007</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Last Mile(IUSR)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>32.996</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1144.68</v>
+      </c>
+      <c r="E80" t="n">
+        <v>88</v>
+      </c>
+      <c r="F80" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="G80" t="n">
+        <v>100731.84</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3052.85</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0007</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>32.996</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4305.32</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>130.48</v>
+      </c>
+      <c r="G81" t="n">
+        <v>378868.34</v>
+      </c>
+      <c r="H81" t="n">
+        <v>11482.25</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0007</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>88</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0008</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:38:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>53</v>
+      </c>
+      <c r="E83" t="n">
+        <v>88</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H83" t="n">
+        <v>141.35</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0008</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:38:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>100</v>
+      </c>
+      <c r="E84" t="n">
+        <v>88</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G84" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H84" t="n">
+        <v>266.7</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0008</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:38:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>32.996</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2404.59</v>
+      </c>
+      <c r="E85" t="n">
+        <v>88</v>
+      </c>
+      <c r="F85" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="G85" t="n">
+        <v>211603.88</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6413.02</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0008</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:38:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>19</v>
+      </c>
+      <c r="D86" t="n">
+        <v>342</v>
+      </c>
+      <c r="E86" t="n">
+        <v>88</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="G86" t="n">
+        <v>30096</v>
+      </c>
+      <c r="H86" t="n">
+        <v>912.11</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0008</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:38:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Last Mile(PPO4)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>32.996</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1909.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>88</v>
+      </c>
+      <c r="F87" t="n">
+        <v>57.87</v>
+      </c>
+      <c r="G87" t="n">
+        <v>168036</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5092.62</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0008</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:38:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>32.996</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4809.09</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>145.75</v>
+      </c>
+      <c r="G88" t="n">
+        <v>423199.88</v>
+      </c>
+      <c r="H88" t="n">
+        <v>12825.79</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>CMM0829LCL0008</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2025-08-16 04:38:34</t>
         </is>
       </c>
     </row>

--- a/Logs/bookings_log.xlsx
+++ b/Logs/bookings_log.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1805,6 +1805,330 @@
       <c r="R16" t="inlineStr">
         <is>
           <t>2025-08-16 04:38:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>LAN2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>LAN2 48917, Lansing, Lansing, Michigan, United States</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>6.98007</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>736.96</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Great Lakes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FWA4</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>20.88952</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>ABF Freight System VL</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>1428.77</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Coload</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Great Lakes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MDW2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>MDW2 60433, Joliet, Joliet, Illinois, United States</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>15.20924</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Coload</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Great Lakes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>MDW2</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>MDW2 60433, Joliet, Joliet, Illinois, United States</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:04:04</t>
         </is>
       </c>
     </row>
@@ -1819,7 +2143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5703,6 +6027,972 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>88</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>53</v>
+      </c>
+      <c r="E90" t="n">
+        <v>88</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H90" t="n">
+        <v>167.35</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>100</v>
+      </c>
+      <c r="E91" t="n">
+        <v>88</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="G91" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H91" t="n">
+        <v>315.76</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>27.86959</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2038.77</v>
+      </c>
+      <c r="E92" t="n">
+        <v>88</v>
+      </c>
+      <c r="F92" t="n">
+        <v>73.15000000000001</v>
+      </c>
+      <c r="G92" t="n">
+        <v>179411.74</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6437.54</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>14</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>88</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Last Mile(LAN2)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>6.98007</v>
+      </c>
+      <c r="D94" t="n">
+        <v>736.96</v>
+      </c>
+      <c r="E94" t="n">
+        <v>88</v>
+      </c>
+      <c r="F94" t="n">
+        <v>105.58</v>
+      </c>
+      <c r="G94" t="n">
+        <v>64852.48</v>
+      </c>
+      <c r="H94" t="n">
+        <v>9291.09</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Last Mile(FWA4)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>20.88952</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1428.77</v>
+      </c>
+      <c r="E95" t="n">
+        <v>88</v>
+      </c>
+      <c r="F95" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="G95" t="n">
+        <v>125731.76</v>
+      </c>
+      <c r="H95" t="n">
+        <v>6018.89</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>27.86959</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4357.5</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>156.35</v>
+      </c>
+      <c r="G96" t="n">
+        <v>383459.98</v>
+      </c>
+      <c r="H96" t="n">
+        <v>13759.08</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>88</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>53</v>
+      </c>
+      <c r="E98" t="n">
+        <v>88</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G98" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H98" t="n">
+        <v>306.66</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>100</v>
+      </c>
+      <c r="E99" t="n">
+        <v>88</v>
+      </c>
+      <c r="F99" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="G99" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H99" t="n">
+        <v>578.6</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>P2P(Chicago)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>15.20924</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1418.83</v>
+      </c>
+      <c r="E100" t="n">
+        <v>88</v>
+      </c>
+      <c r="F100" t="n">
+        <v>93.29000000000001</v>
+      </c>
+      <c r="G100" t="n">
+        <v>124857.18</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8209.299999999999</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>9</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>88</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Last Mile(MDW2)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>15.20924</v>
+      </c>
+      <c r="D102" t="n">
+        <v>120</v>
+      </c>
+      <c r="E102" t="n">
+        <v>88</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="G102" t="n">
+        <v>10560</v>
+      </c>
+      <c r="H102" t="n">
+        <v>694.3099999999999</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>15.20924</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1691.83</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>111.24</v>
+      </c>
+      <c r="G103" t="n">
+        <v>148881.18</v>
+      </c>
+      <c r="H103" t="n">
+        <v>9788.860000000001</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0062</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>88</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="n">
+        <v>53</v>
+      </c>
+      <c r="E105" t="n">
+        <v>88</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H105" t="n">
+        <v>306.64</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="n">
+        <v>100</v>
+      </c>
+      <c r="E106" t="n">
+        <v>88</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="G106" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H106" t="n">
+        <v>578.5700000000001</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>P2P(Chicago)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1418.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>88</v>
+      </c>
+      <c r="F107" t="n">
+        <v>93.29000000000001</v>
+      </c>
+      <c r="G107" t="n">
+        <v>124863.2</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8209.280000000001</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>88</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Last Mile(MDW2)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="D109" t="n">
+        <v>120</v>
+      </c>
+      <c r="E109" t="n">
+        <v>88</v>
+      </c>
+      <c r="F109" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="G109" t="n">
+        <v>10560</v>
+      </c>
+      <c r="H109" t="n">
+        <v>694.28</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1691.9</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>111.24</v>
+      </c>
+      <c r="G110" t="n">
+        <v>148887.2</v>
+      </c>
+      <c r="H110" t="n">
+        <v>9788.77</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:04:04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Logs/bookings_log.xlsx
+++ b/Logs/bookings_log.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2067,68 +2067,572 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>LAS1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>LAS1 89044, Henderson, Henderson, Nevada, United States</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>1391.13</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0064</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:49:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>GYR2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>GYR2 85395, Palm Valley, Goodyear, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>18.79274</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>905.52</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0063</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Coload</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>_NotAvailable</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Great Lakes</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>MDW2</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>MDW2 60433, Joliet, Joliet, Illinois, United States</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>NON HOT</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="J22" t="n">
         <v>15.21</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K22" t="n">
         <v>9</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Booking 1</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>CMM0800LCL0069</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>2025-08-18 07:04:04</t>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>LBE1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>121</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0055</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>2025-08-19 05:48:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>LBE1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>121</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0005</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>2025-08-19 07:50:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>IUSR</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>IUSR 29330, Cowpens, Cowpens, South Carolina, United States</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>7.294</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>401.77</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0039</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>2025-08-19 10:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>IUSR</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>IUSR 29330, Cowpens, Cowpens, South Carolina, United States</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>4.261</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>299.88</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0038</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>2025-08-19 12:09:20</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6720,12 +7224,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>CMM0800LCL0069</t>
+          <t>CMM0800LCL0064</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>2025-08-18 07:04:04</t>
+          <t>2025-08-18 07:49:06</t>
         </is>
       </c>
     </row>
@@ -6748,13 +7252,13 @@
         <v>88</v>
       </c>
       <c r="F105" t="n">
-        <v>3.48</v>
+        <v>2.54</v>
       </c>
       <c r="G105" t="n">
         <v>4664</v>
       </c>
       <c r="H105" t="n">
-        <v>306.64</v>
+        <v>223.48</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -6763,12 +7267,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>CMM0800LCL0069</t>
+          <t>CMM0800LCL0064</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>2025-08-18 07:04:04</t>
+          <t>2025-08-18 07:49:06</t>
         </is>
       </c>
     </row>
@@ -6791,13 +7295,13 @@
         <v>88</v>
       </c>
       <c r="F106" t="n">
-        <v>6.57</v>
+        <v>4.79</v>
       </c>
       <c r="G106" t="n">
         <v>8800</v>
       </c>
       <c r="H106" t="n">
-        <v>578.5700000000001</v>
+        <v>421.66</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -6806,19 +7310,19 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>CMM0800LCL0069</t>
+          <t>CMM0800LCL0064</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2025-08-18 07:04:04</t>
+          <t>2025-08-18 07:49:06</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>P2P(Chicago)</t>
+          <t>P2P(Los Angeles)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6827,22 +7331,22 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>15.21</v>
+        <v>20.87</v>
       </c>
       <c r="D107" t="n">
-        <v>1418.9</v>
+        <v>1741.07</v>
       </c>
       <c r="E107" t="n">
         <v>88</v>
       </c>
       <c r="F107" t="n">
-        <v>93.29000000000001</v>
+        <v>83.42</v>
       </c>
       <c r="G107" t="n">
-        <v>124863.2</v>
+        <v>153214.48</v>
       </c>
       <c r="H107" t="n">
-        <v>8209.280000000001</v>
+        <v>7341.37</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -6851,12 +7355,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>CMM0800LCL0069</t>
+          <t>CMM0800LCL0064</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>2025-08-18 07:04:04</t>
+          <t>2025-08-18 07:49:06</t>
         </is>
       </c>
     </row>
@@ -6872,7 +7376,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -6896,19 +7400,19 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>CMM0800LCL0069</t>
+          <t>CMM0800LCL0064</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>2025-08-18 07:04:04</t>
+          <t>2025-08-18 07:49:06</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Last Mile(MDW2)</t>
+          <t>Last Mile(LAS1)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6917,22 +7421,22 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>15.21</v>
+        <v>20.87</v>
       </c>
       <c r="D109" t="n">
-        <v>120</v>
+        <v>1391.13</v>
       </c>
       <c r="E109" t="n">
         <v>88</v>
       </c>
       <c r="F109" t="n">
-        <v>7.89</v>
+        <v>66.66</v>
       </c>
       <c r="G109" t="n">
-        <v>10560</v>
+        <v>122419.44</v>
       </c>
       <c r="H109" t="n">
-        <v>694.28</v>
+        <v>5865.81</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -6941,12 +7445,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>CMM0800LCL0069</t>
+          <t>CMM0800LCL0064</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>2025-08-18 07:04:04</t>
+          <t>2025-08-18 07:49:06</t>
         </is>
       </c>
     </row>
@@ -6962,20 +7466,20 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15.21</v>
+        <v>20.87</v>
       </c>
       <c r="D110" t="n">
-        <v>1691.9</v>
+        <v>3285.2</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>111.24</v>
+        <v>157.41</v>
       </c>
       <c r="G110" t="n">
-        <v>148887.2</v>
+        <v>289097.92</v>
       </c>
       <c r="H110" t="n">
-        <v>9788.77</v>
+        <v>13852.32</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -6984,12 +7488,1854 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
+          <t>CMM0800LCL0064</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:49:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>88</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0063</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>53</v>
+      </c>
+      <c r="E112" t="n">
+        <v>88</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H112" t="n">
+        <v>248.18</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0063</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" t="n">
+        <v>88</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="G113" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H113" t="n">
+        <v>468.27</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0063</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>P2P(Los Angeles)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>18.79274</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1572.76</v>
+      </c>
+      <c r="E114" t="n">
+        <v>88</v>
+      </c>
+      <c r="F114" t="n">
+        <v>83.69</v>
+      </c>
+      <c r="G114" t="n">
+        <v>138402.49</v>
+      </c>
+      <c r="H114" t="n">
+        <v>7364.68</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0063</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>88</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0063</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Last Mile(GYR2)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>18.79274</v>
+      </c>
+      <c r="D116" t="n">
+        <v>905.52</v>
+      </c>
+      <c r="E116" t="n">
+        <v>88</v>
+      </c>
+      <c r="F116" t="n">
+        <v>48.18</v>
+      </c>
+      <c r="G116" t="n">
+        <v>79685.75999999999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4240.24</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0063</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>18.79274</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2631.28</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>140.02</v>
+      </c>
+      <c r="G117" t="n">
+        <v>231552.25</v>
+      </c>
+      <c r="H117" t="n">
+        <v>12321.37</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0063</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>88</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
           <t>CMM0800LCL0069</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>2025-08-18 07:04:04</t>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="n">
+        <v>53</v>
+      </c>
+      <c r="E119" t="n">
+        <v>88</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H119" t="n">
+        <v>306.64</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="n">
+        <v>100</v>
+      </c>
+      <c r="E120" t="n">
+        <v>88</v>
+      </c>
+      <c r="F120" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="G120" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H120" t="n">
+        <v>578.5700000000001</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>P2P(Chicago)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1418.9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>88</v>
+      </c>
+      <c r="F121" t="n">
+        <v>93.29000000000001</v>
+      </c>
+      <c r="G121" t="n">
+        <v>124863.2</v>
+      </c>
+      <c r="H121" t="n">
+        <v>8209.280000000001</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>88</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Last Mile(MDW2)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>88</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1571.9</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="n">
+        <v>103.35</v>
+      </c>
+      <c r="G124" t="n">
+        <v>138327.2</v>
+      </c>
+      <c r="H124" t="n">
+        <v>9094.49</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0069</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>2025-08-18 07:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>88</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0055</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>2025-08-19 05:48:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="n">
+        <v>53</v>
+      </c>
+      <c r="E126" t="n">
+        <v>88</v>
+      </c>
+      <c r="F126" t="n">
+        <v>53</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H126" t="n">
+        <v>4664</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0055</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>2025-08-19 05:48:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>100</v>
+      </c>
+      <c r="E127" t="n">
+        <v>88</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100</v>
+      </c>
+      <c r="G127" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8800</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0055</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>2025-08-19 05:48:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>121.36</v>
+      </c>
+      <c r="E128" t="n">
+        <v>88</v>
+      </c>
+      <c r="F128" t="n">
+        <v>121.36</v>
+      </c>
+      <c r="G128" t="n">
+        <v>10679.67</v>
+      </c>
+      <c r="H128" t="n">
+        <v>10679.67</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0055</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>2025-08-19 05:48:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" t="n">
+        <v>88</v>
+      </c>
+      <c r="F129" t="n">
+        <v>18</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1584</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1584</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0055</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>2025-08-19 05:48:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Last Mile(LBE1)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>121</v>
+      </c>
+      <c r="E130" t="n">
+        <v>88</v>
+      </c>
+      <c r="F130" t="n">
+        <v>121</v>
+      </c>
+      <c r="G130" t="n">
+        <v>10648</v>
+      </c>
+      <c r="H130" t="n">
+        <v>10648</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0055</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>2025-08-19 05:48:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>413.36</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="n">
+        <v>413.36</v>
+      </c>
+      <c r="G131" t="n">
+        <v>36375.67</v>
+      </c>
+      <c r="H131" t="n">
+        <v>36375.67</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0055</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>2025-08-19 05:48:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>88</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0005</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>2025-08-19 07:50:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>53</v>
+      </c>
+      <c r="E133" t="n">
+        <v>88</v>
+      </c>
+      <c r="F133" t="n">
+        <v>53</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H133" t="n">
+        <v>4664</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0005</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>2025-08-19 07:50:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>100</v>
+      </c>
+      <c r="E134" t="n">
+        <v>88</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100</v>
+      </c>
+      <c r="G134" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H134" t="n">
+        <v>8800</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0005</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>2025-08-19 07:50:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>121.36</v>
+      </c>
+      <c r="E135" t="n">
+        <v>88</v>
+      </c>
+      <c r="F135" t="n">
+        <v>121.36</v>
+      </c>
+      <c r="G135" t="n">
+        <v>10679.67</v>
+      </c>
+      <c r="H135" t="n">
+        <v>10679.67</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0005</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>2025-08-19 07:50:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>18</v>
+      </c>
+      <c r="E136" t="n">
+        <v>88</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1584</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1584</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0005</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>2025-08-19 07:50:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Last Mile(LBE1)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>121</v>
+      </c>
+      <c r="E137" t="n">
+        <v>88</v>
+      </c>
+      <c r="F137" t="n">
+        <v>121</v>
+      </c>
+      <c r="G137" t="n">
+        <v>10648</v>
+      </c>
+      <c r="H137" t="n">
+        <v>10648</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0005</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>2025-08-19 07:50:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>413.36</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="n">
+        <v>413.36</v>
+      </c>
+      <c r="G138" t="n">
+        <v>36375.67</v>
+      </c>
+      <c r="H138" t="n">
+        <v>36375.67</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0005</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>2025-08-19 07:50:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>88</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0039</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>2025-08-19 10:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>53</v>
+      </c>
+      <c r="E140" t="n">
+        <v>88</v>
+      </c>
+      <c r="F140" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H140" t="n">
+        <v>639.4299999999999</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0039</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>2025-08-19 10:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>100</v>
+      </c>
+      <c r="E141" t="n">
+        <v>88</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="G141" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1206.47</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0039</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>2025-08-19 10:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>7.294</v>
+      </c>
+      <c r="D142" t="n">
+        <v>619.8099999999999</v>
+      </c>
+      <c r="E142" t="n">
+        <v>88</v>
+      </c>
+      <c r="F142" t="n">
+        <v>84.97</v>
+      </c>
+      <c r="G142" t="n">
+        <v>54542.93</v>
+      </c>
+      <c r="H142" t="n">
+        <v>7477.78</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0039</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>2025-08-19 10:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>100</v>
+      </c>
+      <c r="E143" t="n">
+        <v>88</v>
+      </c>
+      <c r="F143" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="G143" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1206.47</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0039</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>2025-08-19 10:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Last Mile(IUSR)</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>7.294</v>
+      </c>
+      <c r="D144" t="n">
+        <v>401.77</v>
+      </c>
+      <c r="E144" t="n">
+        <v>88</v>
+      </c>
+      <c r="F144" t="n">
+        <v>55.08</v>
+      </c>
+      <c r="G144" t="n">
+        <v>35355.76</v>
+      </c>
+      <c r="H144" t="n">
+        <v>4847.24</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0039</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>2025-08-19 10:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>7.294</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1274.58</v>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>174.74</v>
+      </c>
+      <c r="G145" t="n">
+        <v>112162.69</v>
+      </c>
+      <c r="H145" t="n">
+        <v>15377.39</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0039</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2025-08-19 10:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>88</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0038</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>2025-08-19 12:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>53</v>
+      </c>
+      <c r="E147" t="n">
+        <v>88</v>
+      </c>
+      <c r="F147" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1094.58</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0038</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>2025-08-19 12:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>100</v>
+      </c>
+      <c r="E148" t="n">
+        <v>88</v>
+      </c>
+      <c r="F148" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="G148" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2065.24</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0038</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>2025-08-19 12:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>4.261</v>
+      </c>
+      <c r="D149" t="n">
+        <v>382.87</v>
+      </c>
+      <c r="E149" t="n">
+        <v>88</v>
+      </c>
+      <c r="F149" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="G149" t="n">
+        <v>33692.44</v>
+      </c>
+      <c r="H149" t="n">
+        <v>7907.17</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0038</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>2025-08-19 12:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>60</v>
+      </c>
+      <c r="E150" t="n">
+        <v>88</v>
+      </c>
+      <c r="F150" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="G150" t="n">
+        <v>5280</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1239.15</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0038</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>2025-08-19 12:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Last Mile(IUSR)</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>4.261</v>
+      </c>
+      <c r="D151" t="n">
+        <v>299.88</v>
+      </c>
+      <c r="E151" t="n">
+        <v>88</v>
+      </c>
+      <c r="F151" t="n">
+        <v>70.38</v>
+      </c>
+      <c r="G151" t="n">
+        <v>26389.44</v>
+      </c>
+      <c r="H151" t="n">
+        <v>6193.25</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0038</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>2025-08-19 12:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>4.261</v>
+      </c>
+      <c r="D152" t="n">
+        <v>895.75</v>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>210.22</v>
+      </c>
+      <c r="G152" t="n">
+        <v>78825.88</v>
+      </c>
+      <c r="H152" t="n">
+        <v>18499.38</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>CMM0827LCL0038</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>2025-08-19 12:09:20</t>
         </is>
       </c>
     </row>

--- a/Logs/bookings_log.xlsx
+++ b/Logs/bookings_log.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2385,7 +2385,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nhava Sheva, India(INNSA)</t>
+          <t>Nhava Sheva, India (INNSA)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2410,17 +2410,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>LBE1</t>
+          <t>IUSR</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+          <t>IUSR 29330, Cowpens, Cowpens, South Carolina, United States</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>7.294</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2441,12 +2441,16 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>AmznFrgt</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
       <c r="O24" t="n">
-        <v>121</v>
+        <v>401.77</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2455,12 +2459,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>CMM0637LCL0005</t>
+          <t>CMM0827LCL0039</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2025-08-19 07:50:22</t>
+          <t>2025-08-19 10:44:51</t>
         </is>
       </c>
     </row>
@@ -2511,10 +2515,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>7.294</v>
+        <v>4.261</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2532,7 +2536,7 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>401.77</v>
+        <v>299.88</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2541,98 +2545,1372 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>CMM0827LCL0039</t>
+          <t>CMM0827LCL0038</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2025-08-19 10:44:51</t>
+          <t>2025-08-19 12:09:20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>LBE1</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>121</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0005</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>2025-08-20 07:27:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Nhava Sheva, India (INNSA)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Nhava Sheva</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Own Console</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Agraga</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>_NotAvailable</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Charleston</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>IUSR</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>IUSR 29330, Cowpens, Cowpens, South Carolina, United States</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>NON HOT</t>
         </is>
       </c>
-      <c r="J26" t="n">
-        <v>4.261</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="K27" t="n">
+        <v>9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>643.77</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0005</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>LBE1</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>FTL53</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NTG</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>877</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0006</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:56:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>421601, Thane, Thane, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>East Coast</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>AVP1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>2.689</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>180</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>2025-08-23 06:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>421601, Thane, Thane, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>RMN3</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>RMN3 22406, Paynes Corner, Paynes Corner, Virginia, United States</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="K30" t="n">
         <v>3</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>LTL</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>458.27</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>2025-08-23 06:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>421601, Thane, Thane, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>GYR3</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>GYR3 85043, Estrella Village, Phoenix, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>463.08</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>421601, Thane, Thane, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>GYR2</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>GYR2 85395, Palm Valley, Goodyear, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>469.74</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>421601, Thane, Thane, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Gulf Coast</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FTW1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>FTW1 75241, Dallas, Dallas, Texas, United States</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>4.425</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Ex-Freight</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Frontline Freight</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>824.79</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>421601, Thane, Thane, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>East Coast</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>AVP1</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>2.689</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>180</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>421601, Thane, Thane, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>RMN3</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>RMN3 22406, Paynes Corner, Paynes Corner, Virginia, United States</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>458.27</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ABE7</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ABE7 91752, Mira Loma, Jurupa Valley, California, United States</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>J.B. Hunt</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>JBHZ</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>822.375</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0057</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>2025-08-23 09:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>XLX1</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>XLX1 21740, Hagerstown, Hagerstown, Maryland, United States</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>7.405</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>625.1900000000001</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0072</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>2025-08-25 05:52:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MEM6</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>MEM6 38654, Olive Branch, Olive Branch, Mississippi, United States</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>10.433</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>Estes Express Lines</t>
         </is>
       </c>
-      <c r="O26" t="n">
-        <v>299.88</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Booking 1</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>CMM0827LCL0038</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>2025-08-19 12:09:20</t>
+      <c r="O38" t="n">
+        <v>833.58</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:10:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>WBW2</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>WBW2 18447, Archbald, Archbald, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>30.764</v>
+      </c>
+      <c r="K39" t="n">
+        <v>18</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>J.B. Hunt</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>JBHZ</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>947.0699999999999</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>2025-08-25 07:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>XLX6</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>XLX6 28134, Pineville, Pineville, North Carolina, United States</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>6.359</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>350.66</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0117</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>2025-08-25 10:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ATL9</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ATL9 30096, North Metro, Duluth, Georgia, United States</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>J.B. Hunt</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>JBHZ</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>1105.695</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>2025-08-26 05:42:04</t>
         </is>
       </c>
     </row>
@@ -2647,7 +3925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8452,12 +9730,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>CMM0637LCL0005</t>
+          <t>CMM0827LCL0039</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>2025-08-19 07:50:22</t>
+          <t>2025-08-19 10:44:51</t>
         </is>
       </c>
     </row>
@@ -8480,13 +9758,13 @@
         <v>88</v>
       </c>
       <c r="F133" t="n">
-        <v>53</v>
+        <v>7.27</v>
       </c>
       <c r="G133" t="n">
         <v>4664</v>
       </c>
       <c r="H133" t="n">
-        <v>4664</v>
+        <v>639.4299999999999</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -8495,12 +9773,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>CMM0637LCL0005</t>
+          <t>CMM0827LCL0039</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>2025-08-19 07:50:22</t>
+          <t>2025-08-19 10:44:51</t>
         </is>
       </c>
     </row>
@@ -8523,13 +9801,13 @@
         <v>88</v>
       </c>
       <c r="F134" t="n">
-        <v>100</v>
+        <v>13.71</v>
       </c>
       <c r="G134" t="n">
         <v>8800</v>
       </c>
       <c r="H134" t="n">
-        <v>8800</v>
+        <v>1206.47</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -8538,19 +9816,19 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>CMM0637LCL0005</t>
+          <t>CMM0827LCL0039</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>2025-08-19 07:50:22</t>
+          <t>2025-08-19 10:44:51</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>P2P(New York)</t>
+          <t>P2P(Charleston)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -8559,22 +9837,22 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>7.294</v>
       </c>
       <c r="D135" t="n">
-        <v>121.36</v>
+        <v>619.8099999999999</v>
       </c>
       <c r="E135" t="n">
         <v>88</v>
       </c>
       <c r="F135" t="n">
-        <v>121.36</v>
+        <v>84.97</v>
       </c>
       <c r="G135" t="n">
-        <v>10679.67</v>
+        <v>54542.93</v>
       </c>
       <c r="H135" t="n">
-        <v>10679.67</v>
+        <v>7477.78</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -8583,12 +9861,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>CMM0637LCL0005</t>
+          <t>CMM0827LCL0039</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>2025-08-19 07:50:22</t>
+          <t>2025-08-19 10:44:51</t>
         </is>
       </c>
     </row>
@@ -8604,22 +9882,22 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E136" t="n">
         <v>88</v>
       </c>
       <c r="F136" t="n">
-        <v>18</v>
+        <v>13.71</v>
       </c>
       <c r="G136" t="n">
-        <v>1584</v>
+        <v>8800</v>
       </c>
       <c r="H136" t="n">
-        <v>1584</v>
+        <v>1206.47</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -8628,19 +9906,19 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>CMM0637LCL0005</t>
+          <t>CMM0827LCL0039</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>2025-08-19 07:50:22</t>
+          <t>2025-08-19 10:44:51</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Last Mile(LBE1)</t>
+          <t>Last Mile(IUSR)</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -8649,22 +9927,22 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>7.294</v>
       </c>
       <c r="D137" t="n">
-        <v>121</v>
+        <v>401.77</v>
       </c>
       <c r="E137" t="n">
         <v>88</v>
       </c>
       <c r="F137" t="n">
-        <v>121</v>
+        <v>55.08</v>
       </c>
       <c r="G137" t="n">
-        <v>10648</v>
+        <v>35355.76</v>
       </c>
       <c r="H137" t="n">
-        <v>10648</v>
+        <v>4847.24</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -8673,12 +9951,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>CMM0637LCL0005</t>
+          <t>CMM0827LCL0039</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>2025-08-19 07:50:22</t>
+          <t>2025-08-19 10:44:51</t>
         </is>
       </c>
     </row>
@@ -8694,20 +9972,20 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>7.294</v>
       </c>
       <c r="D138" t="n">
-        <v>413.36</v>
+        <v>1274.58</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>413.36</v>
+        <v>174.74</v>
       </c>
       <c r="G138" t="n">
-        <v>36375.67</v>
+        <v>112162.69</v>
       </c>
       <c r="H138" t="n">
-        <v>36375.67</v>
+        <v>15377.39</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -8716,12 +9994,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>CMM0637LCL0005</t>
+          <t>CMM0827LCL0039</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>2025-08-19 07:50:22</t>
+          <t>2025-08-19 10:44:51</t>
         </is>
       </c>
     </row>
@@ -8759,12 +10037,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>CMM0827LCL0039</t>
+          <t>CMM0827LCL0038</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>2025-08-19 10:44:51</t>
+          <t>2025-08-19 12:09:20</t>
         </is>
       </c>
     </row>
@@ -8787,13 +10065,13 @@
         <v>88</v>
       </c>
       <c r="F140" t="n">
-        <v>7.27</v>
+        <v>12.44</v>
       </c>
       <c r="G140" t="n">
         <v>4664</v>
       </c>
       <c r="H140" t="n">
-        <v>639.4299999999999</v>
+        <v>1094.58</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -8802,12 +10080,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>CMM0827LCL0039</t>
+          <t>CMM0827LCL0038</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>2025-08-19 10:44:51</t>
+          <t>2025-08-19 12:09:20</t>
         </is>
       </c>
     </row>
@@ -8830,13 +10108,13 @@
         <v>88</v>
       </c>
       <c r="F141" t="n">
-        <v>13.71</v>
+        <v>23.47</v>
       </c>
       <c r="G141" t="n">
         <v>8800</v>
       </c>
       <c r="H141" t="n">
-        <v>1206.47</v>
+        <v>2065.24</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -8845,12 +10123,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>CMM0827LCL0039</t>
+          <t>CMM0827LCL0038</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>2025-08-19 10:44:51</t>
+          <t>2025-08-19 12:09:20</t>
         </is>
       </c>
     </row>
@@ -8866,22 +10144,22 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>7.294</v>
+        <v>4.261</v>
       </c>
       <c r="D142" t="n">
-        <v>619.8099999999999</v>
+        <v>382.87</v>
       </c>
       <c r="E142" t="n">
         <v>88</v>
       </c>
       <c r="F142" t="n">
-        <v>84.97</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>54542.93</v>
+        <v>33692.44</v>
       </c>
       <c r="H142" t="n">
-        <v>7477.78</v>
+        <v>7907.17</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -8890,12 +10168,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>CMM0827LCL0039</t>
+          <t>CMM0827LCL0038</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>2025-08-19 10:44:51</t>
+          <t>2025-08-19 12:09:20</t>
         </is>
       </c>
     </row>
@@ -8911,22 +10189,22 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D143" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E143" t="n">
         <v>88</v>
       </c>
       <c r="F143" t="n">
-        <v>13.71</v>
+        <v>14.08</v>
       </c>
       <c r="G143" t="n">
-        <v>8800</v>
+        <v>5280</v>
       </c>
       <c r="H143" t="n">
-        <v>1206.47</v>
+        <v>1239.15</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -8935,12 +10213,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>CMM0827LCL0039</t>
+          <t>CMM0827LCL0038</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>2025-08-19 10:44:51</t>
+          <t>2025-08-19 12:09:20</t>
         </is>
       </c>
     </row>
@@ -8956,22 +10234,22 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7.294</v>
+        <v>4.261</v>
       </c>
       <c r="D144" t="n">
-        <v>401.77</v>
+        <v>299.88</v>
       </c>
       <c r="E144" t="n">
         <v>88</v>
       </c>
       <c r="F144" t="n">
-        <v>55.08</v>
+        <v>70.38</v>
       </c>
       <c r="G144" t="n">
-        <v>35355.76</v>
+        <v>26389.44</v>
       </c>
       <c r="H144" t="n">
-        <v>4847.24</v>
+        <v>6193.25</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -8980,12 +10258,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>CMM0827LCL0039</t>
+          <t>CMM0827LCL0038</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>2025-08-19 10:44:51</t>
+          <t>2025-08-19 12:09:20</t>
         </is>
       </c>
     </row>
@@ -9001,20 +10279,20 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>7.294</v>
+        <v>4.261</v>
       </c>
       <c r="D145" t="n">
-        <v>1274.58</v>
+        <v>895.75</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>174.74</v>
+        <v>210.22</v>
       </c>
       <c r="G145" t="n">
-        <v>112162.69</v>
+        <v>78825.88</v>
       </c>
       <c r="H145" t="n">
-        <v>15377.39</v>
+        <v>18499.38</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -9023,12 +10301,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>CMM0827LCL0039</t>
+          <t>CMM0827LCL0038</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2025-08-19 10:44:51</t>
+          <t>2025-08-19 12:09:20</t>
         </is>
       </c>
     </row>
@@ -9066,12 +10344,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>CMM0827LCL0038</t>
+          <t>CMM0637LCL0005</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2025-08-19 12:09:20</t>
+          <t>2025-08-20 07:27:37</t>
         </is>
       </c>
     </row>
@@ -9094,13 +10372,13 @@
         <v>88</v>
       </c>
       <c r="F147" t="n">
-        <v>12.44</v>
+        <v>53</v>
       </c>
       <c r="G147" t="n">
         <v>4664</v>
       </c>
       <c r="H147" t="n">
-        <v>1094.58</v>
+        <v>4664</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -9109,12 +10387,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>CMM0827LCL0038</t>
+          <t>CMM0637LCL0005</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2025-08-19 12:09:20</t>
+          <t>2025-08-20 07:27:37</t>
         </is>
       </c>
     </row>
@@ -9137,13 +10415,13 @@
         <v>88</v>
       </c>
       <c r="F148" t="n">
-        <v>23.47</v>
+        <v>100</v>
       </c>
       <c r="G148" t="n">
         <v>8800</v>
       </c>
       <c r="H148" t="n">
-        <v>2065.24</v>
+        <v>8800</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -9152,19 +10430,19 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>CMM0827LCL0038</t>
+          <t>CMM0637LCL0005</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2025-08-19 12:09:20</t>
+          <t>2025-08-20 07:27:37</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>P2P(Charleston)</t>
+          <t>P2P(New York)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -9173,22 +10451,22 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>4.261</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>382.87</v>
+        <v>121.36</v>
       </c>
       <c r="E149" t="n">
         <v>88</v>
       </c>
       <c r="F149" t="n">
-        <v>89.84999999999999</v>
+        <v>121.36</v>
       </c>
       <c r="G149" t="n">
-        <v>33692.44</v>
+        <v>10679.67</v>
       </c>
       <c r="H149" t="n">
-        <v>7907.17</v>
+        <v>10679.67</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -9197,12 +10475,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>CMM0827LCL0038</t>
+          <t>CMM0637LCL0005</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2025-08-19 12:09:20</t>
+          <t>2025-08-20 07:27:37</t>
         </is>
       </c>
     </row>
@@ -9218,22 +10496,22 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E150" t="n">
         <v>88</v>
       </c>
       <c r="F150" t="n">
-        <v>14.08</v>
+        <v>18</v>
       </c>
       <c r="G150" t="n">
-        <v>5280</v>
+        <v>1584</v>
       </c>
       <c r="H150" t="n">
-        <v>1239.15</v>
+        <v>1584</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -9242,19 +10520,19 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>CMM0827LCL0038</t>
+          <t>CMM0637LCL0005</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2025-08-19 12:09:20</t>
+          <t>2025-08-20 07:27:37</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Last Mile(IUSR)</t>
+          <t>Last Mile(LBE1)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -9263,22 +10541,22 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4.261</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>299.88</v>
+        <v>121</v>
       </c>
       <c r="E151" t="n">
         <v>88</v>
       </c>
       <c r="F151" t="n">
-        <v>70.38</v>
+        <v>121</v>
       </c>
       <c r="G151" t="n">
-        <v>26389.44</v>
+        <v>10648</v>
       </c>
       <c r="H151" t="n">
-        <v>6193.25</v>
+        <v>10648</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -9287,12 +10565,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>CMM0827LCL0038</t>
+          <t>CMM0637LCL0005</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2025-08-19 12:09:20</t>
+          <t>2025-08-20 07:27:37</t>
         </is>
       </c>
     </row>
@@ -9308,20 +10586,20 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4.261</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>895.75</v>
+        <v>413.36</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>210.22</v>
+        <v>413.36</v>
       </c>
       <c r="G152" t="n">
-        <v>78825.88</v>
+        <v>36375.67</v>
       </c>
       <c r="H152" t="n">
-        <v>18499.38</v>
+        <v>36375.67</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -9330,12 +10608,3569 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>CMM0827LCL0038</t>
+          <t>CMM0637LCL0005</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2025-08-19 12:09:20</t>
+          <t>2025-08-20 07:27:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>88</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0005</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>53</v>
+      </c>
+      <c r="E154" t="n">
+        <v>88</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H154" t="n">
+        <v>307.27</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0005</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>100</v>
+      </c>
+      <c r="E155" t="n">
+        <v>88</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="G155" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H155" t="n">
+        <v>579.75</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0005</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1235.78</v>
+      </c>
+      <c r="E156" t="n">
+        <v>88</v>
+      </c>
+      <c r="F156" t="n">
+        <v>81.41</v>
+      </c>
+      <c r="G156" t="n">
+        <v>108748.73</v>
+      </c>
+      <c r="H156" t="n">
+        <v>7164.42</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0005</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>180</v>
+      </c>
+      <c r="E157" t="n">
+        <v>88</v>
+      </c>
+      <c r="F157" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="G157" t="n">
+        <v>15840</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1043.55</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0005</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Last Mile(IUSR)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="D158" t="n">
+        <v>643.77</v>
+      </c>
+      <c r="E158" t="n">
+        <v>88</v>
+      </c>
+      <c r="F158" t="n">
+        <v>42.41</v>
+      </c>
+      <c r="G158" t="n">
+        <v>56651.76</v>
+      </c>
+      <c r="H158" t="n">
+        <v>3732.25</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0005</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2212.55</v>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="n">
+        <v>145.76</v>
+      </c>
+      <c r="G159" t="n">
+        <v>194704.49</v>
+      </c>
+      <c r="H159" t="n">
+        <v>12827.23</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0005</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>88</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0006</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:56:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>53</v>
+      </c>
+      <c r="E161" t="n">
+        <v>88</v>
+      </c>
+      <c r="F161" t="n">
+        <v>53</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H161" t="n">
+        <v>4664</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0006</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:56:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>100</v>
+      </c>
+      <c r="E162" t="n">
+        <v>88</v>
+      </c>
+      <c r="F162" t="n">
+        <v>100</v>
+      </c>
+      <c r="G162" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H162" t="n">
+        <v>8800</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0006</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:56:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>121.36</v>
+      </c>
+      <c r="E163" t="n">
+        <v>88</v>
+      </c>
+      <c r="F163" t="n">
+        <v>121.36</v>
+      </c>
+      <c r="G163" t="n">
+        <v>10679.67</v>
+      </c>
+      <c r="H163" t="n">
+        <v>10679.67</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0006</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:56:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>88</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0006</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:56:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Last Mile(LBE1)</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>877</v>
+      </c>
+      <c r="E165" t="n">
+        <v>88</v>
+      </c>
+      <c r="F165" t="n">
+        <v>877</v>
+      </c>
+      <c r="G165" t="n">
+        <v>77176</v>
+      </c>
+      <c r="H165" t="n">
+        <v>77176</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0006</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:56:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1151.36</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="n">
+        <v>1151.36</v>
+      </c>
+      <c r="G166" t="n">
+        <v>101319.67</v>
+      </c>
+      <c r="H166" t="n">
+        <v>101319.67</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0006</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:56:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>73.38</v>
+      </c>
+      <c r="E167" t="n">
+        <v>88</v>
+      </c>
+      <c r="F167" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>6457.38</v>
+      </c>
+      <c r="H167" t="n">
+        <v>800.47</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>2025-08-23 06:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>53</v>
+      </c>
+      <c r="E168" t="n">
+        <v>88</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="G168" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H168" t="n">
+        <v>578.16</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>2025-08-23 06:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>100</v>
+      </c>
+      <c r="E169" t="n">
+        <v>88</v>
+      </c>
+      <c r="F169" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G169" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1090.86</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>2025-08-23 06:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>8.067</v>
+      </c>
+      <c r="D170" t="n">
+        <v>625.66</v>
+      </c>
+      <c r="E170" t="n">
+        <v>88</v>
+      </c>
+      <c r="F170" t="n">
+        <v>77.56</v>
+      </c>
+      <c r="G170" t="n">
+        <v>55058.07</v>
+      </c>
+      <c r="H170" t="n">
+        <v>6825.1</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>2025-08-23 06:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>54</v>
+      </c>
+      <c r="E171" t="n">
+        <v>88</v>
+      </c>
+      <c r="F171" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4752</v>
+      </c>
+      <c r="H171" t="n">
+        <v>589.0700000000001</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2025-08-23 06:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Last Mile(AVP1)</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>2.689</v>
+      </c>
+      <c r="D172" t="n">
+        <v>180</v>
+      </c>
+      <c r="E172" t="n">
+        <v>88</v>
+      </c>
+      <c r="F172" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="G172" t="n">
+        <v>15840</v>
+      </c>
+      <c r="H172" t="n">
+        <v>5890.67</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>2025-08-23 06:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Last Mile(RMN3)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="D173" t="n">
+        <v>458.27</v>
+      </c>
+      <c r="E173" t="n">
+        <v>88</v>
+      </c>
+      <c r="F173" t="n">
+        <v>85.20999999999999</v>
+      </c>
+      <c r="G173" t="n">
+        <v>40327.76</v>
+      </c>
+      <c r="H173" t="n">
+        <v>7498.65</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>2025-08-23 06:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>8.067</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1544.31</v>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="n">
+        <v>191.44</v>
+      </c>
+      <c r="G174" t="n">
+        <v>135899.21</v>
+      </c>
+      <c r="H174" t="n">
+        <v>16846.31</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>2025-08-23 06:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>113.63</v>
+      </c>
+      <c r="E175" t="n">
+        <v>88</v>
+      </c>
+      <c r="F175" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="G175" t="n">
+        <v>9999.549999999999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>664.64</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>53</v>
+      </c>
+      <c r="E176" t="n">
+        <v>88</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H176" t="n">
+        <v>310</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="n">
+        <v>100</v>
+      </c>
+      <c r="E177" t="n">
+        <v>88</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="G177" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H177" t="n">
+        <v>584.91</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>P2P(Los Angeles)</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>15.045</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1269.08</v>
+      </c>
+      <c r="E178" t="n">
+        <v>88</v>
+      </c>
+      <c r="F178" t="n">
+        <v>84.34999999999999</v>
+      </c>
+      <c r="G178" t="n">
+        <v>111679.06</v>
+      </c>
+      <c r="H178" t="n">
+        <v>7423</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>60</v>
+      </c>
+      <c r="E179" t="n">
+        <v>88</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5280</v>
+      </c>
+      <c r="H179" t="n">
+        <v>350.95</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Last Mile(GYR3)</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D180" t="n">
+        <v>463.08</v>
+      </c>
+      <c r="E180" t="n">
+        <v>88</v>
+      </c>
+      <c r="F180" t="n">
+        <v>87.20999999999999</v>
+      </c>
+      <c r="G180" t="n">
+        <v>40751.04</v>
+      </c>
+      <c r="H180" t="n">
+        <v>7674.4</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Last Mile(GYR2)</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D181" t="n">
+        <v>469.74</v>
+      </c>
+      <c r="E181" t="n">
+        <v>88</v>
+      </c>
+      <c r="F181" t="n">
+        <v>88.45999999999999</v>
+      </c>
+      <c r="G181" t="n">
+        <v>41337.12</v>
+      </c>
+      <c r="H181" t="n">
+        <v>7784.77</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Last Mile(FTW1)</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>4.425</v>
+      </c>
+      <c r="D182" t="n">
+        <v>824.79</v>
+      </c>
+      <c r="E182" t="n">
+        <v>88</v>
+      </c>
+      <c r="F182" t="n">
+        <v>186.39</v>
+      </c>
+      <c r="G182" t="n">
+        <v>72581.52</v>
+      </c>
+      <c r="H182" t="n">
+        <v>16402.6</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>15.045</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3353.32</v>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>222.89</v>
+      </c>
+      <c r="G183" t="n">
+        <v>295092.28</v>
+      </c>
+      <c r="H183" t="n">
+        <v>19613.98</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0063</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="n">
+        <v>113.63</v>
+      </c>
+      <c r="E184" t="n">
+        <v>88</v>
+      </c>
+      <c r="F184" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="G184" t="n">
+        <v>9999.41</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1239.54</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="n">
+        <v>53</v>
+      </c>
+      <c r="E185" t="n">
+        <v>88</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H185" t="n">
+        <v>578.16</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="n">
+        <v>100</v>
+      </c>
+      <c r="E186" t="n">
+        <v>88</v>
+      </c>
+      <c r="F186" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G186" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1090.86</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>8.067</v>
+      </c>
+      <c r="D187" t="n">
+        <v>625.66</v>
+      </c>
+      <c r="E187" t="n">
+        <v>88</v>
+      </c>
+      <c r="F187" t="n">
+        <v>77.56</v>
+      </c>
+      <c r="G187" t="n">
+        <v>55058.07</v>
+      </c>
+      <c r="H187" t="n">
+        <v>6825.1</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>54</v>
+      </c>
+      <c r="E188" t="n">
+        <v>88</v>
+      </c>
+      <c r="F188" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4752</v>
+      </c>
+      <c r="H188" t="n">
+        <v>589.0700000000001</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Last Mile(AVP1)</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2.689</v>
+      </c>
+      <c r="D189" t="n">
+        <v>180</v>
+      </c>
+      <c r="E189" t="n">
+        <v>88</v>
+      </c>
+      <c r="F189" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="G189" t="n">
+        <v>15840</v>
+      </c>
+      <c r="H189" t="n">
+        <v>5890.67</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Last Mile(RMN3)</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="D190" t="n">
+        <v>458.27</v>
+      </c>
+      <c r="E190" t="n">
+        <v>88</v>
+      </c>
+      <c r="F190" t="n">
+        <v>85.20999999999999</v>
+      </c>
+      <c r="G190" t="n">
+        <v>40327.76</v>
+      </c>
+      <c r="H190" t="n">
+        <v>7498.65</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>8.067</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1584.56</v>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>196.42</v>
+      </c>
+      <c r="G191" t="n">
+        <v>139441.24</v>
+      </c>
+      <c r="H191" t="n">
+        <v>17285.39</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>CMM0804LCL0062</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>88</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0057</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>2025-08-23 09:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>53</v>
+      </c>
+      <c r="E193" t="n">
+        <v>88</v>
+      </c>
+      <c r="F193" t="n">
+        <v>53</v>
+      </c>
+      <c r="G193" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H193" t="n">
+        <v>4664</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0057</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>2025-08-23 09:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="n">
+        <v>100</v>
+      </c>
+      <c r="E194" t="n">
+        <v>88</v>
+      </c>
+      <c r="F194" t="n">
+        <v>100</v>
+      </c>
+      <c r="G194" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H194" t="n">
+        <v>8800</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0057</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>2025-08-23 09:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>P2P(Los Angeles)</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>131.03</v>
+      </c>
+      <c r="E195" t="n">
+        <v>88</v>
+      </c>
+      <c r="F195" t="n">
+        <v>131.03</v>
+      </c>
+      <c r="G195" t="n">
+        <v>11530.55</v>
+      </c>
+      <c r="H195" t="n">
+        <v>11530.55</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0057</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>2025-08-23 09:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>88</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0057</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>2025-08-23 09:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Last Mile(ABE7)</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>822.38</v>
+      </c>
+      <c r="E197" t="n">
+        <v>88</v>
+      </c>
+      <c r="F197" t="n">
+        <v>822.38</v>
+      </c>
+      <c r="G197" t="n">
+        <v>72369</v>
+      </c>
+      <c r="H197" t="n">
+        <v>72369</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0057</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>2025-08-23 09:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1106.4</v>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="n">
+        <v>1106.4</v>
+      </c>
+      <c r="G198" t="n">
+        <v>97363.55</v>
+      </c>
+      <c r="H198" t="n">
+        <v>97363.55</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0057</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>2025-08-23 09:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>88</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0072</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>2025-08-25 05:52:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>88</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0072</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>2025-08-25 05:52:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="n">
+        <v>100</v>
+      </c>
+      <c r="E201" t="n">
+        <v>88</v>
+      </c>
+      <c r="F201" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G201" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1188.39</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0072</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>2025-08-25 05:52:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>7.405</v>
+      </c>
+      <c r="D202" t="n">
+        <v>578.42</v>
+      </c>
+      <c r="E202" t="n">
+        <v>88</v>
+      </c>
+      <c r="F202" t="n">
+        <v>78.11</v>
+      </c>
+      <c r="G202" t="n">
+        <v>50900.93</v>
+      </c>
+      <c r="H202" t="n">
+        <v>6873.86</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0072</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>2025-08-25 05:52:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>90</v>
+      </c>
+      <c r="E203" t="n">
+        <v>88</v>
+      </c>
+      <c r="F203" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="G203" t="n">
+        <v>7920</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1069.55</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0072</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>2025-08-25 05:52:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Last Mile(XLX1)</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>7.405</v>
+      </c>
+      <c r="D204" t="n">
+        <v>625.1900000000001</v>
+      </c>
+      <c r="E204" t="n">
+        <v>88</v>
+      </c>
+      <c r="F204" t="n">
+        <v>84.43000000000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>55016.72</v>
+      </c>
+      <c r="H204" t="n">
+        <v>7429.67</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0072</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>2025-08-25 05:52:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>7.405</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1393.61</v>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="G205" t="n">
+        <v>122637.65</v>
+      </c>
+      <c r="H205" t="n">
+        <v>16561.47</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0072</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>2025-08-25 05:52:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>88</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:10:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>88</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:10:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>100</v>
+      </c>
+      <c r="E208" t="n">
+        <v>88</v>
+      </c>
+      <c r="F208" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="G208" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H208" t="n">
+        <v>843.48</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:10:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>10.433</v>
+      </c>
+      <c r="D209" t="n">
+        <v>865.02</v>
+      </c>
+      <c r="E209" t="n">
+        <v>88</v>
+      </c>
+      <c r="F209" t="n">
+        <v>82.91</v>
+      </c>
+      <c r="G209" t="n">
+        <v>76122.13</v>
+      </c>
+      <c r="H209" t="n">
+        <v>7296.28</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:10:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>6</v>
+      </c>
+      <c r="D210" t="n">
+        <v>120</v>
+      </c>
+      <c r="E210" t="n">
+        <v>88</v>
+      </c>
+      <c r="F210" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G210" t="n">
+        <v>10560</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1012.17</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:10:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Last Mile(MEM6)</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>10.433</v>
+      </c>
+      <c r="D211" t="n">
+        <v>833.58</v>
+      </c>
+      <c r="E211" t="n">
+        <v>88</v>
+      </c>
+      <c r="F211" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="G211" t="n">
+        <v>73355.03999999999</v>
+      </c>
+      <c r="H211" t="n">
+        <v>7031.06</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:10:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>10.433</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1918.6</v>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="G212" t="n">
+        <v>168837.17</v>
+      </c>
+      <c r="H212" t="n">
+        <v>16182.99</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:10:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>88</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>2025-08-25 07:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="n">
+        <v>53</v>
+      </c>
+      <c r="E214" t="n">
+        <v>88</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G214" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H214" t="n">
+        <v>151.61</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>2025-08-25 07:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="n">
+        <v>100</v>
+      </c>
+      <c r="E215" t="n">
+        <v>88</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G215" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H215" t="n">
+        <v>286.05</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>2025-08-25 07:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>30.764</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2245.31</v>
+      </c>
+      <c r="E216" t="n">
+        <v>88</v>
+      </c>
+      <c r="F216" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="G216" t="n">
+        <v>197587.67</v>
+      </c>
+      <c r="H216" t="n">
+        <v>6422.69</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>2025-08-25 07:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>18</v>
+      </c>
+      <c r="D217" t="n">
+        <v>324</v>
+      </c>
+      <c r="E217" t="n">
+        <v>88</v>
+      </c>
+      <c r="F217" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="G217" t="n">
+        <v>28512</v>
+      </c>
+      <c r="H217" t="n">
+        <v>926.8</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>2025-08-25 07:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Last Mile(WBW2)</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>30.764</v>
+      </c>
+      <c r="D218" t="n">
+        <v>947.0700000000001</v>
+      </c>
+      <c r="E218" t="n">
+        <v>88</v>
+      </c>
+      <c r="F218" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="G218" t="n">
+        <v>83342.16</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2709.08</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>2025-08-25 07:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>30.764</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3669.38</v>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="n">
+        <v>119.28</v>
+      </c>
+      <c r="G219" t="n">
+        <v>322905.83</v>
+      </c>
+      <c r="H219" t="n">
+        <v>10496.22</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>2025-08-25 07:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>88</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0117</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>2025-08-25 10:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="n">
+        <v>53</v>
+      </c>
+      <c r="E221" t="n">
+        <v>88</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="G221" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H221" t="n">
+        <v>733.45</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0117</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>2025-08-25 10:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="n">
+        <v>100</v>
+      </c>
+      <c r="E222" t="n">
+        <v>88</v>
+      </c>
+      <c r="F222" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="G222" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1383.87</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0117</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>2025-08-25 10:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>6.359</v>
+      </c>
+      <c r="D223" t="n">
+        <v>546.76</v>
+      </c>
+      <c r="E223" t="n">
+        <v>88</v>
+      </c>
+      <c r="F223" t="n">
+        <v>85.98</v>
+      </c>
+      <c r="G223" t="n">
+        <v>48115.23</v>
+      </c>
+      <c r="H223" t="n">
+        <v>7566.48</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0117</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>2025-08-25 10:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>4</v>
+      </c>
+      <c r="D224" t="n">
+        <v>80</v>
+      </c>
+      <c r="E224" t="n">
+        <v>88</v>
+      </c>
+      <c r="F224" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="G224" t="n">
+        <v>7040</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1107.09</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0117</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>2025-08-25 10:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Last Mile(XLX6)</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>6.359</v>
+      </c>
+      <c r="D225" t="n">
+        <v>350.66</v>
+      </c>
+      <c r="E225" t="n">
+        <v>88</v>
+      </c>
+      <c r="F225" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="G225" t="n">
+        <v>30858.08</v>
+      </c>
+      <c r="H225" t="n">
+        <v>4852.66</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0117</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>2025-08-25 10:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>6.359</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1130.42</v>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="n">
+        <v>177.77</v>
+      </c>
+      <c r="G226" t="n">
+        <v>99477.31</v>
+      </c>
+      <c r="H226" t="n">
+        <v>15643.55</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0117</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>2025-08-25 10:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>88</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>2025-08-26 05:42:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="n">
+        <v>53</v>
+      </c>
+      <c r="E228" t="n">
+        <v>88</v>
+      </c>
+      <c r="F228" t="n">
+        <v>53</v>
+      </c>
+      <c r="G228" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H228" t="n">
+        <v>4664</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>2025-08-26 05:42:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="n">
+        <v>100</v>
+      </c>
+      <c r="E229" t="n">
+        <v>88</v>
+      </c>
+      <c r="F229" t="n">
+        <v>100</v>
+      </c>
+      <c r="G229" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H229" t="n">
+        <v>8800</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>2025-08-26 05:42:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>128.12</v>
+      </c>
+      <c r="E230" t="n">
+        <v>88</v>
+      </c>
+      <c r="F230" t="n">
+        <v>128.12</v>
+      </c>
+      <c r="G230" t="n">
+        <v>11274.55</v>
+      </c>
+      <c r="H230" t="n">
+        <v>11274.55</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>2025-08-26 05:42:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>88</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>2025-08-26 05:42:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Last Mile(ATL9)</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1105.7</v>
+      </c>
+      <c r="E232" t="n">
+        <v>88</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1105.7</v>
+      </c>
+      <c r="G232" t="n">
+        <v>97301.16</v>
+      </c>
+      <c r="H232" t="n">
+        <v>97301.16</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>2025-08-26 05:42:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1386.81</v>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="n">
+        <v>1386.81</v>
+      </c>
+      <c r="G233" t="n">
+        <v>122039.71</v>
+      </c>
+      <c r="H233" t="n">
+        <v>122039.71</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>2025-08-26 05:42:04</t>
         </is>
       </c>
     </row>

--- a/Logs/bookings_log.xlsx
+++ b/Logs/bookings_log.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3875,10 +3875,10 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>28.06272</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3910,7 +3910,171 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>2025-08-26 05:42:04</t>
+          <t>2025-08-26 06:01:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>LBE1</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>3.687</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>291</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>CMM0910LCL0002</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>2025-08-28 08:59:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>LBE1</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>121</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>CMM0911LCL0001</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53:59</t>
         </is>
       </c>
     </row>
@@ -3925,7 +4089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K233"/>
+  <dimension ref="A1:K247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13906,7 +14070,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>2025-08-26 05:42:04</t>
+          <t>2025-08-26 06:01:54</t>
         </is>
       </c>
     </row>
@@ -13929,13 +14093,13 @@
         <v>88</v>
       </c>
       <c r="F228" t="n">
-        <v>53</v>
+        <v>1.89</v>
       </c>
       <c r="G228" t="n">
         <v>4664</v>
       </c>
       <c r="H228" t="n">
-        <v>4664</v>
+        <v>166.2</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
@@ -13949,7 +14113,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>2025-08-26 05:42:04</t>
+          <t>2025-08-26 06:01:54</t>
         </is>
       </c>
     </row>
@@ -13972,13 +14136,13 @@
         <v>88</v>
       </c>
       <c r="F229" t="n">
-        <v>100</v>
+        <v>3.56</v>
       </c>
       <c r="G229" t="n">
         <v>8800</v>
       </c>
       <c r="H229" t="n">
-        <v>8800</v>
+        <v>313.58</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -13992,7 +14156,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>2025-08-26 05:42:04</t>
+          <t>2025-08-26 06:01:54</t>
         </is>
       </c>
     </row>
@@ -14008,22 +14172,22 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>28.06272</v>
       </c>
       <c r="D230" t="n">
-        <v>128.12</v>
+        <v>2242.26</v>
       </c>
       <c r="E230" t="n">
         <v>88</v>
       </c>
       <c r="F230" t="n">
-        <v>128.12</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G230" t="n">
-        <v>11274.55</v>
+        <v>197318.44</v>
       </c>
       <c r="H230" t="n">
-        <v>11274.55</v>
+        <v>7031.34</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
@@ -14037,7 +14201,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>2025-08-26 05:42:04</t>
+          <t>2025-08-26 06:01:54</t>
         </is>
       </c>
     </row>
@@ -14053,22 +14217,22 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="E231" t="n">
         <v>88</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>28160</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>1003.47</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
@@ -14082,7 +14246,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>2025-08-26 05:42:04</t>
+          <t>2025-08-26 06:01:54</t>
         </is>
       </c>
     </row>
@@ -14098,7 +14262,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>28.06272</v>
       </c>
       <c r="D232" t="n">
         <v>1105.7</v>
@@ -14107,13 +14271,13 @@
         <v>88</v>
       </c>
       <c r="F232" t="n">
-        <v>1105.7</v>
+        <v>39.4</v>
       </c>
       <c r="G232" t="n">
         <v>97301.16</v>
       </c>
       <c r="H232" t="n">
-        <v>97301.16</v>
+        <v>3467.27</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -14127,7 +14291,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>2025-08-26 05:42:04</t>
+          <t>2025-08-26 06:01:54</t>
         </is>
       </c>
     </row>
@@ -14143,20 +14307,20 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>28.06272</v>
       </c>
       <c r="D233" t="n">
-        <v>1386.81</v>
+        <v>3820.95</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>1386.81</v>
+        <v>136.16</v>
       </c>
       <c r="G233" t="n">
-        <v>122039.71</v>
+        <v>336243.6</v>
       </c>
       <c r="H233" t="n">
-        <v>122039.71</v>
+        <v>11981.86</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
@@ -14170,7 +14334,621 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>2025-08-26 05:42:04</t>
+          <t>2025-08-26 06:01:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>88</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>CMM0910LCL0002</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>2025-08-28 08:59:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="n">
+        <v>53</v>
+      </c>
+      <c r="E235" t="n">
+        <v>88</v>
+      </c>
+      <c r="F235" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="G235" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1264.99</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>CMM0910LCL0002</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>2025-08-28 08:59:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="n">
+        <v>100</v>
+      </c>
+      <c r="E236" t="n">
+        <v>88</v>
+      </c>
+      <c r="F236" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="G236" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2386.76</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>CMM0910LCL0002</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>2025-08-28 08:59:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>3.687</v>
+      </c>
+      <c r="D237" t="n">
+        <v>313.1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>88</v>
+      </c>
+      <c r="F237" t="n">
+        <v>84.92</v>
+      </c>
+      <c r="G237" t="n">
+        <v>27553.13</v>
+      </c>
+      <c r="H237" t="n">
+        <v>7473.05</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>CMM0910LCL0002</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>2025-08-28 08:59:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
+      <c r="D238" t="n">
+        <v>54</v>
+      </c>
+      <c r="E238" t="n">
+        <v>88</v>
+      </c>
+      <c r="F238" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="G238" t="n">
+        <v>4752</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1288.85</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>CMM0910LCL0002</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>2025-08-28 08:59:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Last Mile(LBE1)</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>3.687</v>
+      </c>
+      <c r="D239" t="n">
+        <v>291</v>
+      </c>
+      <c r="E239" t="n">
+        <v>88</v>
+      </c>
+      <c r="F239" t="n">
+        <v>78.93000000000001</v>
+      </c>
+      <c r="G239" t="n">
+        <v>25608</v>
+      </c>
+      <c r="H239" t="n">
+        <v>6945.48</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>CMM0910LCL0002</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>2025-08-28 08:59:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>3.687</v>
+      </c>
+      <c r="D240" t="n">
+        <v>811.1</v>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="n">
+        <v>219.99</v>
+      </c>
+      <c r="G240" t="n">
+        <v>71377.13</v>
+      </c>
+      <c r="H240" t="n">
+        <v>19359.14</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>CMM0910LCL0002</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>2025-08-28 08:59:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>88</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>CMM0911LCL0001</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>88</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>CMM0911LCL0001</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="n">
+        <v>100</v>
+      </c>
+      <c r="E243" t="n">
+        <v>88</v>
+      </c>
+      <c r="F243" t="n">
+        <v>57.87</v>
+      </c>
+      <c r="G243" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H243" t="n">
+        <v>5092.59</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>CMM0911LCL0001</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D244" t="n">
+        <v>173.31</v>
+      </c>
+      <c r="E244" t="n">
+        <v>88</v>
+      </c>
+      <c r="F244" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G244" t="n">
+        <v>15251.26</v>
+      </c>
+      <c r="H244" t="n">
+        <v>8825.959999999999</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>CMM0911LCL0001</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>18</v>
+      </c>
+      <c r="E245" t="n">
+        <v>88</v>
+      </c>
+      <c r="F245" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1584</v>
+      </c>
+      <c r="H245" t="n">
+        <v>916.67</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>CMM0911LCL0001</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Last Mile(LBE1)</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D246" t="n">
+        <v>121</v>
+      </c>
+      <c r="E246" t="n">
+        <v>88</v>
+      </c>
+      <c r="F246" t="n">
+        <v>70.02</v>
+      </c>
+      <c r="G246" t="n">
+        <v>10648</v>
+      </c>
+      <c r="H246" t="n">
+        <v>6162.04</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>CMM0911LCL0001</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D247" t="n">
+        <v>412.31</v>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="n">
+        <v>238.61</v>
+      </c>
+      <c r="G247" t="n">
+        <v>36283.26</v>
+      </c>
+      <c r="H247" t="n">
+        <v>20997.26</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>CMM0911LCL0001</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53:59</t>
         </is>
       </c>
     </row>

--- a/Logs/bookings_log.xlsx
+++ b/Logs/bookings_log.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,11 @@
           <t>Log Timestamp</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Unique ID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -611,6 +616,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -697,6 +703,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -783,6 +790,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -869,6 +877,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -955,6 +964,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1041,6 +1051,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1123,6 +1134,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1205,6 +1217,7 @@
           <t>2025-08-14 10:25:34</t>
         </is>
       </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1291,6 +1304,7 @@
           <t>2025-08-14 10:28:20</t>
         </is>
       </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1377,6 +1391,7 @@
           <t>2025-08-14 10:28:20</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1463,6 +1478,7 @@
           <t>2025-08-14 10:28:21</t>
         </is>
       </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1549,6 +1565,7 @@
           <t>2025-08-15 06:21:43</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1635,6 +1652,7 @@
           <t>2025-08-15 10:12:45</t>
         </is>
       </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1721,6 +1739,7 @@
           <t>2025-08-16 04:29:40</t>
         </is>
       </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1807,6 +1826,7 @@
           <t>2025-08-16 04:38:34</t>
         </is>
       </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1893,6 +1913,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1979,6 +2000,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2053,6 +2075,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2139,6 +2162,7 @@
           <t>2025-08-18 07:49:06</t>
         </is>
       </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2225,6 +2249,7 @@
           <t>2025-08-18 07:49:19</t>
         </is>
       </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2299,6 +2324,7 @@
           <t>2025-08-18 07:54:05</t>
         </is>
       </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2381,6 +2407,7 @@
           <t>2025-08-19 05:48:54</t>
         </is>
       </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2467,6 +2494,7 @@
           <t>2025-08-19 10:44:51</t>
         </is>
       </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2553,6 +2581,7 @@
           <t>2025-08-19 12:09:20</t>
         </is>
       </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2635,6 +2664,7 @@
           <t>2025-08-20 07:27:37</t>
         </is>
       </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2721,6 +2751,7 @@
           <t>2025-08-21 13:06:23</t>
         </is>
       </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2803,6 +2834,7 @@
           <t>2025-08-22 09:56:01</t>
         </is>
       </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2885,6 +2917,7 @@
           <t>2025-08-23 06:35:57</t>
         </is>
       </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2971,6 +3004,7 @@
           <t>2025-08-23 06:35:57</t>
         </is>
       </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3057,6 +3091,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3143,6 +3178,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3229,6 +3265,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3311,6 +3348,7 @@
           <t>2025-08-23 07:38:08</t>
         </is>
       </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3397,6 +3435,7 @@
           <t>2025-08-23 07:38:08</t>
         </is>
       </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3483,6 +3522,7 @@
           <t>2025-08-23 09:48:12</t>
         </is>
       </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3569,6 +3609,7 @@
           <t>2025-08-25 05:52:24</t>
         </is>
       </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3655,6 +3696,7 @@
           <t>2025-08-25 06:10:17</t>
         </is>
       </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3741,6 +3783,7 @@
           <t>2025-08-25 07:50:47</t>
         </is>
       </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3827,6 +3870,7 @@
           <t>2025-08-25 10:22:35</t>
         </is>
       </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3913,6 +3957,7 @@
           <t>2025-08-26 06:01:54</t>
         </is>
       </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3995,6 +4040,7 @@
           <t>2025-08-28 08:59:32</t>
         </is>
       </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4075,6 +4121,549 @@
       <c r="R43" t="inlineStr">
         <is>
           <t>2025-08-28 09:53:59</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ATL9</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>ATL9 30096, North Metro, Duluth, Georgia, United States</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>28.06272</v>
+      </c>
+      <c r="K44" t="n">
+        <v>16</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>1047.15</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>2025-08-28 12:07:46</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056_20250828120709</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>HIA1</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>HIA1 17057, Middletown, Middletown, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>275.96</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>2025-08-29 11:18:57</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001_20250829111820</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>IUSR</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>IUSR 29330, Cowpens, Cowpens, South Carolina, United States</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>5.026</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>317.68</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>2025-08-30 11:02:27</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002_20250830110140</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>LBE1</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>6.106</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>384</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>2025-09-01 08:15:19</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003_20250901081446</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>MEM6</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>MEM6 38654, Olive Branch, Olive Branch, Mississippi, United States</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>10.433</v>
+      </c>
+      <c r="K48" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>1173.88</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:11:39</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073_20250902071052</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>WBW2</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>WBW2 18447, Archbald, Archbald, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>30.764</v>
+      </c>
+      <c r="K49" t="n">
+        <v>18</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>J.B. Hunt</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>JBHZ</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>963.5699999999999</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:17:13</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002_20250902071644</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K247"/>
+  <dimension ref="A1:L289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4153,6 +4742,11 @@
           <t>Log Timestamp</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Unique ID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4196,6 +4790,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4239,6 +4834,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4282,6 +4878,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4327,6 +4924,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4372,6 +4970,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4417,6 +5016,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4460,6 +5060,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4503,6 +5104,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4546,6 +5148,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4589,6 +5192,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4634,6 +5238,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4679,6 +5284,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4724,6 +5330,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4769,6 +5376,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4814,6 +5422,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4857,6 +5466,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4900,6 +5510,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4943,6 +5554,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4986,6 +5598,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5031,6 +5644,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5076,6 +5690,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5121,6 +5736,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5164,6 +5780,7 @@
           <t>2025-08-14 15:22:40</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5207,6 +5824,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5250,6 +5868,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5293,6 +5912,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5338,6 +5958,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5383,6 +6004,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5428,6 +6050,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5471,6 +6094,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5514,6 +6138,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5557,6 +6182,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5600,6 +6226,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5645,6 +6272,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5690,6 +6318,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5735,6 +6364,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5778,6 +6408,7 @@
           <t>2025-08-14 15:34:17</t>
         </is>
       </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5821,6 +6452,7 @@
           <t>2025-08-14 10:25:34</t>
         </is>
       </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5864,6 +6496,7 @@
           <t>2025-08-14 10:25:34</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5907,6 +6540,7 @@
           <t>2025-08-14 10:25:34</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5952,6 +6586,7 @@
           <t>2025-08-14 10:25:34</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5997,6 +6632,7 @@
           <t>2025-08-14 10:25:34</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6042,6 +6678,7 @@
           <t>2025-08-14 10:25:34</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6085,6 +6722,7 @@
           <t>2025-08-14 10:25:34</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6128,6 +6766,7 @@
           <t>2025-08-14 10:28:20</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6171,6 +6810,7 @@
           <t>2025-08-14 10:28:20</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6214,6 +6854,7 @@
           <t>2025-08-14 10:28:20</t>
         </is>
       </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6259,6 +6900,7 @@
           <t>2025-08-14 10:28:20</t>
         </is>
       </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6304,6 +6946,7 @@
           <t>2025-08-14 10:28:20</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6349,6 +6992,7 @@
           <t>2025-08-14 10:28:20</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6394,6 +7038,7 @@
           <t>2025-08-14 10:28:20</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6437,6 +7082,7 @@
           <t>2025-08-14 10:28:20</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6480,6 +7126,7 @@
           <t>2025-08-14 10:28:21</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6523,6 +7170,7 @@
           <t>2025-08-14 10:28:21</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6566,6 +7214,7 @@
           <t>2025-08-14 10:28:21</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6611,6 +7260,7 @@
           <t>2025-08-14 10:28:21</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6656,6 +7306,7 @@
           <t>2025-08-14 10:28:21</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6701,6 +7352,7 @@
           <t>2025-08-14 10:28:21</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6744,6 +7396,7 @@
           <t>2025-08-14 10:28:21</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6787,6 +7440,7 @@
           <t>2025-08-15 06:21:43</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6830,6 +7484,7 @@
           <t>2025-08-15 06:21:43</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6873,6 +7528,7 @@
           <t>2025-08-15 06:21:43</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6918,6 +7574,7 @@
           <t>2025-08-15 06:21:43</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6963,6 +7620,7 @@
           <t>2025-08-15 06:21:43</t>
         </is>
       </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7008,6 +7666,7 @@
           <t>2025-08-15 06:21:43</t>
         </is>
       </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7051,6 +7710,7 @@
           <t>2025-08-15 06:21:43</t>
         </is>
       </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7094,6 +7754,7 @@
           <t>2025-08-15 10:12:45</t>
         </is>
       </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7137,6 +7798,7 @@
           <t>2025-08-15 10:12:45</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7180,6 +7842,7 @@
           <t>2025-08-15 10:12:45</t>
         </is>
       </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7225,6 +7888,7 @@
           <t>2025-08-15 10:12:45</t>
         </is>
       </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7270,6 +7934,7 @@
           <t>2025-08-15 10:12:45</t>
         </is>
       </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7315,6 +7980,7 @@
           <t>2025-08-15 10:12:45</t>
         </is>
       </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7358,6 +8024,7 @@
           <t>2025-08-15 10:12:45</t>
         </is>
       </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7401,6 +8068,7 @@
           <t>2025-08-16 04:29:40</t>
         </is>
       </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7444,6 +8112,7 @@
           <t>2025-08-16 04:29:40</t>
         </is>
       </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7487,6 +8156,7 @@
           <t>2025-08-16 04:29:40</t>
         </is>
       </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7532,6 +8202,7 @@
           <t>2025-08-16 04:29:40</t>
         </is>
       </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7577,6 +8248,7 @@
           <t>2025-08-16 04:29:40</t>
         </is>
       </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7622,6 +8294,7 @@
           <t>2025-08-16 04:29:40</t>
         </is>
       </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7665,6 +8338,7 @@
           <t>2025-08-16 04:29:40</t>
         </is>
       </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7708,6 +8382,7 @@
           <t>2025-08-16 04:38:34</t>
         </is>
       </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7751,6 +8426,7 @@
           <t>2025-08-16 04:38:34</t>
         </is>
       </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7794,6 +8470,7 @@
           <t>2025-08-16 04:38:34</t>
         </is>
       </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7839,6 +8516,7 @@
           <t>2025-08-16 04:38:34</t>
         </is>
       </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7884,6 +8562,7 @@
           <t>2025-08-16 04:38:34</t>
         </is>
       </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7929,6 +8608,7 @@
           <t>2025-08-16 04:38:34</t>
         </is>
       </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7972,6 +8652,7 @@
           <t>2025-08-16 04:38:34</t>
         </is>
       </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8015,6 +8696,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8058,6 +8740,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8101,6 +8784,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8146,6 +8830,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8191,6 +8876,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8236,6 +8922,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8281,6 +8968,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8324,6 +9012,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8367,6 +9056,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8410,6 +9100,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8453,6 +9144,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8498,6 +9190,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8543,6 +9236,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8588,6 +9282,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8631,6 +9326,7 @@
           <t>2025-08-18 07:03:54</t>
         </is>
       </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8674,6 +9370,7 @@
           <t>2025-08-18 07:49:06</t>
         </is>
       </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8717,6 +9414,7 @@
           <t>2025-08-18 07:49:06</t>
         </is>
       </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8760,6 +9458,7 @@
           <t>2025-08-18 07:49:06</t>
         </is>
       </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8805,6 +9504,7 @@
           <t>2025-08-18 07:49:06</t>
         </is>
       </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8850,6 +9550,7 @@
           <t>2025-08-18 07:49:06</t>
         </is>
       </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8895,6 +9596,7 @@
           <t>2025-08-18 07:49:06</t>
         </is>
       </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8938,6 +9640,7 @@
           <t>2025-08-18 07:49:06</t>
         </is>
       </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8981,6 +9684,7 @@
           <t>2025-08-18 07:49:19</t>
         </is>
       </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9024,6 +9728,7 @@
           <t>2025-08-18 07:49:19</t>
         </is>
       </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9067,6 +9772,7 @@
           <t>2025-08-18 07:49:19</t>
         </is>
       </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9112,6 +9818,7 @@
           <t>2025-08-18 07:49:19</t>
         </is>
       </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9157,6 +9864,7 @@
           <t>2025-08-18 07:49:19</t>
         </is>
       </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9202,6 +9910,7 @@
           <t>2025-08-18 07:49:19</t>
         </is>
       </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9245,6 +9954,7 @@
           <t>2025-08-18 07:49:19</t>
         </is>
       </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9288,6 +9998,7 @@
           <t>2025-08-18 07:54:05</t>
         </is>
       </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9331,6 +10042,7 @@
           <t>2025-08-18 07:54:05</t>
         </is>
       </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9374,6 +10086,7 @@
           <t>2025-08-18 07:54:05</t>
         </is>
       </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9419,6 +10132,7 @@
           <t>2025-08-18 07:54:05</t>
         </is>
       </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9464,6 +10178,7 @@
           <t>2025-08-18 07:54:05</t>
         </is>
       </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9509,6 +10224,7 @@
           <t>2025-08-18 07:54:05</t>
         </is>
       </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9552,6 +10268,7 @@
           <t>2025-08-18 07:54:05</t>
         </is>
       </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9595,6 +10312,7 @@
           <t>2025-08-19 05:48:54</t>
         </is>
       </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9638,6 +10356,7 @@
           <t>2025-08-19 05:48:54</t>
         </is>
       </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9681,6 +10400,7 @@
           <t>2025-08-19 05:48:54</t>
         </is>
       </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9726,6 +10446,7 @@
           <t>2025-08-19 05:48:54</t>
         </is>
       </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9771,6 +10492,7 @@
           <t>2025-08-19 05:48:54</t>
         </is>
       </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9816,6 +10538,7 @@
           <t>2025-08-19 05:48:54</t>
         </is>
       </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9859,6 +10582,7 @@
           <t>2025-08-19 05:48:54</t>
         </is>
       </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9902,6 +10626,7 @@
           <t>2025-08-19 10:44:51</t>
         </is>
       </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9945,6 +10670,7 @@
           <t>2025-08-19 10:44:51</t>
         </is>
       </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9988,6 +10714,7 @@
           <t>2025-08-19 10:44:51</t>
         </is>
       </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10033,6 +10760,7 @@
           <t>2025-08-19 10:44:51</t>
         </is>
       </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10078,6 +10806,7 @@
           <t>2025-08-19 10:44:51</t>
         </is>
       </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10123,6 +10852,7 @@
           <t>2025-08-19 10:44:51</t>
         </is>
       </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -10166,6 +10896,7 @@
           <t>2025-08-19 10:44:51</t>
         </is>
       </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10209,6 +10940,7 @@
           <t>2025-08-19 12:09:20</t>
         </is>
       </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10252,6 +10984,7 @@
           <t>2025-08-19 12:09:20</t>
         </is>
       </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10295,6 +11028,7 @@
           <t>2025-08-19 12:09:20</t>
         </is>
       </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10340,6 +11074,7 @@
           <t>2025-08-19 12:09:20</t>
         </is>
       </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10385,6 +11120,7 @@
           <t>2025-08-19 12:09:20</t>
         </is>
       </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10430,6 +11166,7 @@
           <t>2025-08-19 12:09:20</t>
         </is>
       </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10473,6 +11210,7 @@
           <t>2025-08-19 12:09:20</t>
         </is>
       </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10516,6 +11254,7 @@
           <t>2025-08-20 07:27:37</t>
         </is>
       </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10559,6 +11298,7 @@
           <t>2025-08-20 07:27:37</t>
         </is>
       </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10602,6 +11342,7 @@
           <t>2025-08-20 07:27:37</t>
         </is>
       </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10647,6 +11388,7 @@
           <t>2025-08-20 07:27:37</t>
         </is>
       </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10692,6 +11434,7 @@
           <t>2025-08-20 07:27:37</t>
         </is>
       </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10737,6 +11480,7 @@
           <t>2025-08-20 07:27:37</t>
         </is>
       </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10780,6 +11524,7 @@
           <t>2025-08-20 07:27:37</t>
         </is>
       </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10823,6 +11568,7 @@
           <t>2025-08-21 13:06:23</t>
         </is>
       </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10866,6 +11612,7 @@
           <t>2025-08-21 13:06:23</t>
         </is>
       </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10909,6 +11656,7 @@
           <t>2025-08-21 13:06:23</t>
         </is>
       </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10954,6 +11702,7 @@
           <t>2025-08-21 13:06:23</t>
         </is>
       </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10999,6 +11748,7 @@
           <t>2025-08-21 13:06:23</t>
         </is>
       </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11044,6 +11794,7 @@
           <t>2025-08-21 13:06:23</t>
         </is>
       </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11087,6 +11838,7 @@
           <t>2025-08-21 13:06:23</t>
         </is>
       </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11130,6 +11882,7 @@
           <t>2025-08-22 09:56:01</t>
         </is>
       </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11173,6 +11926,7 @@
           <t>2025-08-22 09:56:01</t>
         </is>
       </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11216,6 +11970,7 @@
           <t>2025-08-22 09:56:01</t>
         </is>
       </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11261,6 +12016,7 @@
           <t>2025-08-22 09:56:01</t>
         </is>
       </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11306,6 +12062,7 @@
           <t>2025-08-22 09:56:01</t>
         </is>
       </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11351,6 +12108,7 @@
           <t>2025-08-22 09:56:01</t>
         </is>
       </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11394,6 +12152,7 @@
           <t>2025-08-22 09:56:01</t>
         </is>
       </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11437,6 +12196,7 @@
           <t>2025-08-23 06:35:57</t>
         </is>
       </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11480,6 +12240,7 @@
           <t>2025-08-23 06:35:57</t>
         </is>
       </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11523,6 +12284,7 @@
           <t>2025-08-23 06:35:57</t>
         </is>
       </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11568,6 +12330,7 @@
           <t>2025-08-23 06:35:57</t>
         </is>
       </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11613,6 +12376,7 @@
           <t>2025-08-23 06:35:57</t>
         </is>
       </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11658,6 +12422,7 @@
           <t>2025-08-23 06:35:57</t>
         </is>
       </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11703,6 +12468,7 @@
           <t>2025-08-23 06:35:57</t>
         </is>
       </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11746,6 +12512,7 @@
           <t>2025-08-23 06:35:57</t>
         </is>
       </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -11789,6 +12556,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11832,6 +12600,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11875,6 +12644,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -11920,6 +12690,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11965,6 +12736,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12010,6 +12782,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12055,6 +12828,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12100,6 +12874,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12143,6 +12918,7 @@
           <t>2025-08-23 07:34:04</t>
         </is>
       </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12186,6 +12962,7 @@
           <t>2025-08-23 07:38:08</t>
         </is>
       </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12229,6 +13006,7 @@
           <t>2025-08-23 07:38:08</t>
         </is>
       </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12272,6 +13050,7 @@
           <t>2025-08-23 07:38:08</t>
         </is>
       </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12317,6 +13096,7 @@
           <t>2025-08-23 07:38:08</t>
         </is>
       </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12362,6 +13142,7 @@
           <t>2025-08-23 07:38:08</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -12407,6 +13188,7 @@
           <t>2025-08-23 07:38:08</t>
         </is>
       </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12452,6 +13234,7 @@
           <t>2025-08-23 07:38:08</t>
         </is>
       </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12495,6 +13278,7 @@
           <t>2025-08-23 07:38:08</t>
         </is>
       </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12538,6 +13322,7 @@
           <t>2025-08-23 09:48:12</t>
         </is>
       </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12581,6 +13366,7 @@
           <t>2025-08-23 09:48:12</t>
         </is>
       </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -12624,6 +13410,7 @@
           <t>2025-08-23 09:48:12</t>
         </is>
       </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -12669,6 +13456,7 @@
           <t>2025-08-23 09:48:12</t>
         </is>
       </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12714,6 +13502,7 @@
           <t>2025-08-23 09:48:12</t>
         </is>
       </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12759,6 +13548,7 @@
           <t>2025-08-23 09:48:12</t>
         </is>
       </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12802,6 +13592,7 @@
           <t>2025-08-23 09:48:12</t>
         </is>
       </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12845,6 +13636,7 @@
           <t>2025-08-25 05:52:24</t>
         </is>
       </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12888,6 +13680,7 @@
           <t>2025-08-25 05:52:24</t>
         </is>
       </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12931,6 +13724,7 @@
           <t>2025-08-25 05:52:24</t>
         </is>
       </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12976,6 +13770,7 @@
           <t>2025-08-25 05:52:24</t>
         </is>
       </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -13021,6 +13816,7 @@
           <t>2025-08-25 05:52:24</t>
         </is>
       </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -13066,6 +13862,7 @@
           <t>2025-08-25 05:52:24</t>
         </is>
       </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -13109,6 +13906,7 @@
           <t>2025-08-25 05:52:24</t>
         </is>
       </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -13152,6 +13950,7 @@
           <t>2025-08-25 06:10:17</t>
         </is>
       </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -13195,6 +13994,7 @@
           <t>2025-08-25 06:10:17</t>
         </is>
       </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -13238,6 +14038,7 @@
           <t>2025-08-25 06:10:17</t>
         </is>
       </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -13283,6 +14084,7 @@
           <t>2025-08-25 06:10:17</t>
         </is>
       </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -13328,6 +14130,7 @@
           <t>2025-08-25 06:10:17</t>
         </is>
       </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -13373,6 +14176,7 @@
           <t>2025-08-25 06:10:17</t>
         </is>
       </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -13416,6 +14220,7 @@
           <t>2025-08-25 06:10:17</t>
         </is>
       </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -13459,6 +14264,7 @@
           <t>2025-08-25 07:50:47</t>
         </is>
       </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13502,6 +14308,7 @@
           <t>2025-08-25 07:50:47</t>
         </is>
       </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13545,6 +14352,7 @@
           <t>2025-08-25 07:50:47</t>
         </is>
       </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13590,6 +14398,7 @@
           <t>2025-08-25 07:50:47</t>
         </is>
       </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13635,6 +14444,7 @@
           <t>2025-08-25 07:50:47</t>
         </is>
       </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13680,6 +14490,7 @@
           <t>2025-08-25 07:50:47</t>
         </is>
       </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13723,6 +14534,7 @@
           <t>2025-08-25 07:50:47</t>
         </is>
       </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13766,6 +14578,7 @@
           <t>2025-08-25 10:22:35</t>
         </is>
       </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13809,6 +14622,7 @@
           <t>2025-08-25 10:22:35</t>
         </is>
       </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13852,6 +14666,7 @@
           <t>2025-08-25 10:22:35</t>
         </is>
       </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13897,6 +14712,7 @@
           <t>2025-08-25 10:22:35</t>
         </is>
       </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13942,6 +14758,7 @@
           <t>2025-08-25 10:22:35</t>
         </is>
       </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13987,6 +14804,7 @@
           <t>2025-08-25 10:22:35</t>
         </is>
       </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -14030,6 +14848,7 @@
           <t>2025-08-25 10:22:35</t>
         </is>
       </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -14073,6 +14892,7 @@
           <t>2025-08-26 06:01:54</t>
         </is>
       </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -14116,6 +14936,7 @@
           <t>2025-08-26 06:01:54</t>
         </is>
       </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -14159,6 +14980,7 @@
           <t>2025-08-26 06:01:54</t>
         </is>
       </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -14204,6 +15026,7 @@
           <t>2025-08-26 06:01:54</t>
         </is>
       </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -14249,6 +15072,7 @@
           <t>2025-08-26 06:01:54</t>
         </is>
       </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -14294,6 +15118,7 @@
           <t>2025-08-26 06:01:54</t>
         </is>
       </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -14337,6 +15162,7 @@
           <t>2025-08-26 06:01:54</t>
         </is>
       </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -14380,6 +15206,7 @@
           <t>2025-08-28 08:59:32</t>
         </is>
       </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -14423,6 +15250,7 @@
           <t>2025-08-28 08:59:32</t>
         </is>
       </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -14466,6 +15294,7 @@
           <t>2025-08-28 08:59:32</t>
         </is>
       </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -14511,6 +15340,7 @@
           <t>2025-08-28 08:59:32</t>
         </is>
       </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -14556,6 +15386,7 @@
           <t>2025-08-28 08:59:32</t>
         </is>
       </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -14601,6 +15432,7 @@
           <t>2025-08-28 08:59:32</t>
         </is>
       </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -14644,6 +15476,7 @@
           <t>2025-08-28 08:59:32</t>
         </is>
       </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -14687,6 +15520,7 @@
           <t>2025-08-28 09:53:59</t>
         </is>
       </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -14730,6 +15564,7 @@
           <t>2025-08-28 09:53:59</t>
         </is>
       </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14773,6 +15608,7 @@
           <t>2025-08-28 09:53:59</t>
         </is>
       </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -14818,6 +15654,7 @@
           <t>2025-08-28 09:53:59</t>
         </is>
       </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -14863,6 +15700,7 @@
           <t>2025-08-28 09:53:59</t>
         </is>
       </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -14908,6 +15746,7 @@
           <t>2025-08-28 09:53:59</t>
         </is>
       </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -14949,6 +15788,2059 @@
       <c r="K247" t="inlineStr">
         <is>
           <t>2025-08-28 09:53:59</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>88</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>2025-08-28 12:07:46</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056_20250828120709</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="n">
+        <v>53</v>
+      </c>
+      <c r="E249" t="n">
+        <v>88</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G249" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H249" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>2025-08-28 12:07:46</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056_20250828120709</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="n">
+        <v>100</v>
+      </c>
+      <c r="E250" t="n">
+        <v>88</v>
+      </c>
+      <c r="F250" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="G250" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H250" t="n">
+        <v>313.58</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>2025-08-28 12:07:46</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056_20250828120709</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>28.06272</v>
+      </c>
+      <c r="D251" t="n">
+        <v>2242.26</v>
+      </c>
+      <c r="E251" t="n">
+        <v>88</v>
+      </c>
+      <c r="F251" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="G251" t="n">
+        <v>197318.44</v>
+      </c>
+      <c r="H251" t="n">
+        <v>7031.34</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>2025-08-28 12:07:46</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056_20250828120709</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>16</v>
+      </c>
+      <c r="D252" t="n">
+        <v>320</v>
+      </c>
+      <c r="E252" t="n">
+        <v>88</v>
+      </c>
+      <c r="F252" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="G252" t="n">
+        <v>28160</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1003.47</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>2025-08-28 12:07:46</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056_20250828120709</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Last Mile(ATL9)</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>28.06272</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1047.15</v>
+      </c>
+      <c r="E253" t="n">
+        <v>88</v>
+      </c>
+      <c r="F253" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="G253" t="n">
+        <v>92149.2</v>
+      </c>
+      <c r="H253" t="n">
+        <v>3283.69</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>2025-08-28 12:07:46</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056_20250828120709</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>28.06272</v>
+      </c>
+      <c r="D254" t="n">
+        <v>3762.41</v>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="n">
+        <v>134.07</v>
+      </c>
+      <c r="G254" t="n">
+        <v>331091.64</v>
+      </c>
+      <c r="H254" t="n">
+        <v>11798.27</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>2025-08-28 12:07:46</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0056_20250828120709</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>88</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>2025-08-29 11:18:57</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001_20250829111820</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>88</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>2025-08-29 11:18:57</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001_20250829111820</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="n">
+        <v>100</v>
+      </c>
+      <c r="E257" t="n">
+        <v>88</v>
+      </c>
+      <c r="F257" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="G257" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H257" t="n">
+        <v>5028.57</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>2025-08-29 11:18:57</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001_20250829111820</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D258" t="n">
+        <v>174.88</v>
+      </c>
+      <c r="E258" t="n">
+        <v>88</v>
+      </c>
+      <c r="F258" t="n">
+        <v>99.93000000000001</v>
+      </c>
+      <c r="G258" t="n">
+        <v>15389.42</v>
+      </c>
+      <c r="H258" t="n">
+        <v>8793.950000000001</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>2025-08-29 11:18:57</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001_20250829111820</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>18</v>
+      </c>
+      <c r="E259" t="n">
+        <v>88</v>
+      </c>
+      <c r="F259" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1584</v>
+      </c>
+      <c r="H259" t="n">
+        <v>905.14</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>2025-08-29 11:18:57</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001_20250829111820</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Last Mile(HIA1)</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D260" t="n">
+        <v>275.96</v>
+      </c>
+      <c r="E260" t="n">
+        <v>88</v>
+      </c>
+      <c r="F260" t="n">
+        <v>157.69</v>
+      </c>
+      <c r="G260" t="n">
+        <v>24284.48</v>
+      </c>
+      <c r="H260" t="n">
+        <v>13876.85</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>2025-08-29 11:18:57</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001_20250829111820</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D261" t="n">
+        <v>568.84</v>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="n">
+        <v>325.05</v>
+      </c>
+      <c r="G261" t="n">
+        <v>50057.9</v>
+      </c>
+      <c r="H261" t="n">
+        <v>28604.51</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>2025-08-29 11:18:57</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0001_20250829111820</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>88</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>2025-08-30 11:02:27</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002_20250830110140</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>88</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>2025-08-30 11:02:27</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002_20250830110140</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="n">
+        <v>100</v>
+      </c>
+      <c r="E264" t="n">
+        <v>88</v>
+      </c>
+      <c r="F264" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G264" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1750.9</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>2025-08-30 11:02:27</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002_20250830110140</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>5.026</v>
+      </c>
+      <c r="D265" t="n">
+        <v>442.63</v>
+      </c>
+      <c r="E265" t="n">
+        <v>88</v>
+      </c>
+      <c r="F265" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G265" t="n">
+        <v>38951.47</v>
+      </c>
+      <c r="H265" t="n">
+        <v>7749.99</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>2025-08-30 11:02:27</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002_20250830110140</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>3</v>
+      </c>
+      <c r="D266" t="n">
+        <v>60</v>
+      </c>
+      <c r="E266" t="n">
+        <v>88</v>
+      </c>
+      <c r="F266" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="G266" t="n">
+        <v>5280</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1050.54</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>2025-08-30 11:02:27</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002_20250830110140</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Last Mile(IUSR)</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>5.026</v>
+      </c>
+      <c r="D267" t="n">
+        <v>317.68</v>
+      </c>
+      <c r="E267" t="n">
+        <v>88</v>
+      </c>
+      <c r="F267" t="n">
+        <v>63.21</v>
+      </c>
+      <c r="G267" t="n">
+        <v>27955.84</v>
+      </c>
+      <c r="H267" t="n">
+        <v>5562.24</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>2025-08-30 11:02:27</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002_20250830110140</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>5.026</v>
+      </c>
+      <c r="D268" t="n">
+        <v>920.3099999999999</v>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="n">
+        <v>183.11</v>
+      </c>
+      <c r="G268" t="n">
+        <v>80987.31</v>
+      </c>
+      <c r="H268" t="n">
+        <v>16113.67</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>2025-08-30 11:02:27</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>CMM0916LCL0002_20250830110140</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>88</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>2025-09-01 08:15:19</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003_20250901081446</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>88</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>2025-09-01 08:15:19</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003_20250901081446</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="n">
+        <v>100</v>
+      </c>
+      <c r="E271" t="n">
+        <v>88</v>
+      </c>
+      <c r="F271" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="G271" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1441.21</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>2025-09-01 08:15:19</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003_20250901081446</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>6.106</v>
+      </c>
+      <c r="D272" t="n">
+        <v>485.72</v>
+      </c>
+      <c r="E272" t="n">
+        <v>88</v>
+      </c>
+      <c r="F272" t="n">
+        <v>79.55</v>
+      </c>
+      <c r="G272" t="n">
+        <v>42743.64</v>
+      </c>
+      <c r="H272" t="n">
+        <v>7000.27</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>2025-09-01 08:15:19</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003_20250901081446</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>4</v>
+      </c>
+      <c r="D273" t="n">
+        <v>72</v>
+      </c>
+      <c r="E273" t="n">
+        <v>88</v>
+      </c>
+      <c r="F273" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="G273" t="n">
+        <v>6336</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1037.67</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>2025-09-01 08:15:19</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003_20250901081446</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Last Mile(LBE1)</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>6.106</v>
+      </c>
+      <c r="D274" t="n">
+        <v>384</v>
+      </c>
+      <c r="E274" t="n">
+        <v>88</v>
+      </c>
+      <c r="F274" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="G274" t="n">
+        <v>33792</v>
+      </c>
+      <c r="H274" t="n">
+        <v>5534.23</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>2025-09-01 08:15:19</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003_20250901081446</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>6.106</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1041.72</v>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="n">
+        <v>170.61</v>
+      </c>
+      <c r="G275" t="n">
+        <v>91671.64</v>
+      </c>
+      <c r="H275" t="n">
+        <v>15013.37</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>2025-09-01 08:15:19</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>CMM0878LCL0003_20250901081446</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>88</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:11:39</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073_20250902071052</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>88</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:11:39</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073_20250902071052</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="n">
+        <v>100</v>
+      </c>
+      <c r="E278" t="n">
+        <v>88</v>
+      </c>
+      <c r="F278" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="G278" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H278" t="n">
+        <v>843.48</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:11:39</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073_20250902071052</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>10.433</v>
+      </c>
+      <c r="D279" t="n">
+        <v>817.6</v>
+      </c>
+      <c r="E279" t="n">
+        <v>88</v>
+      </c>
+      <c r="F279" t="n">
+        <v>78.37</v>
+      </c>
+      <c r="G279" t="n">
+        <v>71948.92999999999</v>
+      </c>
+      <c r="H279" t="n">
+        <v>6896.28</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:11:39</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073_20250902071052</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>6</v>
+      </c>
+      <c r="D280" t="n">
+        <v>120</v>
+      </c>
+      <c r="E280" t="n">
+        <v>88</v>
+      </c>
+      <c r="F280" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G280" t="n">
+        <v>10560</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1012.17</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:11:39</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073_20250902071052</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Last Mile(MEM6)</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>10.433</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1173.88</v>
+      </c>
+      <c r="E281" t="n">
+        <v>88</v>
+      </c>
+      <c r="F281" t="n">
+        <v>112.52</v>
+      </c>
+      <c r="G281" t="n">
+        <v>103301.44</v>
+      </c>
+      <c r="H281" t="n">
+        <v>9901.41</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:11:39</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073_20250902071052</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>10.433</v>
+      </c>
+      <c r="D282" t="n">
+        <v>2211.48</v>
+      </c>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="n">
+        <v>211.97</v>
+      </c>
+      <c r="G282" t="n">
+        <v>194610.37</v>
+      </c>
+      <c r="H282" t="n">
+        <v>18653.35</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:11:39</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>CEN0479LCL0073_20250902071052</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="n">
+        <v>88</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:17:13</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002_20250902071644</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="n">
+        <v>53</v>
+      </c>
+      <c r="E284" t="n">
+        <v>88</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G284" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H284" t="n">
+        <v>151.61</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:17:13</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002_20250902071644</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="n">
+        <v>100</v>
+      </c>
+      <c r="E285" t="n">
+        <v>88</v>
+      </c>
+      <c r="F285" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G285" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H285" t="n">
+        <v>286.05</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:17:13</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002_20250902071644</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>30.764</v>
+      </c>
+      <c r="D286" t="n">
+        <v>2117.13</v>
+      </c>
+      <c r="E286" t="n">
+        <v>88</v>
+      </c>
+      <c r="F286" t="n">
+        <v>68.81999999999999</v>
+      </c>
+      <c r="G286" t="n">
+        <v>186307.53</v>
+      </c>
+      <c r="H286" t="n">
+        <v>6056.02</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:17:13</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002_20250902071644</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>18</v>
+      </c>
+      <c r="D287" t="n">
+        <v>324</v>
+      </c>
+      <c r="E287" t="n">
+        <v>88</v>
+      </c>
+      <c r="F287" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="G287" t="n">
+        <v>28512</v>
+      </c>
+      <c r="H287" t="n">
+        <v>926.8</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:17:13</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002_20250902071644</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Last Mile(WBW2)</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>30.764</v>
+      </c>
+      <c r="D288" t="n">
+        <v>963.5700000000001</v>
+      </c>
+      <c r="E288" t="n">
+        <v>88</v>
+      </c>
+      <c r="F288" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="G288" t="n">
+        <v>84794.16</v>
+      </c>
+      <c r="H288" t="n">
+        <v>2756.28</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:17:13</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002_20250902071644</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>30.764</v>
+      </c>
+      <c r="D289" t="n">
+        <v>3557.7</v>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="n">
+        <v>115.64</v>
+      </c>
+      <c r="G289" t="n">
+        <v>313077.69</v>
+      </c>
+      <c r="H289" t="n">
+        <v>10176.76</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>2025-09-02 07:17:13</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>CMM0077LCL0002_20250902071644</t>
         </is>
       </c>
     </row>

--- a/Logs/bookings_log.xlsx
+++ b/Logs/bookings_log.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4664,6 +4664,2083 @@
       <c r="S49" t="inlineStr">
         <is>
           <t>CMM0077LCL0002_20250902071644</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>AGS2</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>309.61</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>East Coast</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>TEB9</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>97</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Gulf Coast</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FTW1</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>FTW1 75241, Dallas, Dallas, Texas, United States</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Frontline Freight</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>720.76</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:52:23</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076_20250903105110</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>SMF3</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>SMF3 95215, Stockton, Stockton, California, United States</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>855.2</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:52:23</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076_20250903105110</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MEM1</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>MEM1 38118, Capleville, Memphis, Tennessee, United States</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Estes Express</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>496.08</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:24</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Great Lakes</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FWA4</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="K55" t="n">
+        <v>5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>820.15</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:25</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>LAN2</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>LAN2 48917, Lansing, Lansing, Michigan, United States</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>5.445</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>633.41</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:25</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MEM1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>MEM1 38118, Capleville, Memphis, Tennessee, United States</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Estes Express</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>496.08</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Great Lakes</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FWA4</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>820.15</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>LAN2</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>LAN2 48917, Lansing, Lansing, Michigan, United States</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>5.445</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>633.41</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Great Lakes</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>FWA4</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>820.15</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:18:22</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111730</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>LAN2</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>LAN2 48917, Lansing, Lansing, Michigan, United States</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>5.445</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>633.41</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:18:22</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111730</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>MEM1</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>MEM1 38118, Capleville, Memphis, Tennessee, United States</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Estes Express</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>496.08</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:43:01</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078_20250903114223</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>HEA2 18031, Breinigsville, Breinigsville, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Estes Express</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>2025-09-04 12:55:58</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009_20250904125511</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>110025, Okhla, South East Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>WBW2</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>WBW2 18447, Archbald, Archbald, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Estes Express Lines VL</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>322.62</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>2025-09-04 13:38:25</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014_20250904133750</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>110025, Okhla, South East Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>LBE1</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="n">
+        <v>291</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>2025-09-04 15:39:54</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015_20250904153923</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>HEA2 18031, Breinigsville, Breinigsville, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Estes Express</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:06:27</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012_20250905090547</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>HEA2 18031, Breinigsville, Breinigsville, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>4.271</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Estes Express</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>2025-09-05 11:39:24</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006_20250905113833</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>RDU4</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>ABF Density</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>226.67</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:36:15</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001_20250906133522</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>HEA2 18031, Breinigsville, Breinigsville, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Estes Express</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>2025-09-09 17:09:16</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250909170828</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>East Coast</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>ABE8</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ABE8 08518, Florence, Florence, New Jersey, United States</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="n">
+        <v>97</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:07:57</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007_20250911110739</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>RDU4</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>ABF Density</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>228.17</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>2025-09-12 16:03:17</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002_20250912160116</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>LBE1</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>2.31525</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>2025-09-18 02:54:06</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918025308</t>
         </is>
       </c>
     </row>
@@ -4678,7 +6755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L289"/>
+  <dimension ref="A1:L426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17844,6 +19921,6704 @@
         </is>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="E290" t="n">
+        <v>88</v>
+      </c>
+      <c r="F290" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="G290" t="n">
+        <v>3843.79</v>
+      </c>
+      <c r="H290" t="n">
+        <v>3843.79</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="n">
+        <v>53</v>
+      </c>
+      <c r="E291" t="n">
+        <v>88</v>
+      </c>
+      <c r="F291" t="n">
+        <v>53</v>
+      </c>
+      <c r="G291" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H291" t="n">
+        <v>4664</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="n">
+        <v>100</v>
+      </c>
+      <c r="E292" t="n">
+        <v>88</v>
+      </c>
+      <c r="F292" t="n">
+        <v>100</v>
+      </c>
+      <c r="G292" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H292" t="n">
+        <v>8800</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>123.57</v>
+      </c>
+      <c r="E293" t="n">
+        <v>88</v>
+      </c>
+      <c r="F293" t="n">
+        <v>123.57</v>
+      </c>
+      <c r="G293" t="n">
+        <v>10874.55</v>
+      </c>
+      <c r="H293" t="n">
+        <v>10874.55</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="n">
+        <v>20</v>
+      </c>
+      <c r="E294" t="n">
+        <v>88</v>
+      </c>
+      <c r="F294" t="n">
+        <v>20</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1760</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1760</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Last Mile(AGS2)</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>309.61</v>
+      </c>
+      <c r="E295" t="n">
+        <v>88</v>
+      </c>
+      <c r="F295" t="n">
+        <v>309.61</v>
+      </c>
+      <c r="G295" t="n">
+        <v>27245.68</v>
+      </c>
+      <c r="H295" t="n">
+        <v>27245.68</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>649.86</v>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="n">
+        <v>649.86</v>
+      </c>
+      <c r="G296" t="n">
+        <v>57188.01</v>
+      </c>
+      <c r="H296" t="n">
+        <v>57188.01</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="E297" t="n">
+        <v>88</v>
+      </c>
+      <c r="F297" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="G297" t="n">
+        <v>3843.79</v>
+      </c>
+      <c r="H297" t="n">
+        <v>3843.79</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="n">
+        <v>53</v>
+      </c>
+      <c r="E298" t="n">
+        <v>88</v>
+      </c>
+      <c r="F298" t="n">
+        <v>53</v>
+      </c>
+      <c r="G298" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H298" t="n">
+        <v>4664</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="n">
+        <v>100</v>
+      </c>
+      <c r="E299" t="n">
+        <v>88</v>
+      </c>
+      <c r="F299" t="n">
+        <v>100</v>
+      </c>
+      <c r="G299" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H299" t="n">
+        <v>8800</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>117.19</v>
+      </c>
+      <c r="E300" t="n">
+        <v>88</v>
+      </c>
+      <c r="F300" t="n">
+        <v>117.19</v>
+      </c>
+      <c r="G300" t="n">
+        <v>10313</v>
+      </c>
+      <c r="H300" t="n">
+        <v>10313</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>18</v>
+      </c>
+      <c r="E301" t="n">
+        <v>88</v>
+      </c>
+      <c r="F301" t="n">
+        <v>18</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1584</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1584</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Last Mile(TEB9)</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>120</v>
+      </c>
+      <c r="E302" t="n">
+        <v>88</v>
+      </c>
+      <c r="F302" t="n">
+        <v>120</v>
+      </c>
+      <c r="G302" t="n">
+        <v>10560</v>
+      </c>
+      <c r="H302" t="n">
+        <v>10560</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>451.87</v>
+      </c>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="n">
+        <v>451.87</v>
+      </c>
+      <c r="G303" t="n">
+        <v>39764.79</v>
+      </c>
+      <c r="H303" t="n">
+        <v>39764.79</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>2025-09-03 08:37:22</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>CMM0246LCL0039_20250903083608</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>88</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:52:23</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076_20250903105110</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="n">
+        <v>53</v>
+      </c>
+      <c r="E305" t="n">
+        <v>88</v>
+      </c>
+      <c r="F305" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G305" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H305" t="n">
+        <v>283.87</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:52:23</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076_20250903105110</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="n">
+        <v>100</v>
+      </c>
+      <c r="E306" t="n">
+        <v>88</v>
+      </c>
+      <c r="F306" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="G306" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H306" t="n">
+        <v>535.61</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:52:23</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076_20250903105110</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>P2P(Los Angeles)</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1306.62</v>
+      </c>
+      <c r="E307" t="n">
+        <v>88</v>
+      </c>
+      <c r="F307" t="n">
+        <v>79.53</v>
+      </c>
+      <c r="G307" t="n">
+        <v>114982.86</v>
+      </c>
+      <c r="H307" t="n">
+        <v>6998.35</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:52:23</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076_20250903105110</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>9</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>88</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:52:23</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076_20250903105110</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Last Mile(FTW1)</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D309" t="n">
+        <v>720.76</v>
+      </c>
+      <c r="E309" t="n">
+        <v>88</v>
+      </c>
+      <c r="F309" t="n">
+        <v>98.87</v>
+      </c>
+      <c r="G309" t="n">
+        <v>63426.88</v>
+      </c>
+      <c r="H309" t="n">
+        <v>8700.530000000001</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:52:23</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076_20250903105110</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Last Mile(SMF3)</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="D310" t="n">
+        <v>855.2</v>
+      </c>
+      <c r="E310" t="n">
+        <v>88</v>
+      </c>
+      <c r="F310" t="n">
+        <v>93.56999999999999</v>
+      </c>
+      <c r="G310" t="n">
+        <v>75257.60000000001</v>
+      </c>
+      <c r="H310" t="n">
+        <v>8233.870000000001</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:52:23</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076_20250903105110</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="D311" t="n">
+        <v>3035.58</v>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="n">
+        <v>184.76</v>
+      </c>
+      <c r="G311" t="n">
+        <v>267131.34</v>
+      </c>
+      <c r="H311" t="n">
+        <v>16258.75</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:52:23</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0076_20250903105110</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>88</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:24</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="n">
+        <v>53</v>
+      </c>
+      <c r="E313" t="n">
+        <v>88</v>
+      </c>
+      <c r="F313" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="G313" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H313" t="n">
+        <v>639.78</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:24</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="n">
+        <v>100</v>
+      </c>
+      <c r="E314" t="n">
+        <v>88</v>
+      </c>
+      <c r="F314" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="G314" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H314" t="n">
+        <v>1207.13</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:24</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D315" t="n">
+        <v>586.36</v>
+      </c>
+      <c r="E315" t="n">
+        <v>88</v>
+      </c>
+      <c r="F315" t="n">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="G315" t="n">
+        <v>51599.44</v>
+      </c>
+      <c r="H315" t="n">
+        <v>7078.11</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:24</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>4</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>88</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:24</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Last Mile(MEM1)</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D317" t="n">
+        <v>496.08</v>
+      </c>
+      <c r="E317" t="n">
+        <v>88</v>
+      </c>
+      <c r="F317" t="n">
+        <v>68.05</v>
+      </c>
+      <c r="G317" t="n">
+        <v>43655.04</v>
+      </c>
+      <c r="H317" t="n">
+        <v>5988.35</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:24</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1235.44</v>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="n">
+        <v>169.47</v>
+      </c>
+      <c r="G318" t="n">
+        <v>108718.48</v>
+      </c>
+      <c r="H318" t="n">
+        <v>14913.37</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:24</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>88</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:25</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="n">
+        <v>53</v>
+      </c>
+      <c r="E320" t="n">
+        <v>88</v>
+      </c>
+      <c r="F320" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G320" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H320" t="n">
+        <v>321.21</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:25</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="n">
+        <v>100</v>
+      </c>
+      <c r="E321" t="n">
+        <v>88</v>
+      </c>
+      <c r="F321" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="G321" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H321" t="n">
+        <v>606.0599999999999</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:25</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1025.64</v>
+      </c>
+      <c r="E322" t="n">
+        <v>88</v>
+      </c>
+      <c r="F322" t="n">
+        <v>70.64</v>
+      </c>
+      <c r="G322" t="n">
+        <v>90256.75999999999</v>
+      </c>
+      <c r="H322" t="n">
+        <v>6216.03</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:25</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>8</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>88</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:25</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Last Mile(FWA4)</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="D324" t="n">
+        <v>820.15</v>
+      </c>
+      <c r="E324" t="n">
+        <v>88</v>
+      </c>
+      <c r="F324" t="n">
+        <v>90.37</v>
+      </c>
+      <c r="G324" t="n">
+        <v>72173.2</v>
+      </c>
+      <c r="H324" t="n">
+        <v>7952.97</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:25</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Last Mile(LAN2)</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>5.445</v>
+      </c>
+      <c r="D325" t="n">
+        <v>633.41</v>
+      </c>
+      <c r="E325" t="n">
+        <v>88</v>
+      </c>
+      <c r="F325" t="n">
+        <v>116.33</v>
+      </c>
+      <c r="G325" t="n">
+        <v>55740.08</v>
+      </c>
+      <c r="H325" t="n">
+        <v>10236.93</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:25</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2632.2</v>
+      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="n">
+        <v>181.28</v>
+      </c>
+      <c r="G326" t="n">
+        <v>231634.04</v>
+      </c>
+      <c r="H326" t="n">
+        <v>15952.76</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:10:25</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903110900</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>88</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="n">
+        <v>53</v>
+      </c>
+      <c r="E328" t="n">
+        <v>88</v>
+      </c>
+      <c r="F328" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="G328" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H328" t="n">
+        <v>639.78</v>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="n">
+        <v>100</v>
+      </c>
+      <c r="E329" t="n">
+        <v>88</v>
+      </c>
+      <c r="F329" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="G329" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H329" t="n">
+        <v>1207.13</v>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D330" t="n">
+        <v>586.36</v>
+      </c>
+      <c r="E330" t="n">
+        <v>88</v>
+      </c>
+      <c r="F330" t="n">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="G330" t="n">
+        <v>51599.44</v>
+      </c>
+      <c r="H330" t="n">
+        <v>7078.11</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>4</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>88</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Last Mile(MEM1)</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D332" t="n">
+        <v>496.08</v>
+      </c>
+      <c r="E332" t="n">
+        <v>88</v>
+      </c>
+      <c r="F332" t="n">
+        <v>68.05</v>
+      </c>
+      <c r="G332" t="n">
+        <v>43655.04</v>
+      </c>
+      <c r="H332" t="n">
+        <v>5988.35</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1235.44</v>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="n">
+        <v>169.47</v>
+      </c>
+      <c r="G333" t="n">
+        <v>108718.48</v>
+      </c>
+      <c r="H333" t="n">
+        <v>14913.37</v>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
+      <c r="E334" t="n">
+        <v>88</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="n">
+        <v>53</v>
+      </c>
+      <c r="E335" t="n">
+        <v>88</v>
+      </c>
+      <c r="F335" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G335" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H335" t="n">
+        <v>321.21</v>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="n">
+        <v>100</v>
+      </c>
+      <c r="E336" t="n">
+        <v>88</v>
+      </c>
+      <c r="F336" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="G336" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H336" t="n">
+        <v>606.0599999999999</v>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1025.64</v>
+      </c>
+      <c r="E337" t="n">
+        <v>88</v>
+      </c>
+      <c r="F337" t="n">
+        <v>70.64</v>
+      </c>
+      <c r="G337" t="n">
+        <v>90256.75999999999</v>
+      </c>
+      <c r="H337" t="n">
+        <v>6216.03</v>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>8</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+      <c r="E338" t="n">
+        <v>88</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Last Mile(FWA4)</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="D339" t="n">
+        <v>820.15</v>
+      </c>
+      <c r="E339" t="n">
+        <v>88</v>
+      </c>
+      <c r="F339" t="n">
+        <v>90.37</v>
+      </c>
+      <c r="G339" t="n">
+        <v>72173.2</v>
+      </c>
+      <c r="H339" t="n">
+        <v>7952.97</v>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Last Mile(LAN2)</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>5.445</v>
+      </c>
+      <c r="D340" t="n">
+        <v>633.41</v>
+      </c>
+      <c r="E340" t="n">
+        <v>88</v>
+      </c>
+      <c r="F340" t="n">
+        <v>116.33</v>
+      </c>
+      <c r="G340" t="n">
+        <v>55740.08</v>
+      </c>
+      <c r="H340" t="n">
+        <v>10236.93</v>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="D341" t="n">
+        <v>2632.2</v>
+      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="n">
+        <v>181.28</v>
+      </c>
+      <c r="G341" t="n">
+        <v>231634.04</v>
+      </c>
+      <c r="H341" t="n">
+        <v>15952.76</v>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Booking 2</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:15:50</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111427</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+      <c r="E342" t="n">
+        <v>88</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:18:22</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111730</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="n">
+        <v>53</v>
+      </c>
+      <c r="E343" t="n">
+        <v>88</v>
+      </c>
+      <c r="F343" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G343" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H343" t="n">
+        <v>321.21</v>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:18:22</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111730</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="n">
+        <v>100</v>
+      </c>
+      <c r="E344" t="n">
+        <v>88</v>
+      </c>
+      <c r="F344" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="G344" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H344" t="n">
+        <v>606.0599999999999</v>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:18:22</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111730</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1025.64</v>
+      </c>
+      <c r="E345" t="n">
+        <v>88</v>
+      </c>
+      <c r="F345" t="n">
+        <v>70.64</v>
+      </c>
+      <c r="G345" t="n">
+        <v>90256.75999999999</v>
+      </c>
+      <c r="H345" t="n">
+        <v>6216.03</v>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:18:22</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111730</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>8</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+      <c r="E346" t="n">
+        <v>88</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:18:22</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111730</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Last Mile(FWA4)</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="D347" t="n">
+        <v>820.15</v>
+      </c>
+      <c r="E347" t="n">
+        <v>88</v>
+      </c>
+      <c r="F347" t="n">
+        <v>90.37</v>
+      </c>
+      <c r="G347" t="n">
+        <v>72173.2</v>
+      </c>
+      <c r="H347" t="n">
+        <v>7952.97</v>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:18:22</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111730</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Last Mile(LAN2)</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>5.445</v>
+      </c>
+      <c r="D348" t="n">
+        <v>633.41</v>
+      </c>
+      <c r="E348" t="n">
+        <v>88</v>
+      </c>
+      <c r="F348" t="n">
+        <v>116.33</v>
+      </c>
+      <c r="G348" t="n">
+        <v>55740.08</v>
+      </c>
+      <c r="H348" t="n">
+        <v>10236.93</v>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:18:22</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111730</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="D349" t="n">
+        <v>2632.2</v>
+      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="n">
+        <v>181.28</v>
+      </c>
+      <c r="G349" t="n">
+        <v>231634.04</v>
+      </c>
+      <c r="H349" t="n">
+        <v>15952.76</v>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:18:22</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0077_20250903111730</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+      <c r="E350" t="n">
+        <v>88</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:43:01</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078_20250903114223</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="n">
+        <v>53</v>
+      </c>
+      <c r="E351" t="n">
+        <v>88</v>
+      </c>
+      <c r="F351" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="G351" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H351" t="n">
+        <v>639.78</v>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:43:01</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078_20250903114223</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="n">
+        <v>100</v>
+      </c>
+      <c r="E352" t="n">
+        <v>88</v>
+      </c>
+      <c r="F352" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="G352" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H352" t="n">
+        <v>1207.13</v>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:43:01</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078_20250903114223</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D353" t="n">
+        <v>586.36</v>
+      </c>
+      <c r="E353" t="n">
+        <v>88</v>
+      </c>
+      <c r="F353" t="n">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="G353" t="n">
+        <v>51599.44</v>
+      </c>
+      <c r="H353" t="n">
+        <v>7078.11</v>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:43:01</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078_20250903114223</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>4</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0</v>
+      </c>
+      <c r="E354" t="n">
+        <v>88</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:43:01</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078_20250903114223</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Last Mile(MEM1)</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D355" t="n">
+        <v>496.08</v>
+      </c>
+      <c r="E355" t="n">
+        <v>88</v>
+      </c>
+      <c r="F355" t="n">
+        <v>68.05</v>
+      </c>
+      <c r="G355" t="n">
+        <v>43655.04</v>
+      </c>
+      <c r="H355" t="n">
+        <v>5988.35</v>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:43:01</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078_20250903114223</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1235.44</v>
+      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="n">
+        <v>169.47</v>
+      </c>
+      <c r="G356" t="n">
+        <v>108718.48</v>
+      </c>
+      <c r="H356" t="n">
+        <v>14913.37</v>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>2025-09-03 11:43:01</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>CMM0800LCL0078_20250903114223</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+      <c r="E357" t="n">
+        <v>88</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>2025-09-04 12:55:58</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009_20250904125511</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
+      <c r="E358" t="n">
+        <v>88</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>2025-09-04 12:55:58</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009_20250904125511</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="n">
+        <v>100</v>
+      </c>
+      <c r="E359" t="n">
+        <v>88</v>
+      </c>
+      <c r="F359" t="n">
+        <v>100</v>
+      </c>
+      <c r="G359" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H359" t="n">
+        <v>8800</v>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>2025-09-04 12:55:58</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009_20250904125511</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>1</v>
+      </c>
+      <c r="D360" t="n">
+        <v>117.19</v>
+      </c>
+      <c r="E360" t="n">
+        <v>88</v>
+      </c>
+      <c r="F360" t="n">
+        <v>117.19</v>
+      </c>
+      <c r="G360" t="n">
+        <v>10313</v>
+      </c>
+      <c r="H360" t="n">
+        <v>10313</v>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>2025-09-04 12:55:58</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009_20250904125511</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+      <c r="D361" t="n">
+        <v>18</v>
+      </c>
+      <c r="E361" t="n">
+        <v>88</v>
+      </c>
+      <c r="F361" t="n">
+        <v>18</v>
+      </c>
+      <c r="G361" t="n">
+        <v>1584</v>
+      </c>
+      <c r="H361" t="n">
+        <v>1584</v>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>2025-09-04 12:55:58</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009_20250904125511</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Last Mile(HEA2)</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+      <c r="D362" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="E362" t="n">
+        <v>88</v>
+      </c>
+      <c r="F362" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="G362" t="n">
+        <v>20014.72</v>
+      </c>
+      <c r="H362" t="n">
+        <v>20014.72</v>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>2025-09-04 12:55:58</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009_20250904125511</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>1</v>
+      </c>
+      <c r="D363" t="n">
+        <v>462.63</v>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="n">
+        <v>462.63</v>
+      </c>
+      <c r="G363" t="n">
+        <v>40711.72</v>
+      </c>
+      <c r="H363" t="n">
+        <v>40711.72</v>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>2025-09-04 12:55:58</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0009_20250904125511</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr"/>
+      <c r="D364" t="n">
+        <v>113.65</v>
+      </c>
+      <c r="E364" t="n">
+        <v>88</v>
+      </c>
+      <c r="F364" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="G364" t="n">
+        <v>10000.8</v>
+      </c>
+      <c r="H364" t="n">
+        <v>1995.77</v>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>2025-09-04 13:38:25</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014_20250904133750</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="n">
+        <v>53</v>
+      </c>
+      <c r="E365" t="n">
+        <v>88</v>
+      </c>
+      <c r="F365" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="G365" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H365" t="n">
+        <v>930.75</v>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>2025-09-04 13:38:25</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014_20250904133750</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="n">
+        <v>100</v>
+      </c>
+      <c r="E366" t="n">
+        <v>88</v>
+      </c>
+      <c r="F366" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="G366" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H366" t="n">
+        <v>1756.14</v>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>2025-09-04 13:38:25</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014_20250904133750</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="D367" t="n">
+        <v>386.71</v>
+      </c>
+      <c r="E367" t="n">
+        <v>88</v>
+      </c>
+      <c r="F367" t="n">
+        <v>77.17</v>
+      </c>
+      <c r="G367" t="n">
+        <v>34030.04</v>
+      </c>
+      <c r="H367" t="n">
+        <v>6791.07</v>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>2025-09-04 13:38:25</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014_20250904133750</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>3</v>
+      </c>
+      <c r="D368" t="n">
+        <v>54</v>
+      </c>
+      <c r="E368" t="n">
+        <v>88</v>
+      </c>
+      <c r="F368" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="G368" t="n">
+        <v>4752</v>
+      </c>
+      <c r="H368" t="n">
+        <v>948.3099999999999</v>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>2025-09-04 13:38:25</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014_20250904133750</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Last Mile(WBW2)</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="D369" t="n">
+        <v>322.62</v>
+      </c>
+      <c r="E369" t="n">
+        <v>88</v>
+      </c>
+      <c r="F369" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="G369" t="n">
+        <v>28390.56</v>
+      </c>
+      <c r="H369" t="n">
+        <v>5665.65</v>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>2025-09-04 13:38:25</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014_20250904133750</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1029.97</v>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="n">
+        <v>205.54</v>
+      </c>
+      <c r="G370" t="n">
+        <v>90637.39999999999</v>
+      </c>
+      <c r="H370" t="n">
+        <v>18087.69</v>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>2025-09-04 13:38:25</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0014_20250904133750</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr"/>
+      <c r="D371" t="n">
+        <v>113.65</v>
+      </c>
+      <c r="E371" t="n">
+        <v>88</v>
+      </c>
+      <c r="F371" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="G371" t="n">
+        <v>10000.8</v>
+      </c>
+      <c r="H371" t="n">
+        <v>1995.77</v>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>2025-09-04 15:39:54</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015_20250904153923</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr"/>
+      <c r="D372" t="n">
+        <v>53</v>
+      </c>
+      <c r="E372" t="n">
+        <v>88</v>
+      </c>
+      <c r="F372" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="G372" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H372" t="n">
+        <v>930.75</v>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>2025-09-04 15:39:54</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015_20250904153923</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="n">
+        <v>100</v>
+      </c>
+      <c r="E373" t="n">
+        <v>88</v>
+      </c>
+      <c r="F373" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="G373" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H373" t="n">
+        <v>1756.14</v>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>2025-09-04 15:39:54</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015_20250904153923</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="D374" t="n">
+        <v>386.71</v>
+      </c>
+      <c r="E374" t="n">
+        <v>88</v>
+      </c>
+      <c r="F374" t="n">
+        <v>77.17</v>
+      </c>
+      <c r="G374" t="n">
+        <v>34030.04</v>
+      </c>
+      <c r="H374" t="n">
+        <v>6791.07</v>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>2025-09-04 15:39:54</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015_20250904153923</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>3</v>
+      </c>
+      <c r="D375" t="n">
+        <v>54</v>
+      </c>
+      <c r="E375" t="n">
+        <v>88</v>
+      </c>
+      <c r="F375" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="G375" t="n">
+        <v>4752</v>
+      </c>
+      <c r="H375" t="n">
+        <v>948.3099999999999</v>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>2025-09-04 15:39:54</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015_20250904153923</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Last Mile(LBE1)</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="D376" t="n">
+        <v>291</v>
+      </c>
+      <c r="E376" t="n">
+        <v>88</v>
+      </c>
+      <c r="F376" t="n">
+        <v>58.07</v>
+      </c>
+      <c r="G376" t="n">
+        <v>25608</v>
+      </c>
+      <c r="H376" t="n">
+        <v>5110.36</v>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>2025-09-04 15:39:54</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015_20250904153923</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="D377" t="n">
+        <v>998.35</v>
+      </c>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="n">
+        <v>199.23</v>
+      </c>
+      <c r="G377" t="n">
+        <v>87854.84</v>
+      </c>
+      <c r="H377" t="n">
+        <v>17532.4</v>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>2025-09-04 15:39:54</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>CMM0741LCL0015_20250904153923</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+      <c r="E378" t="n">
+        <v>88</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:06:27</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012_20250905090547</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="n">
+        <v>53</v>
+      </c>
+      <c r="E379" t="n">
+        <v>88</v>
+      </c>
+      <c r="F379" t="n">
+        <v>53</v>
+      </c>
+      <c r="G379" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H379" t="n">
+        <v>4664</v>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:06:27</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012_20250905090547</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="n">
+        <v>100</v>
+      </c>
+      <c r="E380" t="n">
+        <v>88</v>
+      </c>
+      <c r="F380" t="n">
+        <v>100</v>
+      </c>
+      <c r="G380" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H380" t="n">
+        <v>8800</v>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:06:27</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012_20250905090547</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+      <c r="D381" t="n">
+        <v>117.19</v>
+      </c>
+      <c r="E381" t="n">
+        <v>88</v>
+      </c>
+      <c r="F381" t="n">
+        <v>117.19</v>
+      </c>
+      <c r="G381" t="n">
+        <v>10313</v>
+      </c>
+      <c r="H381" t="n">
+        <v>10313</v>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:06:27</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012_20250905090547</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>18</v>
+      </c>
+      <c r="E382" t="n">
+        <v>88</v>
+      </c>
+      <c r="F382" t="n">
+        <v>18</v>
+      </c>
+      <c r="G382" t="n">
+        <v>1584</v>
+      </c>
+      <c r="H382" t="n">
+        <v>1584</v>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:06:27</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012_20250905090547</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Last Mile(HEA2)</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>1</v>
+      </c>
+      <c r="D383" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="E383" t="n">
+        <v>88</v>
+      </c>
+      <c r="F383" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="G383" t="n">
+        <v>20014.72</v>
+      </c>
+      <c r="H383" t="n">
+        <v>20014.72</v>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:06:27</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012_20250905090547</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>1</v>
+      </c>
+      <c r="D384" t="n">
+        <v>515.63</v>
+      </c>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="n">
+        <v>515.63</v>
+      </c>
+      <c r="G384" t="n">
+        <v>45375.72</v>
+      </c>
+      <c r="H384" t="n">
+        <v>45375.72</v>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:06:27</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>CMM0637LCL0012_20250905090547</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr"/>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
+      <c r="E385" t="n">
+        <v>88</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>2025-09-05 11:39:24</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006_20250905113833</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+      <c r="E386" t="n">
+        <v>88</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>2025-09-05 11:39:24</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006_20250905113833</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="n">
+        <v>100</v>
+      </c>
+      <c r="E387" t="n">
+        <v>88</v>
+      </c>
+      <c r="F387" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="G387" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H387" t="n">
+        <v>2060.41</v>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>2025-09-05 11:39:24</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006_20250905113833</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>4.271</v>
+      </c>
+      <c r="D388" t="n">
+        <v>336.98</v>
+      </c>
+      <c r="E388" t="n">
+        <v>88</v>
+      </c>
+      <c r="F388" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="G388" t="n">
+        <v>29654.42</v>
+      </c>
+      <c r="H388" t="n">
+        <v>6943.2</v>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>2025-09-05 11:39:24</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006_20250905113833</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>3</v>
+      </c>
+      <c r="D389" t="n">
+        <v>54</v>
+      </c>
+      <c r="E389" t="n">
+        <v>88</v>
+      </c>
+      <c r="F389" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="G389" t="n">
+        <v>4752</v>
+      </c>
+      <c r="H389" t="n">
+        <v>1112.62</v>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>2025-09-05 11:39:24</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006_20250905113833</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Last Mile(HEA2)</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>4.271</v>
+      </c>
+      <c r="D390" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="E390" t="n">
+        <v>88</v>
+      </c>
+      <c r="F390" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="G390" t="n">
+        <v>20014.72</v>
+      </c>
+      <c r="H390" t="n">
+        <v>4686.19</v>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>2025-09-05 11:39:24</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006_20250905113833</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>4.271</v>
+      </c>
+      <c r="D391" t="n">
+        <v>718.42</v>
+      </c>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="n">
+        <v>168.21</v>
+      </c>
+      <c r="G391" t="n">
+        <v>63221.14</v>
+      </c>
+      <c r="H391" t="n">
+        <v>14802.42</v>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>2025-09-05 11:39:24</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0006_20250905113833</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+      <c r="E392" t="n">
+        <v>88</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:36:15</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001_20250906133522</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="n">
+        <v>53</v>
+      </c>
+      <c r="E393" t="n">
+        <v>88</v>
+      </c>
+      <c r="F393" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="G393" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H393" t="n">
+        <v>3426.89</v>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:36:15</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001_20250906133522</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="n">
+        <v>100</v>
+      </c>
+      <c r="E394" t="n">
+        <v>88</v>
+      </c>
+      <c r="F394" t="n">
+        <v>73.48</v>
+      </c>
+      <c r="G394" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H394" t="n">
+        <v>6465.83</v>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:36:15</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001_20250906133522</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="D395" t="n">
+        <v>150.13</v>
+      </c>
+      <c r="E395" t="n">
+        <v>88</v>
+      </c>
+      <c r="F395" t="n">
+        <v>110.31</v>
+      </c>
+      <c r="G395" t="n">
+        <v>13211.86</v>
+      </c>
+      <c r="H395" t="n">
+        <v>9707.459999999999</v>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:36:15</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001_20250906133522</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+      <c r="D396" t="n">
+        <v>20</v>
+      </c>
+      <c r="E396" t="n">
+        <v>88</v>
+      </c>
+      <c r="F396" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="G396" t="n">
+        <v>1760</v>
+      </c>
+      <c r="H396" t="n">
+        <v>1293.17</v>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:36:15</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001_20250906133522</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Last Mile(RDU4)</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="D397" t="n">
+        <v>226.67</v>
+      </c>
+      <c r="E397" t="n">
+        <v>88</v>
+      </c>
+      <c r="F397" t="n">
+        <v>166.55</v>
+      </c>
+      <c r="G397" t="n">
+        <v>19946.96</v>
+      </c>
+      <c r="H397" t="n">
+        <v>14656.11</v>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:36:15</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001_20250906133522</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="D398" t="n">
+        <v>549.8</v>
+      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="n">
+        <v>403.97</v>
+      </c>
+      <c r="G398" t="n">
+        <v>48382.82</v>
+      </c>
+      <c r="H398" t="n">
+        <v>35549.46</v>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:36:15</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>CMM0923LCL0001_20250906133522</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
+      <c r="E399" t="n">
+        <v>88</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>2025-09-09 17:09:16</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250909170828</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="n">
+        <v>53</v>
+      </c>
+      <c r="E400" t="n">
+        <v>88</v>
+      </c>
+      <c r="F400" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="G400" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H400" t="n">
+        <v>4375.23</v>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>2025-09-09 17:09:16</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250909170828</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="n">
+        <v>100</v>
+      </c>
+      <c r="E401" t="n">
+        <v>88</v>
+      </c>
+      <c r="F401" t="n">
+        <v>93.81</v>
+      </c>
+      <c r="G401" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H401" t="n">
+        <v>8255.16</v>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>2025-09-09 17:09:16</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250909170828</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="D402" t="n">
+        <v>121.63</v>
+      </c>
+      <c r="E402" t="n">
+        <v>88</v>
+      </c>
+      <c r="F402" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="G402" t="n">
+        <v>10703.26</v>
+      </c>
+      <c r="H402" t="n">
+        <v>10040.58</v>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>2025-09-09 17:09:16</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250909170828</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>1</v>
+      </c>
+      <c r="D403" t="n">
+        <v>18</v>
+      </c>
+      <c r="E403" t="n">
+        <v>88</v>
+      </c>
+      <c r="F403" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="G403" t="n">
+        <v>1584</v>
+      </c>
+      <c r="H403" t="n">
+        <v>1485.93</v>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>2025-09-09 17:09:16</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250909170828</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Last Mile(HEA2)</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="D404" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="E404" t="n">
+        <v>88</v>
+      </c>
+      <c r="F404" t="n">
+        <v>213.36</v>
+      </c>
+      <c r="G404" t="n">
+        <v>20014.72</v>
+      </c>
+      <c r="H404" t="n">
+        <v>18775.53</v>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>2025-09-09 17:09:16</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250909170828</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="D405" t="n">
+        <v>520.0700000000001</v>
+      </c>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="n">
+        <v>487.87</v>
+      </c>
+      <c r="G405" t="n">
+        <v>45765.98</v>
+      </c>
+      <c r="H405" t="n">
+        <v>42932.44</v>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>2025-09-09 17:09:16</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250909170828</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
+      <c r="E406" t="n">
+        <v>88</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:07:57</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007_20250911110739</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="n">
+        <v>53</v>
+      </c>
+      <c r="E407" t="n">
+        <v>88</v>
+      </c>
+      <c r="F407" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="G407" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H407" t="n">
+        <v>2705.34</v>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:07:57</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007_20250911110739</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="n">
+        <v>100</v>
+      </c>
+      <c r="E408" t="n">
+        <v>88</v>
+      </c>
+      <c r="F408" t="n">
+        <v>58</v>
+      </c>
+      <c r="G408" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H408" t="n">
+        <v>5104.41</v>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:07:57</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007_20250911110739</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="D409" t="n">
+        <v>165.84</v>
+      </c>
+      <c r="E409" t="n">
+        <v>88</v>
+      </c>
+      <c r="F409" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="G409" t="n">
+        <v>14594.01</v>
+      </c>
+      <c r="H409" t="n">
+        <v>8465.200000000001</v>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:07:57</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007_20250911110739</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>1</v>
+      </c>
+      <c r="D410" t="n">
+        <v>18</v>
+      </c>
+      <c r="E410" t="n">
+        <v>88</v>
+      </c>
+      <c r="F410" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="G410" t="n">
+        <v>1584</v>
+      </c>
+      <c r="H410" t="n">
+        <v>918.79</v>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:07:57</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007_20250911110739</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Last Mile(ABE8)</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="D411" t="n">
+        <v>120</v>
+      </c>
+      <c r="E411" t="n">
+        <v>88</v>
+      </c>
+      <c r="F411" t="n">
+        <v>69.61</v>
+      </c>
+      <c r="G411" t="n">
+        <v>10560</v>
+      </c>
+      <c r="H411" t="n">
+        <v>6125.29</v>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:07:57</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007_20250911110739</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="D412" t="n">
+        <v>456.84</v>
+      </c>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="n">
+        <v>264.99</v>
+      </c>
+      <c r="G412" t="n">
+        <v>40202.01</v>
+      </c>
+      <c r="H412" t="n">
+        <v>23319.03</v>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:07:57</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>CMM0014LCL0007_20250911110739</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="n">
+        <v>0</v>
+      </c>
+      <c r="E413" t="n">
+        <v>88</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>2025-09-12 16:03:17</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002_20250912160116</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="n">
+        <v>53</v>
+      </c>
+      <c r="E414" t="n">
+        <v>88</v>
+      </c>
+      <c r="F414" t="n">
+        <v>34.62</v>
+      </c>
+      <c r="G414" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H414" t="n">
+        <v>3046.37</v>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>2025-09-12 16:03:17</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002_20250912160116</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="n">
+        <v>100</v>
+      </c>
+      <c r="E415" t="n">
+        <v>88</v>
+      </c>
+      <c r="F415" t="n">
+        <v>65.31999999999999</v>
+      </c>
+      <c r="G415" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H415" t="n">
+        <v>5747.88</v>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>2025-09-12 16:03:17</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002_20250912160116</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>P2P(Charleston)</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="D416" t="n">
+        <v>162.64</v>
+      </c>
+      <c r="E416" t="n">
+        <v>88</v>
+      </c>
+      <c r="F416" t="n">
+        <v>106.23</v>
+      </c>
+      <c r="G416" t="n">
+        <v>14312.53</v>
+      </c>
+      <c r="H416" t="n">
+        <v>9348.48</v>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>2025-09-12 16:03:17</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002_20250912160116</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>1</v>
+      </c>
+      <c r="D417" t="n">
+        <v>20</v>
+      </c>
+      <c r="E417" t="n">
+        <v>88</v>
+      </c>
+      <c r="F417" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="G417" t="n">
+        <v>1760</v>
+      </c>
+      <c r="H417" t="n">
+        <v>1149.58</v>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>2025-09-12 16:03:17</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002_20250912160116</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Last Mile(RDU4)</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="D418" t="n">
+        <v>228.17</v>
+      </c>
+      <c r="E418" t="n">
+        <v>88</v>
+      </c>
+      <c r="F418" t="n">
+        <v>149.03</v>
+      </c>
+      <c r="G418" t="n">
+        <v>20078.96</v>
+      </c>
+      <c r="H418" t="n">
+        <v>13114.93</v>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>2025-09-12 16:03:17</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002_20250912160116</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="D419" t="n">
+        <v>563.8099999999999</v>
+      </c>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="n">
+        <v>368.26</v>
+      </c>
+      <c r="G419" t="n">
+        <v>49615.49</v>
+      </c>
+      <c r="H419" t="n">
+        <v>32407.24</v>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>2025-09-12 16:03:17</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>CMM0914LCL0002_20250912160116</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="n">
+        <v>0</v>
+      </c>
+      <c r="E420" t="n">
+        <v>88</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>2025-09-18 02:54:06</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918025308</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="n">
+        <v>53</v>
+      </c>
+      <c r="E421" t="n">
+        <v>88</v>
+      </c>
+      <c r="F421" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="G421" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H421" t="n">
+        <v>2014.47</v>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>2025-09-18 02:54:06</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918025308</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="n">
+        <v>100</v>
+      </c>
+      <c r="E422" t="n">
+        <v>88</v>
+      </c>
+      <c r="F422" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="G422" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H422" t="n">
+        <v>3800.89</v>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>2025-09-18 02:54:06</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918025308</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>2.31525</v>
+      </c>
+      <c r="D423" t="n">
+        <v>205.57</v>
+      </c>
+      <c r="E423" t="n">
+        <v>88</v>
+      </c>
+      <c r="F423" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="G423" t="n">
+        <v>18090.07</v>
+      </c>
+      <c r="H423" t="n">
+        <v>7813.44</v>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>2025-09-18 02:54:06</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918025308</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>2</v>
+      </c>
+      <c r="D424" t="n">
+        <v>36</v>
+      </c>
+      <c r="E424" t="n">
+        <v>88</v>
+      </c>
+      <c r="F424" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="G424" t="n">
+        <v>3168</v>
+      </c>
+      <c r="H424" t="n">
+        <v>1368.32</v>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>2025-09-18 02:54:06</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918025308</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Last Mile(LBE1)</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>2.31525</v>
+      </c>
+      <c r="D425" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="E425" t="n">
+        <v>88</v>
+      </c>
+      <c r="F425" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="G425" t="n">
+        <v>22492.8</v>
+      </c>
+      <c r="H425" t="n">
+        <v>9715.059999999999</v>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>2025-09-18 02:54:06</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918025308</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>2.31525</v>
+      </c>
+      <c r="D426" t="n">
+        <v>650.17</v>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="n">
+        <v>280.82</v>
+      </c>
+      <c r="G426" t="n">
+        <v>57214.87</v>
+      </c>
+      <c r="H426" t="n">
+        <v>24712.18</v>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>2025-09-18 02:54:06</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918025308</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Logs/bookings_log.xlsx
+++ b/Logs/bookings_log.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6741,6 +6741,366 @@
       <c r="S72" t="inlineStr">
         <is>
           <t>CMM0868LCL0007_20250918025308</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India(INNSA)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>LBE1</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>2.31525</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>AmznFrgt</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:28:37</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918112817</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>HEA2 18031, Breinigsville, Breinigsville, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Estes Express</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:30:38</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250918113005</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>BFI3</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>BFI3 98327, DuPont, DuPont, Washington, United States</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Ex-Freight</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Estes Express</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>551.83</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>2025-09-18 20:03:56</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001_20250918200259</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nhava Sheva, India (INNSA)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Nhava Sheva</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Own Console</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Agraga</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>_NotAvailable</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>DEN8</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>DEN8 80018, Aurora, Aurora, Colorado, United States</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>NON HOT</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>HeyPrimo</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Estes Express Lines</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>594.0599999999999</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>2025-09-18 20:03:56</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001_20250918200259</t>
         </is>
       </c>
     </row>
@@ -6755,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L426"/>
+  <dimension ref="A1:L448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26619,6 +26979,1082 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="n">
+        <v>0</v>
+      </c>
+      <c r="E427" t="n">
+        <v>88</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:28:37</t>
+        </is>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918112817</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="n">
+        <v>53</v>
+      </c>
+      <c r="E428" t="n">
+        <v>88</v>
+      </c>
+      <c r="F428" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="G428" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H428" t="n">
+        <v>2014.47</v>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:28:37</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918112817</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="n">
+        <v>100</v>
+      </c>
+      <c r="E429" t="n">
+        <v>88</v>
+      </c>
+      <c r="F429" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="G429" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H429" t="n">
+        <v>3800.89</v>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:28:37</t>
+        </is>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918112817</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>2.31525</v>
+      </c>
+      <c r="D430" t="n">
+        <v>205.57</v>
+      </c>
+      <c r="E430" t="n">
+        <v>88</v>
+      </c>
+      <c r="F430" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="G430" t="n">
+        <v>18090.07</v>
+      </c>
+      <c r="H430" t="n">
+        <v>7813.44</v>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:28:37</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918112817</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>2</v>
+      </c>
+      <c r="D431" t="n">
+        <v>36</v>
+      </c>
+      <c r="E431" t="n">
+        <v>88</v>
+      </c>
+      <c r="F431" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="G431" t="n">
+        <v>3168</v>
+      </c>
+      <c r="H431" t="n">
+        <v>1368.32</v>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:28:37</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918112817</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Last Mile(LBE1)</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>2.31525</v>
+      </c>
+      <c r="D432" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="E432" t="n">
+        <v>88</v>
+      </c>
+      <c r="F432" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="G432" t="n">
+        <v>22492.8</v>
+      </c>
+      <c r="H432" t="n">
+        <v>9715.059999999999</v>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:28:37</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918112817</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>2.31525</v>
+      </c>
+      <c r="D433" t="n">
+        <v>650.17</v>
+      </c>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="n">
+        <v>280.82</v>
+      </c>
+      <c r="G433" t="n">
+        <v>57214.87</v>
+      </c>
+      <c r="H433" t="n">
+        <v>24712.18</v>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:28:37</t>
+        </is>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>CMM0868LCL0007_20250918112817</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="n">
+        <v>0</v>
+      </c>
+      <c r="E434" t="n">
+        <v>88</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:30:38</t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250918113005</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="n">
+        <v>53</v>
+      </c>
+      <c r="E435" t="n">
+        <v>88</v>
+      </c>
+      <c r="F435" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="G435" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H435" t="n">
+        <v>4375.23</v>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:30:38</t>
+        </is>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250918113005</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="n">
+        <v>100</v>
+      </c>
+      <c r="E436" t="n">
+        <v>88</v>
+      </c>
+      <c r="F436" t="n">
+        <v>93.81</v>
+      </c>
+      <c r="G436" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H436" t="n">
+        <v>8255.16</v>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:30:38</t>
+        </is>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250918113005</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>P2P(New York)</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="D437" t="n">
+        <v>121.63</v>
+      </c>
+      <c r="E437" t="n">
+        <v>88</v>
+      </c>
+      <c r="F437" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="G437" t="n">
+        <v>10703.26</v>
+      </c>
+      <c r="H437" t="n">
+        <v>10040.58</v>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:30:38</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250918113005</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>1</v>
+      </c>
+      <c r="D438" t="n">
+        <v>18</v>
+      </c>
+      <c r="E438" t="n">
+        <v>88</v>
+      </c>
+      <c r="F438" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="G438" t="n">
+        <v>1584</v>
+      </c>
+      <c r="H438" t="n">
+        <v>1485.93</v>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:30:38</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250918113005</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Last Mile(HEA2)</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="D439" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="E439" t="n">
+        <v>88</v>
+      </c>
+      <c r="F439" t="n">
+        <v>213.36</v>
+      </c>
+      <c r="G439" t="n">
+        <v>20014.72</v>
+      </c>
+      <c r="H439" t="n">
+        <v>18775.53</v>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:30:38</t>
+        </is>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250918113005</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="D440" t="n">
+        <v>520.0700000000001</v>
+      </c>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="n">
+        <v>487.87</v>
+      </c>
+      <c r="G440" t="n">
+        <v>45765.98</v>
+      </c>
+      <c r="H440" t="n">
+        <v>42932.44</v>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>2025-09-18 11:30:38</t>
+        </is>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>CMM0657LCL0128_20250918113005</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>1St Mile</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>As per Vendor</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="n">
+        <v>0</v>
+      </c>
+      <c r="E441" t="n">
+        <v>88</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>2025-09-18 20:03:56</t>
+        </is>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001_20250918200259</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="n">
+        <v>53</v>
+      </c>
+      <c r="E442" t="n">
+        <v>88</v>
+      </c>
+      <c r="F442" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="G442" t="n">
+        <v>4664</v>
+      </c>
+      <c r="H442" t="n">
+        <v>1739.65</v>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>2025-09-18 20:03:56</t>
+        </is>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001_20250918200259</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>DCC</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Flat (Per Quote)</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="n">
+        <v>100</v>
+      </c>
+      <c r="E443" t="n">
+        <v>88</v>
+      </c>
+      <c r="F443" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="G443" t="n">
+        <v>8800</v>
+      </c>
+      <c r="H443" t="n">
+        <v>3282.36</v>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>2025-09-18 20:03:56</t>
+        </is>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001_20250918200259</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>P2P(Los Angeles)</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="D444" t="n">
+        <v>255.05</v>
+      </c>
+      <c r="E444" t="n">
+        <v>88</v>
+      </c>
+      <c r="F444" t="n">
+        <v>95.13</v>
+      </c>
+      <c r="G444" t="n">
+        <v>22444.59</v>
+      </c>
+      <c r="H444" t="n">
+        <v>8371.719999999999</v>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>2025-09-18 20:03:56</t>
+        </is>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001_20250918200259</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Palletization</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Per Pallet</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>2</v>
+      </c>
+      <c r="D445" t="n">
+        <v>20</v>
+      </c>
+      <c r="E445" t="n">
+        <v>88</v>
+      </c>
+      <c r="F445" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="G445" t="n">
+        <v>1760</v>
+      </c>
+      <c r="H445" t="n">
+        <v>656.47</v>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>2025-09-18 20:03:56</t>
+        </is>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001_20250918200259</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Last Mile(BFI3)</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D446" t="n">
+        <v>551.83</v>
+      </c>
+      <c r="E446" t="n">
+        <v>88</v>
+      </c>
+      <c r="F446" t="n">
+        <v>332.43</v>
+      </c>
+      <c r="G446" t="n">
+        <v>48561.04</v>
+      </c>
+      <c r="H446" t="n">
+        <v>29253.64</v>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>2025-09-18 20:03:56</t>
+        </is>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001_20250918200259</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Last Mile(DEN8)</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="D447" t="n">
+        <v>594.0599999999999</v>
+      </c>
+      <c r="E447" t="n">
+        <v>88</v>
+      </c>
+      <c r="F447" t="n">
+        <v>581.84</v>
+      </c>
+      <c r="G447" t="n">
+        <v>52277.28</v>
+      </c>
+      <c r="H447" t="n">
+        <v>51202.04</v>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>2025-09-18 20:03:56</t>
+        </is>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001_20250918200259</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Per CBM</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="D448" t="n">
+        <v>1573.94</v>
+      </c>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="n">
+        <v>587.0700000000001</v>
+      </c>
+      <c r="G448" t="n">
+        <v>138506.91</v>
+      </c>
+      <c r="H448" t="n">
+        <v>51662.41</v>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>Booking 1</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>2025-09-18 20:03:56</t>
+        </is>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>CMM0937LCL0001_20250918200259</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
